--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0234316B-CCEA-4A98-BE84-00EA3F0B36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28864187-C5FA-41D6-A315-719474139C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="149">
   <si>
     <t>Description</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/VoiceOver02.mp3</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/HDRI01.jpeg</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -566,6 +569,12 @@
       <color theme="0"/>
       <name val="Inter"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Inter"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -588,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -649,21 +658,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -696,6 +705,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1338,6 +1357,14 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF404040"/>
         <name val="Inter"/>
         <scheme val="none"/>
@@ -1545,20 +1572,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:R23" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A1:R23" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:R24" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:R24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="44" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="43" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="42" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="40" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="45" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="44" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="43" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="42"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="41" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="40" dataCellStyle="Hyperlink"/>
     <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="39"/>
     <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="38"/>
     <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="37"/>
@@ -1819,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1836,9 +1863,9 @@
     <col min="7" max="7" width="28.5546875" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="79.77734375" customWidth="1"/>
+    <col min="10" max="10" width="66.21875" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
     <col min="14" max="14" width="8.609375" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
@@ -1920,8 +1947,8 @@
       <c r="E2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
+      <c r="F2" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>2</v>
@@ -1936,7 +1963,7 @@
         <v>145</v>
       </c>
       <c r="K2" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="14">
         <v>1</v>
@@ -2212,7 +2239,7 @@
       <c r="I7" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" t="s">
         <v>142</v>
       </c>
       <c r="K7" s="14" t="b">
@@ -2268,7 +2295,7 @@
       <c r="I8" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" t="s">
         <v>143</v>
       </c>
       <c r="K8" s="14" t="b">
@@ -2324,7 +2351,7 @@
       <c r="I9" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" t="s">
         <v>144</v>
       </c>
       <c r="K9" s="14" t="b">
@@ -2884,7 +2911,7 @@
       <c r="I19" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" t="s">
         <v>146</v>
       </c>
       <c r="K19" s="14" t="b">
@@ -2940,7 +2967,7 @@
       <c r="I20" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" t="s">
         <v>146</v>
       </c>
       <c r="K20" s="14" t="b">
@@ -3136,32 +3163,94 @@
         <v>45750</v>
       </c>
     </row>
+    <row r="24" spans="1:18" ht="12.6" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="19">
+        <v>22</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="26">
+        <v>-7.6</v>
+      </c>
+      <c r="N24" s="14">
+        <v>100</v>
+      </c>
+      <c r="O24" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="22">
+        <v>45750</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
     <hyperlink ref="G3:G23" r:id="rId2" display="https://i.imgur.com/6DLBULh.jpeg" xr:uid="{7FCF6E76-601E-4D77-868E-DDAD36AE9EFE}"/>
     <hyperlink ref="J2" r:id="rId3" xr:uid="{E94CA873-A5B7-472E-A9AA-3B4EAE0D41A8}"/>
     <hyperlink ref="F3" r:id="rId4" xr:uid="{930CEDC9-1E0D-4604-95F5-2CF832E92DC5}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{CCED2215-9938-4A5E-AD82-048EC06B95E3}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{684A4D25-C9F1-4981-8EE0-411EF0AC2639}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{EA655E28-E68F-41E7-984F-EDA8BD5220C0}"/>
-    <hyperlink ref="H2" r:id="rId8" xr:uid="{893D953A-B832-4A71-9EAD-2284E48F0382}"/>
-    <hyperlink ref="H3:H23" r:id="rId9" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/BGM.mp3" xr:uid="{02081747-20FE-4F12-8FA4-7727D5763270}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{28AF81D9-3617-478D-974B-3CAEE01B42C0}"/>
-    <hyperlink ref="J5" r:id="rId11" xr:uid="{5FA4E6F1-074E-4A03-96D0-DBAE463C15EF}"/>
-    <hyperlink ref="J11" r:id="rId12" xr:uid="{3CD8310A-016D-42C3-A6BE-335A2F323B88}"/>
-    <hyperlink ref="J13" r:id="rId13" xr:uid="{040955DA-95DB-43AB-B915-44A2695AF57B}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{E0987B25-1551-471E-AED5-14A677AD5B6F}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{835520AE-40FE-4480-9D34-BED87262B028}"/>
-    <hyperlink ref="J22" r:id="rId16" xr:uid="{EC2D490C-DE27-4E10-B33E-36D0067AE17B}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{684A4D25-C9F1-4981-8EE0-411EF0AC2639}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{EA655E28-E68F-41E7-984F-EDA8BD5220C0}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{893D953A-B832-4A71-9EAD-2284E48F0382}"/>
+    <hyperlink ref="H3:H23" r:id="rId8" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/BGM.mp3" xr:uid="{02081747-20FE-4F12-8FA4-7727D5763270}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{28AF81D9-3617-478D-974B-3CAEE01B42C0}"/>
+    <hyperlink ref="J5" r:id="rId10" xr:uid="{5FA4E6F1-074E-4A03-96D0-DBAE463C15EF}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{3CD8310A-016D-42C3-A6BE-335A2F323B88}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{040955DA-95DB-43AB-B915-44A2695AF57B}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{E0987B25-1551-471E-AED5-14A677AD5B6F}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{835520AE-40FE-4480-9D34-BED87262B028}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{EC2D490C-DE27-4E10-B33E-36D0067AE17B}"/>
+    <hyperlink ref="G24" r:id="rId16" xr:uid="{F6F2E5D4-3D07-4354-8758-9FDF501FF5D6}"/>
+    <hyperlink ref="H24" r:id="rId17" xr:uid="{A0D183CA-9B40-45F4-961C-4A2053566F47}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{692EE34C-1BE1-439B-99DD-6EE07BF6BEC6}"/>
+    <hyperlink ref="F2" r:id="rId19" xr:uid="{AD4D78D3-E0E1-4586-A7DA-C829F42D6FC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE82B2-DCA9-4BB2-B4A9-3EADF1874480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C143D68C-01CE-4186-B80F-3DF20A3F5778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1865,7 +1865,7 @@
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="11.27734375" style="13" customWidth="1"/>
     <col min="5" max="5" width="17.94140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="28.5546875" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="22">
         <v>45750</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F2C98-E770-4F93-9A8A-F9D9D945E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C8C6E-8CB2-4FD8-A531-527E28A902B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,13 +469,13 @@
     <t>https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/VoiceOver02.mp3</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/HDRI01.jpeg</t>
-  </si>
-  <si>
     <t>scene-23</t>
   </si>
   <si>
     <t>FF Hall 05 B</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/HDRI01.JPG</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1954,7 +1954,7 @@
         <v>105</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>2</v>
@@ -3177,13 +3177,13 @@
         <v>89</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="19">
         <v>23</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>3</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98C295-C4DA-4EC0-B48C-D8951597B2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0221EC23-A74C-4D12-9629-BDFDBFD4C5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
     <t>Description</t>
   </si>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -2030,8 +2030,8 @@
       <c r="I3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="14" t="b">
-        <v>0</v>
+      <c r="J3" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="K3" s="14" t="b">
         <v>1</v>
@@ -2590,8 +2590,8 @@
       <c r="I13" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="14" t="b">
-        <v>0</v>
+      <c r="J13" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="K13" s="14" t="b">
         <v>0</v>
@@ -2646,8 +2646,8 @@
       <c r="I14" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="14" t="b">
-        <v>0</v>
+      <c r="J14" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="K14" s="14" t="b">
         <v>0</v>
@@ -2702,8 +2702,8 @@
       <c r="I15" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="14" t="b">
-        <v>0</v>
+      <c r="J15" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="K15" s="14" t="b">
         <v>0</v>
@@ -2814,8 +2814,8 @@
       <c r="I17" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="14" t="b">
-        <v>0</v>
+      <c r="J17" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="K17" s="14" t="b">
         <v>0</v>
@@ -2870,8 +2870,8 @@
       <c r="I18" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="14" t="b">
-        <v>0</v>
+      <c r="J18" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="K18" s="14" t="b">
         <v>0</v>
@@ -3206,8 +3206,8 @@
       <c r="I24" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="14" t="b">
-        <v>0</v>
+      <c r="J24" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="K24" s="24" t="b">
         <v>1</v>
@@ -3258,10 +3258,12 @@
     <hyperlink ref="J16" r:id="rId13" xr:uid="{7F4FD95E-D1CF-4178-B7FB-A494535270D1}"/>
     <hyperlink ref="H4" r:id="rId14" xr:uid="{6C69B97E-EAFB-43EE-BCF9-F1737A23BCEF}"/>
     <hyperlink ref="H19" r:id="rId15" xr:uid="{E9B355D1-971A-4C20-AED5-2016538E930A}"/>
+    <hyperlink ref="J17:J18" r:id="rId16" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/VoiceOverAR.mp3" xr:uid="{731F5AEE-B8CD-4E6F-A841-8859E8484A46}"/>
+    <hyperlink ref="J24" r:id="rId17" xr:uid="{B318BE54-3D1A-41E5-9D89-19102C00B67C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476AC7E4-BE1E-4246-9CB1-013B496111AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE367DF0-D872-46C2-B7D0-839BB36A4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
@@ -1000,16 +1000,16 @@
     <t>VC Actor image BG Color</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
+    <t>background: rgba(255,255,255,0.5);</t>
+  </si>
+  <si>
+    <t>background: rgba(224,229,12,0.5);</t>
+  </si>
+  <si>
+    <t>background: rgba(97,194,242,0.5);</t>
+  </si>
+  <si>
+    <t>background: rgba(61,196,116,0.5);</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2717,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -3277,7 +3277,7 @@
         <v>322</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M9" s="13" t="b">
         <v>1</v>
@@ -3897,7 +3897,7 @@
         <v>320</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M19" s="13" t="b">
         <v>1</v>
@@ -4272,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE367DF0-D872-46C2-B7D0-839BB36A4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C04B555-33C8-4D27-9B12-A616B989BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6C70E405-056C-4630-84C4-AAE33C0A0BE7}</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6C70E405-056C-4630-84C4-AAE33C0A0BE7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Photo ratio 3:4</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="331">
   <si>
     <t>Description</t>
   </si>
@@ -1000,23 +1018,29 @@
     <t>VC Actor image BG Color</t>
   </si>
   <si>
-    <t>background: rgba(255,255,255,0.5);</t>
-  </si>
-  <si>
-    <t>background: rgba(224,229,12,0.5);</t>
-  </si>
-  <si>
-    <t>background: rgba(97,194,242,0.5);</t>
-  </si>
-  <si>
-    <t>background: rgba(61,196,116,0.5);</t>
+    <t>White</t>
+  </si>
+  <si>
+    <t>255,255,255,0.5</t>
+  </si>
+  <si>
+    <t>224,229,12,0.5</t>
+  </si>
+  <si>
+    <t>97,194,242,0.5</t>
+  </si>
+  <si>
+    <t>61,196,116,0.5</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1118,6 +1142,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2438,6 +2467,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Riyas Moosa Kaithakkodan" id="{9888E4AF-88C7-4DBD-9410-40F9D12465FB}" userId="S::riyas.moosa@lightingstores.com.sa::70f8131b-a066-4818-a8bb-86f326f790aa" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:T24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
@@ -2713,12 +2748,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L1" dT="2025-04-08T09:21:15.64" personId="{9888E4AF-88C7-4DBD-9410-40F9D12465FB}" id="{6C70E405-056C-4630-84C4-AAE33C0A0BE7}">
+    <text>Photo ratio 3:4</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -2734,7 +2777,7 @@
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="73.5" customWidth="1"/>
     <col min="11" max="11" width="30.71875" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="39.38671875" style="12" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="9.44140625" customWidth="1"/>
@@ -2843,7 +2886,7 @@
         <v>99</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="13" t="b">
         <v>1</v>
@@ -2905,7 +2948,7 @@
         <v>99</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M3" s="13" t="b">
         <v>1</v>
@@ -2967,7 +3010,7 @@
         <v>99</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M4" s="13" t="b">
         <v>1</v>
@@ -3029,7 +3072,7 @@
         <v>99</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M5" s="13" t="b">
         <v>1</v>
@@ -3091,7 +3134,7 @@
         <v>99</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M6" s="13" t="b">
         <v>1</v>
@@ -3153,7 +3196,7 @@
         <v>321</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M7" s="13" t="b">
         <v>1</v>
@@ -3215,7 +3258,7 @@
         <v>99</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M8" s="13" t="b">
         <v>1</v>
@@ -3277,7 +3320,7 @@
         <v>322</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M9" s="13" t="b">
         <v>1</v>
@@ -3339,7 +3382,7 @@
         <v>99</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M10" s="13" t="b">
         <v>1</v>
@@ -3401,7 +3444,7 @@
         <v>99</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M11" s="13" t="b">
         <v>1</v>
@@ -3463,7 +3506,7 @@
         <v>99</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M12" s="13" t="b">
         <v>1</v>
@@ -3525,7 +3568,7 @@
         <v>99</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M13" s="13" t="b">
         <v>0</v>
@@ -3587,7 +3630,7 @@
         <v>99</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M14" s="13" t="b">
         <v>0</v>
@@ -3649,7 +3692,7 @@
         <v>99</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M15" s="13" t="b">
         <v>0</v>
@@ -3711,7 +3754,7 @@
         <v>99</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M16" s="13" t="b">
         <v>1</v>
@@ -3773,7 +3816,7 @@
         <v>99</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M17" s="13" t="b">
         <v>0</v>
@@ -3835,7 +3878,7 @@
         <v>99</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M18" s="13" t="b">
         <v>0</v>
@@ -3897,7 +3940,7 @@
         <v>320</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M19" s="13" t="b">
         <v>1</v>
@@ -4207,7 +4250,7 @@
         <v>99</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M24" s="22" t="b">
         <v>1</v>
@@ -4262,8 +4305,9 @@
     <hyperlink ref="J24" r:id="rId17" xr:uid="{B318BE54-3D1A-41E5-9D89-19102C00B67C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C04B555-33C8-4D27-9B12-A616B989BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AEE0F-DD5A-4FB5-8E67-4134D46A637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="341">
   <si>
     <t>Description</t>
   </si>
@@ -1006,12 +1006,6 @@
     <t>https://i.imgur.com/abiT4mo.png</t>
   </si>
   <si>
-    <t>https://i.imgur.com/WhM5ENP.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/dSQ66uo.png</t>
-  </si>
-  <si>
     <t>"Heeey, Marhaba, Im CR7, for a better sleep we need a comfirtable sleeping partner. lets exploreour premium bedings."</t>
   </si>
   <si>
@@ -1034,13 +1028,49 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Hotspot Hover Active</t>
+  </si>
+  <si>
+    <t>Floor Thumb Active</t>
+  </si>
+  <si>
+    <t>https://static.vecteezy.com/system/resources/previews/054/250/025/non_2x/round-table-icon-design-symbol-vector.jpg</t>
+  </si>
+  <si>
+    <t>https://static.vecteezy.com/system/resources/previews/043/602/284/non_2x/dining-chair-multi-color-circle-icon-vector.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn-icons-png.freepik.com/512/9783/9783549.png</t>
+  </si>
+  <si>
+    <t>https://cdn-icons-png.freepik.com/512/16695/16695235.png</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/sa/en/images/products/varvial-fitted-sheet-blue__1243833_pe920981_s5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/sa/en/images/products/praktvial-bedspread-off-white__1249510_pe923370_s5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/sa/en/images/products/soederhamn-corner-sofa-4-seat-with-open-end-tonerud-grey__1057823_pe849006_s5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/cd/40/25/cd402521325c735c601f6de05fcf4f8d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/I7nxUBv.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/u4NOPOQ.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1142,11 +1172,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1320,31 +1345,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="84">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF404040"/>
         <name val="Inter"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1849,6 +1918,24 @@
         <name val="Inter"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2269,6 +2356,20 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2474,79 +2575,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:T24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="73"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="70" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="69" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="68" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="67"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="66" dataCellStyle="Hyperlink"/>
-    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="76" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="75" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="74" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="73"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="72" dataCellStyle="Hyperlink"/>
+    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="71" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="70" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="69" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="64"/>
+    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:Q162" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:Q162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
-  <tableColumns count="17">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="56"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="48"/>
-    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:R162" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A1:R162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
+  <tableColumns count="18">
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:D3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="35" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="37" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2761,7 +2864,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -2824,7 +2927,7 @@
         <v>319</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>125</v>
@@ -2885,8 +2988,8 @@
       <c r="K2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>326</v>
+      <c r="L2" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M2" s="13" t="b">
         <v>1</v>
@@ -2947,8 +3050,8 @@
       <c r="K3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>326</v>
+      <c r="L3" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M3" s="13" t="b">
         <v>1</v>
@@ -3009,8 +3112,8 @@
       <c r="K4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="38" t="s">
-        <v>326</v>
+      <c r="L4" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M4" s="13" t="b">
         <v>1</v>
@@ -3071,8 +3174,8 @@
       <c r="K5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>326</v>
+      <c r="L5" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M5" s="13" t="b">
         <v>1</v>
@@ -3133,8 +3236,8 @@
       <c r="K6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="38" t="s">
-        <v>326</v>
+      <c r="L6" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M6" s="13" t="b">
         <v>1</v>
@@ -3190,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>327</v>
+        <v>339</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>325</v>
       </c>
       <c r="M7" s="13" t="b">
         <v>1</v>
@@ -3257,8 +3360,8 @@
       <c r="K8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="38" t="s">
-        <v>326</v>
+      <c r="L8" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M8" s="13" t="b">
         <v>1</v>
@@ -3317,10 +3420,10 @@
         <v>317</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>328</v>
+        <v>340</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>326</v>
       </c>
       <c r="M9" s="13" t="b">
         <v>1</v>
@@ -3381,8 +3484,8 @@
       <c r="K10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="38" t="s">
-        <v>326</v>
+      <c r="L10" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M10" s="13" t="b">
         <v>1</v>
@@ -3443,8 +3546,8 @@
       <c r="K11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="38" t="s">
-        <v>326</v>
+      <c r="L11" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M11" s="13" t="b">
         <v>1</v>
@@ -3505,8 +3608,8 @@
       <c r="K12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="38" t="s">
-        <v>326</v>
+      <c r="L12" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M12" s="13" t="b">
         <v>1</v>
@@ -3567,8 +3670,8 @@
       <c r="K13" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="38" t="s">
-        <v>326</v>
+      <c r="L13" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M13" s="13" t="b">
         <v>0</v>
@@ -3629,8 +3732,8 @@
       <c r="K14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="38" t="s">
-        <v>326</v>
+      <c r="L14" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M14" s="13" t="b">
         <v>0</v>
@@ -3691,8 +3794,8 @@
       <c r="K15" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="38" t="s">
-        <v>326</v>
+      <c r="L15" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M15" s="13" t="b">
         <v>0</v>
@@ -3753,8 +3856,8 @@
       <c r="K16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="38" t="s">
-        <v>326</v>
+      <c r="L16" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M16" s="13" t="b">
         <v>1</v>
@@ -3815,8 +3918,8 @@
       <c r="K17" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="38" t="s">
-        <v>326</v>
+      <c r="L17" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M17" s="13" t="b">
         <v>0</v>
@@ -3877,8 +3980,8 @@
       <c r="K18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="38" t="s">
-        <v>326</v>
+      <c r="L18" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="M18" s="13" t="b">
         <v>0</v>
@@ -3939,8 +4042,8 @@
       <c r="K19" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="38" t="s">
-        <v>329</v>
+      <c r="L19" s="37" t="s">
+        <v>327</v>
       </c>
       <c r="M19" s="13" t="b">
         <v>1</v>
@@ -4001,8 +4104,8 @@
       <c r="K20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L20" s="38" t="s">
-        <v>325</v>
+      <c r="L20" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="M20" s="13" t="b">
         <v>1</v>
@@ -4063,8 +4166,8 @@
       <c r="K21" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L21" s="38" t="s">
-        <v>325</v>
+      <c r="L21" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="M21" s="13" t="b">
         <v>1</v>
@@ -4125,8 +4228,8 @@
       <c r="K22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>325</v>
+      <c r="L22" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="M22" s="13" t="b">
         <v>1</v>
@@ -4187,8 +4290,8 @@
       <c r="K23" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="38" t="s">
-        <v>325</v>
+      <c r="L23" s="37" t="s">
+        <v>323</v>
       </c>
       <c r="M23" s="13" t="b">
         <v>1</v>
@@ -4249,8 +4352,8 @@
       <c r="K24" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="38" t="s">
-        <v>330</v>
+      <c r="L24" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="M24" s="22" t="b">
         <v>1</v>
@@ -4280,10 +4383,10 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
@@ -4314,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G29"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4327,21 +4430,22 @@
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.609375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
     <col min="13" max="13" width="22.77734375" customWidth="1"/>
     <col min="14" max="14" width="24.83203125" customWidth="1"/>
     <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5" customWidth="1"/>
     <col min="17" max="17" width="57.27734375" customWidth="1"/>
-    <col min="20" max="20" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.5" customWidth="1"/>
-    <col min="22" max="22" width="26.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.609375" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" customWidth="1"/>
+    <col min="26" max="26" width="19.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
@@ -4393,8 +4497,11 @@
       <c r="Q1" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R1" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
@@ -4446,8 +4553,11 @@
       <c r="Q2" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R2" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -4499,8 +4609,11 @@
       <c r="Q3" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R3" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -4529,10 +4642,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>303</v>
@@ -4552,8 +4665,11 @@
       <c r="Q4" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R4" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -4582,10 +4698,10 @@
         <v>50</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>304</v>
@@ -4597,7 +4713,7 @@
         <v>308</v>
       </c>
       <c r="O5" s="13">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>99</v>
@@ -4605,8 +4721,11 @@
       <c r="Q5" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R5" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -4635,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>32</v>
@@ -4650,7 +4769,7 @@
         <v>315</v>
       </c>
       <c r="O6" s="14">
-        <v>32</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>99</v>
@@ -4658,8 +4777,11 @@
       <c r="Q6" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R6" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -4688,10 +4810,10 @@
         <v>50</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>306</v>
@@ -4711,8 +4833,11 @@
       <c r="Q7" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R7" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -4741,10 +4866,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>307</v>
@@ -4764,8 +4889,11 @@
       <c r="Q8" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R8" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -4817,8 +4945,11 @@
       <c r="Q9" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R9" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
@@ -4870,8 +5001,11 @@
       <c r="Q10" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R10" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
         <v>40</v>
       </c>
@@ -4900,10 +5034,10 @@
         <v>50</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>303</v>
@@ -4923,8 +5057,11 @@
       <c r="Q11" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R11" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -4953,10 +5090,10 @@
         <v>50</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>304</v>
@@ -4968,7 +5105,7 @@
         <v>308</v>
       </c>
       <c r="O12" s="13">
-        <v>22</v>
+        <v>15.82</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>99</v>
@@ -4976,8 +5113,11 @@
       <c r="Q12" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R12" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -5006,7 +5146,7 @@
         <v>50</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>32</v>
@@ -5021,7 +5161,7 @@
         <v>315</v>
       </c>
       <c r="O13" s="14">
-        <v>32</v>
+        <v>45.65</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>99</v>
@@ -5029,8 +5169,11 @@
       <c r="Q13" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R13" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
@@ -5062,7 +5205,7 @@
         <v>134</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>306</v>
@@ -5082,8 +5225,11 @@
       <c r="Q14" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R14" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
         <v>40</v>
       </c>
@@ -5115,7 +5261,7 @@
         <v>134</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>307</v>
@@ -5135,8 +5281,11 @@
       <c r="Q15" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R15" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
         <v>40</v>
       </c>
@@ -5164,10 +5313,10 @@
       <c r="I16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="J16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="25" t="s">
@@ -5188,8 +5337,11 @@
       <c r="Q16" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R16" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
@@ -5217,10 +5369,10 @@
       <c r="I17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="26" t="s">
@@ -5241,8 +5393,11 @@
       <c r="Q17" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
@@ -5270,11 +5425,11 @@
       <c r="I18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>134</v>
+      <c r="J18" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L18" s="25" t="s">
         <v>303</v>
@@ -5294,8 +5449,11 @@
       <c r="Q18" s="29" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R18" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
         <v>40</v>
       </c>
@@ -5323,8 +5481,8 @@
       <c r="I19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>134</v>
+      <c r="J19" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>32</v>
@@ -5347,8 +5505,11 @@
       <c r="Q19" s="30" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R19" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
@@ -5376,8 +5537,8 @@
       <c r="I20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>134</v>
+      <c r="J20" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>32</v>
@@ -5400,8 +5561,11 @@
       <c r="Q20" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R20" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
@@ -5429,11 +5593,11 @@
       <c r="I21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>134</v>
+      <c r="J21" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>306</v>
@@ -5453,8 +5617,11 @@
       <c r="Q21" s="30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R21" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
@@ -5482,11 +5649,11 @@
       <c r="I22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="28" t="s">
-        <v>134</v>
+      <c r="J22" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L22" s="25" t="s">
         <v>307</v>
@@ -5506,8 +5673,11 @@
       <c r="Q22" s="29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R22" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -5535,10 +5705,10 @@
       <c r="I23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="13" t="s">
+      <c r="J23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L23" s="25" t="s">
@@ -5559,8 +5729,11 @@
       <c r="Q23" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R23" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
         <v>40</v>
       </c>
@@ -5588,10 +5761,10 @@
       <c r="I24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="13" t="s">
+      <c r="J24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="26" t="s">
@@ -5612,8 +5785,11 @@
       <c r="Q24" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R24" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
         <v>40</v>
       </c>
@@ -5641,11 +5817,11 @@
       <c r="I25" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="28" t="s">
-        <v>134</v>
+      <c r="J25" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="L25" s="25" t="s">
         <v>303</v>
@@ -5665,8 +5841,11 @@
       <c r="Q25" s="30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R25" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
@@ -5694,11 +5873,11 @@
       <c r="I26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="27" t="s">
-        <v>134</v>
+      <c r="J26" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>304</v>
@@ -5718,8 +5897,11 @@
       <c r="Q26" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R26" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
@@ -5747,8 +5929,8 @@
       <c r="I27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>134</v>
+      <c r="J27" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>32</v>
@@ -5771,8 +5953,11 @@
       <c r="Q27" s="30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R27" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
         <v>40</v>
       </c>
@@ -5800,11 +5985,11 @@
       <c r="I28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="18" t="s">
         <v>134</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>306</v>
@@ -5824,8 +6009,11 @@
       <c r="Q28" s="35" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R28" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
@@ -5853,11 +6041,11 @@
       <c r="I29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="18" t="s">
         <v>134</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L29" s="25" t="s">
         <v>307</v>
@@ -5877,8 +6065,11 @@
       <c r="Q29" s="30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R29" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13" t="s">
         <v>40</v>
       </c>
@@ -5930,8 +6121,11 @@
       <c r="Q30" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R30" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
@@ -5983,8 +6177,11 @@
       <c r="Q31" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R31" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A32" s="13" t="s">
         <v>40</v>
       </c>
@@ -6012,11 +6209,11 @@
       <c r="I32" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="24" t="s">
-        <v>134</v>
+      <c r="J32" s="18" t="s">
+        <v>331</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>303</v>
@@ -6036,8 +6233,11 @@
       <c r="Q32" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R32" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A33" s="13" t="s">
         <v>40</v>
       </c>
@@ -6065,11 +6265,11 @@
       <c r="I33" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>134</v>
+      <c r="J33" s="18" t="s">
+        <v>331</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>304</v>
@@ -6089,8 +6289,11 @@
       <c r="Q33" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R33" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>40</v>
       </c>
@@ -6118,8 +6321,8 @@
       <c r="I34" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="24" t="s">
-        <v>134</v>
+      <c r="J34" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>32</v>
@@ -6142,8 +6345,11 @@
       <c r="Q34" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R34" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
@@ -6171,11 +6377,11 @@
       <c r="I35" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="24" t="s">
-        <v>134</v>
+      <c r="J35" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>306</v>
@@ -6195,8 +6401,11 @@
       <c r="Q35" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R35" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A36" s="13" t="s">
         <v>40</v>
       </c>
@@ -6224,11 +6433,11 @@
       <c r="I36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J36" s="24" t="s">
-        <v>134</v>
+      <c r="J36" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>307</v>
@@ -6248,8 +6457,11 @@
       <c r="Q36" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R36" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
         <v>40</v>
       </c>
@@ -6280,7 +6492,7 @@
       <c r="J37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="13" t="s">
@@ -6301,8 +6513,11 @@
       <c r="Q37" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R37" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -6333,7 +6548,7 @@
       <c r="J38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="13" t="s">
@@ -6354,8 +6569,11 @@
       <c r="Q38" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R38" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A39" s="13" t="s">
         <v>40</v>
       </c>
@@ -6383,11 +6601,11 @@
       <c r="I39" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="24" t="s">
-        <v>134</v>
+      <c r="J39" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>303</v>
@@ -6407,8 +6625,11 @@
       <c r="Q39" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R39" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A40" s="13" t="s">
         <v>40</v>
       </c>
@@ -6436,8 +6657,8 @@
       <c r="I40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="24" t="s">
-        <v>134</v>
+      <c r="J40" s="18" t="s">
+        <v>334</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>32</v>
@@ -6460,8 +6681,11 @@
       <c r="Q40" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R40" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
@@ -6489,8 +6713,8 @@
       <c r="I41" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="24" t="s">
-        <v>134</v>
+      <c r="J41" s="18" t="s">
+        <v>334</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>32</v>
@@ -6513,8 +6737,11 @@
       <c r="Q41" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R41" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A42" s="13" t="s">
         <v>40</v>
       </c>
@@ -6542,11 +6769,11 @@
       <c r="I42" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="18" t="s">
         <v>134</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>306</v>
@@ -6566,8 +6793,11 @@
       <c r="Q42" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R42" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
         <v>40</v>
       </c>
@@ -6595,11 +6825,11 @@
       <c r="I43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="18" t="s">
         <v>134</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L43" s="13" t="s">
         <v>307</v>
@@ -6619,8 +6849,11 @@
       <c r="Q43" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R43" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
@@ -6651,7 +6884,7 @@
       <c r="J44" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="25" t="s">
@@ -6672,8 +6905,11 @@
       <c r="Q44" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R44" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
         <v>40</v>
       </c>
@@ -6701,10 +6937,10 @@
       <c r="I45" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J45" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="13" t="s">
+      <c r="J45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L45" s="26" t="s">
@@ -6725,8 +6961,11 @@
       <c r="Q45" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R45" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
         <v>40</v>
       </c>
@@ -6754,11 +6993,11 @@
       <c r="I46" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="28" t="s">
-        <v>134</v>
+      <c r="J46" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L46" s="25" t="s">
         <v>303</v>
@@ -6778,8 +7017,11 @@
       <c r="Q46" s="29" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R46" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A47" s="13" t="s">
         <v>40</v>
       </c>
@@ -6807,8 +7049,8 @@
       <c r="I47" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J47" s="27" t="s">
-        <v>134</v>
+      <c r="J47" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>32</v>
@@ -6831,8 +7073,11 @@
       <c r="Q47" s="30" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R47" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A48" s="13" t="s">
         <v>40</v>
       </c>
@@ -6860,8 +7105,8 @@
       <c r="I48" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="28" t="s">
-        <v>134</v>
+      <c r="J48" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>32</v>
@@ -6884,8 +7129,11 @@
       <c r="Q48" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R48" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A49" s="13" t="s">
         <v>40</v>
       </c>
@@ -6913,11 +7161,11 @@
       <c r="I49" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J49" s="27" t="s">
-        <v>134</v>
+      <c r="J49" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>306</v>
@@ -6937,8 +7185,11 @@
       <c r="Q49" s="30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R49" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A50" s="13" t="s">
         <v>40</v>
       </c>
@@ -6966,11 +7217,11 @@
       <c r="I50" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J50" s="28" t="s">
-        <v>134</v>
+      <c r="J50" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L50" s="25" t="s">
         <v>307</v>
@@ -6990,8 +7241,11 @@
       <c r="Q50" s="29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R50" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="13" t="s">
         <v>40</v>
       </c>
@@ -7022,7 +7276,7 @@
       <c r="J51" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L51" s="25" t="s">
@@ -7043,8 +7297,11 @@
       <c r="Q51" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R51" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A52" s="13" t="s">
         <v>40</v>
       </c>
@@ -7072,10 +7329,10 @@
       <c r="I52" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J52" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="13" t="s">
+      <c r="J52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L52" s="26" t="s">
@@ -7096,8 +7353,11 @@
       <c r="Q52" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R52" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A53" s="13" t="s">
         <v>40</v>
       </c>
@@ -7125,11 +7385,11 @@
       <c r="I53" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="28" t="s">
-        <v>134</v>
+      <c r="J53" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="L53" s="25" t="s">
         <v>303</v>
@@ -7149,8 +7409,11 @@
       <c r="Q53" s="30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R53" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A54" s="13" t="s">
         <v>40</v>
       </c>
@@ -7178,11 +7441,11 @@
       <c r="I54" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="27" t="s">
-        <v>134</v>
+      <c r="J54" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="L54" s="26" t="s">
         <v>304</v>
@@ -7202,8 +7465,11 @@
       <c r="Q54" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R54" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A55" s="13" t="s">
         <v>40</v>
       </c>
@@ -7231,8 +7497,8 @@
       <c r="I55" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J55" s="28" t="s">
-        <v>134</v>
+      <c r="J55" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>32</v>
@@ -7255,8 +7521,11 @@
       <c r="Q55" s="30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R55" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
         <v>40</v>
       </c>
@@ -7284,11 +7553,11 @@
       <c r="I56" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J56" s="27" t="s">
-        <v>134</v>
+      <c r="J56" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L56" s="26" t="s">
         <v>306</v>
@@ -7308,8 +7577,11 @@
       <c r="Q56" s="29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R56" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A57" s="13" t="s">
         <v>40</v>
       </c>
@@ -7337,11 +7609,11 @@
       <c r="I57" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="28" t="s">
-        <v>134</v>
+      <c r="J57" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L57" s="25" t="s">
         <v>307</v>
@@ -7361,8 +7633,11 @@
       <c r="Q57" s="30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R57" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="13" t="s">
         <v>40</v>
       </c>
@@ -7390,7 +7665,7 @@
       <c r="I58" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="25" t="s">
         <v>32</v>
       </c>
       <c r="K58" s="13" t="s">
@@ -7414,8 +7689,11 @@
       <c r="Q58" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R58" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A59" s="13" t="s">
         <v>40</v>
       </c>
@@ -7443,7 +7721,7 @@
       <c r="I59" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="25" t="s">
         <v>32</v>
       </c>
       <c r="K59" s="13" t="s">
@@ -7467,8 +7745,11 @@
       <c r="Q59" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R59" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
         <v>40</v>
       </c>
@@ -7496,11 +7777,11 @@
       <c r="I60" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J60" s="24" t="s">
-        <v>134</v>
+      <c r="J60" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L60" s="13" t="s">
         <v>303</v>
@@ -7520,8 +7801,11 @@
       <c r="Q60" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R60" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A61" s="13" t="s">
         <v>40</v>
       </c>
@@ -7549,11 +7833,11 @@
       <c r="I61" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J61" s="24" t="s">
-        <v>134</v>
+      <c r="J61" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="L61" s="13" t="s">
         <v>304</v>
@@ -7573,8 +7857,11 @@
       <c r="Q61" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R61" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
         <v>40</v>
       </c>
@@ -7602,8 +7889,8 @@
       <c r="I62" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J62" s="24" t="s">
-        <v>134</v>
+      <c r="J62" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>32</v>
@@ -7626,8 +7913,11 @@
       <c r="Q62" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R62" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A63" s="13" t="s">
         <v>40</v>
       </c>
@@ -7655,11 +7945,11 @@
       <c r="I63" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J63" s="24" t="s">
-        <v>134</v>
+      <c r="J63" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>306</v>
@@ -7679,8 +7969,11 @@
       <c r="Q63" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R63" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
         <v>40</v>
       </c>
@@ -7708,11 +8001,11 @@
       <c r="I64" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J64" s="24" t="s">
-        <v>134</v>
+      <c r="J64" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L64" s="13" t="s">
         <v>307</v>
@@ -7732,8 +8025,11 @@
       <c r="Q64" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R64" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="13" t="s">
         <v>40</v>
       </c>
@@ -7761,10 +8057,10 @@
       <c r="I65" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="13" t="s">
+      <c r="J65" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L65" s="13" t="s">
@@ -7785,8 +8081,11 @@
       <c r="Q65" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R65" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A66" s="13" t="s">
         <v>40</v>
       </c>
@@ -7814,10 +8113,10 @@
       <c r="I66" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="13" t="s">
+      <c r="J66" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L66" s="13" t="s">
@@ -7838,8 +8137,11 @@
       <c r="Q66" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R66" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
         <v>40</v>
       </c>
@@ -7867,11 +8169,11 @@
       <c r="I67" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J67" s="24" t="s">
-        <v>134</v>
+      <c r="J67" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>303</v>
@@ -7891,8 +8193,11 @@
       <c r="Q67" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R67" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A68" s="13" t="s">
         <v>40</v>
       </c>
@@ -7920,8 +8225,8 @@
       <c r="I68" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J68" s="24" t="s">
-        <v>134</v>
+      <c r="J68" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>32</v>
@@ -7944,8 +8249,11 @@
       <c r="Q68" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R68" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A69" s="13" t="s">
         <v>40</v>
       </c>
@@ -7973,8 +8281,8 @@
       <c r="I69" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J69" s="24" t="s">
-        <v>134</v>
+      <c r="J69" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>32</v>
@@ -7997,8 +8305,11 @@
       <c r="Q69" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R69" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
         <v>40</v>
       </c>
@@ -8026,11 +8337,11 @@
       <c r="I70" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J70" s="24" t="s">
-        <v>134</v>
+      <c r="J70" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>306</v>
@@ -8050,8 +8361,11 @@
       <c r="Q70" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R70" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A71" s="13" t="s">
         <v>40</v>
       </c>
@@ -8079,11 +8393,11 @@
       <c r="I71" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J71" s="24" t="s">
-        <v>134</v>
+      <c r="J71" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>307</v>
@@ -8103,8 +8417,11 @@
       <c r="Q71" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R71" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="13" t="s">
         <v>40</v>
       </c>
@@ -8135,7 +8452,7 @@
       <c r="J72" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="K72" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L72" s="25" t="s">
@@ -8156,8 +8473,11 @@
       <c r="Q72" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R72" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A73" s="13" t="s">
         <v>40</v>
       </c>
@@ -8185,10 +8505,10 @@
       <c r="I73" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J73" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="13" t="s">
+      <c r="J73" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L73" s="26" t="s">
@@ -8209,8 +8529,11 @@
       <c r="Q73" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R73" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A74" s="13" t="s">
         <v>40</v>
       </c>
@@ -8238,11 +8561,11 @@
       <c r="I74" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J74" s="28" t="s">
-        <v>134</v>
+      <c r="J74" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L74" s="25" t="s">
         <v>303</v>
@@ -8262,8 +8585,11 @@
       <c r="Q74" s="29" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R74" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A75" s="13" t="s">
         <v>40</v>
       </c>
@@ -8291,8 +8617,8 @@
       <c r="I75" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J75" s="27" t="s">
-        <v>134</v>
+      <c r="J75" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>32</v>
@@ -8315,8 +8641,11 @@
       <c r="Q75" s="30" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R75" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A76" s="13" t="s">
         <v>40</v>
       </c>
@@ -8344,8 +8673,8 @@
       <c r="I76" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J76" s="28" t="s">
-        <v>134</v>
+      <c r="J76" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>32</v>
@@ -8368,8 +8697,11 @@
       <c r="Q76" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R76" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A77" s="13" t="s">
         <v>40</v>
       </c>
@@ -8397,11 +8729,11 @@
       <c r="I77" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J77" s="27" t="s">
-        <v>134</v>
+      <c r="J77" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L77" s="26" t="s">
         <v>306</v>
@@ -8421,8 +8753,11 @@
       <c r="Q77" s="30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R77" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A78" s="13" t="s">
         <v>40</v>
       </c>
@@ -8450,11 +8785,11 @@
       <c r="I78" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="28" t="s">
-        <v>134</v>
+      <c r="J78" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L78" s="25" t="s">
         <v>307</v>
@@ -8474,8 +8809,11 @@
       <c r="Q78" s="29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R78" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="13" t="s">
         <v>40</v>
       </c>
@@ -8506,7 +8844,7 @@
       <c r="J79" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K79" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L79" s="25" t="s">
@@ -8527,8 +8865,11 @@
       <c r="Q79" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R79" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A80" s="13" t="s">
         <v>40</v>
       </c>
@@ -8556,10 +8897,10 @@
       <c r="I80" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="13" t="s">
+      <c r="J80" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L80" s="26" t="s">
@@ -8580,8 +8921,11 @@
       <c r="Q80" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R80" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A81" s="13" t="s">
         <v>40</v>
       </c>
@@ -8609,11 +8953,11 @@
       <c r="I81" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J81" s="28" t="s">
-        <v>134</v>
+      <c r="J81" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="L81" s="25" t="s">
         <v>303</v>
@@ -8633,8 +8977,11 @@
       <c r="Q81" s="30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R81" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A82" s="13" t="s">
         <v>40</v>
       </c>
@@ -8662,11 +9009,11 @@
       <c r="I82" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J82" s="27" t="s">
-        <v>134</v>
+      <c r="J82" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="L82" s="26" t="s">
         <v>304</v>
@@ -8686,8 +9033,11 @@
       <c r="Q82" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R82" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A83" s="13" t="s">
         <v>40</v>
       </c>
@@ -8715,8 +9065,8 @@
       <c r="I83" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J83" s="28" t="s">
-        <v>134</v>
+      <c r="J83" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K83" s="15" t="s">
         <v>32</v>
@@ -8739,8 +9089,11 @@
       <c r="Q83" s="30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R83" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A84" s="13" t="s">
         <v>40</v>
       </c>
@@ -8768,11 +9121,11 @@
       <c r="I84" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J84" s="27" t="s">
-        <v>134</v>
+      <c r="J84" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L84" s="26" t="s">
         <v>306</v>
@@ -8792,8 +9145,11 @@
       <c r="Q84" s="29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R84" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A85" s="13" t="s">
         <v>40</v>
       </c>
@@ -8821,11 +9177,11 @@
       <c r="I85" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J85" s="28" t="s">
-        <v>134</v>
+      <c r="J85" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L85" s="25" t="s">
         <v>307</v>
@@ -8845,8 +9201,11 @@
       <c r="Q85" s="30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R85" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="13" t="s">
         <v>40</v>
       </c>
@@ -8874,7 +9233,7 @@
       <c r="I86" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="25" t="s">
         <v>32</v>
       </c>
       <c r="K86" s="13" t="s">
@@ -8898,8 +9257,11 @@
       <c r="Q86" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R86" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
         <v>40</v>
       </c>
@@ -8927,7 +9289,7 @@
       <c r="I87" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="25" t="s">
         <v>32</v>
       </c>
       <c r="K87" s="13" t="s">
@@ -8951,8 +9313,11 @@
       <c r="Q87" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R87" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A88" s="13" t="s">
         <v>40</v>
       </c>
@@ -8980,11 +9345,11 @@
       <c r="I88" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J88" s="24" t="s">
-        <v>134</v>
+      <c r="J88" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L88" s="13" t="s">
         <v>303</v>
@@ -9004,8 +9369,11 @@
       <c r="Q88" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R88" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A89" s="13" t="s">
         <v>40</v>
       </c>
@@ -9033,11 +9401,11 @@
       <c r="I89" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J89" s="24" t="s">
-        <v>134</v>
+      <c r="J89" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="L89" s="13" t="s">
         <v>304</v>
@@ -9057,8 +9425,11 @@
       <c r="Q89" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R89" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A90" s="13" t="s">
         <v>40</v>
       </c>
@@ -9086,8 +9457,8 @@
       <c r="I90" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J90" s="24" t="s">
-        <v>134</v>
+      <c r="J90" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K90" s="15" t="s">
         <v>32</v>
@@ -9110,8 +9481,11 @@
       <c r="Q90" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R90" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A91" s="13" t="s">
         <v>40</v>
       </c>
@@ -9139,11 +9513,11 @@
       <c r="I91" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J91" s="24" t="s">
-        <v>134</v>
+      <c r="J91" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L91" s="13" t="s">
         <v>306</v>
@@ -9163,8 +9537,11 @@
       <c r="Q91" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R91" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A92" s="13" t="s">
         <v>40</v>
       </c>
@@ -9192,11 +9569,11 @@
       <c r="I92" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J92" s="24" t="s">
-        <v>134</v>
+      <c r="J92" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L92" s="13" t="s">
         <v>307</v>
@@ -9216,8 +9593,11 @@
       <c r="Q92" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R92" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="13" t="s">
         <v>40</v>
       </c>
@@ -9245,10 +9625,10 @@
       <c r="I93" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J93" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K93" s="13" t="s">
+      <c r="J93" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L93" s="13" t="s">
@@ -9269,8 +9649,11 @@
       <c r="Q93" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R93" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A94" s="13" t="s">
         <v>40</v>
       </c>
@@ -9298,10 +9681,10 @@
       <c r="I94" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J94" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K94" s="13" t="s">
+      <c r="J94" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L94" s="13" t="s">
@@ -9322,8 +9705,11 @@
       <c r="Q94" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R94" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A95" s="13" t="s">
         <v>40</v>
       </c>
@@ -9351,11 +9737,11 @@
       <c r="I95" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J95" s="24" t="s">
-        <v>134</v>
+      <c r="J95" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L95" s="13" t="s">
         <v>303</v>
@@ -9375,8 +9761,11 @@
       <c r="Q95" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R95" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A96" s="13" t="s">
         <v>40</v>
       </c>
@@ -9404,8 +9793,8 @@
       <c r="I96" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J96" s="24" t="s">
-        <v>134</v>
+      <c r="J96" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>32</v>
@@ -9428,8 +9817,11 @@
       <c r="Q96" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R96" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A97" s="13" t="s">
         <v>40</v>
       </c>
@@ -9457,8 +9849,8 @@
       <c r="I97" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J97" s="24" t="s">
-        <v>134</v>
+      <c r="J97" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>32</v>
@@ -9481,8 +9873,11 @@
       <c r="Q97" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R97" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A98" s="13" t="s">
         <v>40</v>
       </c>
@@ -9510,11 +9905,11 @@
       <c r="I98" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J98" s="24" t="s">
-        <v>134</v>
+      <c r="J98" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L98" s="13" t="s">
         <v>306</v>
@@ -9534,8 +9929,11 @@
       <c r="Q98" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R98" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A99" s="13" t="s">
         <v>40</v>
       </c>
@@ -9563,11 +9961,11 @@
       <c r="I99" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J99" s="24" t="s">
-        <v>134</v>
+      <c r="J99" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L99" s="13" t="s">
         <v>307</v>
@@ -9587,8 +9985,11 @@
       <c r="Q99" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R99" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="13" t="s">
         <v>42</v>
       </c>
@@ -9619,7 +10020,7 @@
       <c r="J100" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L100" s="25" t="s">
@@ -9640,8 +10041,11 @@
       <c r="Q100" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R100" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A101" s="13" t="s">
         <v>42</v>
       </c>
@@ -9669,10 +10073,10 @@
       <c r="I101" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J101" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K101" s="13" t="s">
+      <c r="J101" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L101" s="26" t="s">
@@ -9693,8 +10097,11 @@
       <c r="Q101" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R101" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A102" s="13" t="s">
         <v>42</v>
       </c>
@@ -9722,11 +10129,11 @@
       <c r="I102" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J102" s="28" t="s">
-        <v>134</v>
+      <c r="J102" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="L102" s="25" t="s">
         <v>303</v>
@@ -9746,8 +10153,11 @@
       <c r="Q102" s="29" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R102" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A103" s="13" t="s">
         <v>42</v>
       </c>
@@ -9775,11 +10185,11 @@
       <c r="I103" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J103" s="27" t="s">
-        <v>134</v>
+      <c r="J103" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="L103" s="26" t="s">
         <v>304</v>
@@ -9799,8 +10209,11 @@
       <c r="Q103" s="30" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R103" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A104" s="13" t="s">
         <v>42</v>
       </c>
@@ -9828,8 +10241,8 @@
       <c r="I104" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J104" s="28" t="s">
-        <v>134</v>
+      <c r="J104" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K104" s="15" t="s">
         <v>32</v>
@@ -9852,8 +10265,11 @@
       <c r="Q104" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R104" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A105" s="13" t="s">
         <v>42</v>
       </c>
@@ -9881,11 +10297,11 @@
       <c r="I105" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J105" s="27" t="s">
-        <v>134</v>
+      <c r="J105" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K105" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L105" s="26" t="s">
         <v>306</v>
@@ -9905,8 +10321,11 @@
       <c r="Q105" s="30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R105" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A106" s="13" t="s">
         <v>42</v>
       </c>
@@ -9934,11 +10353,11 @@
       <c r="I106" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J106" s="28" t="s">
-        <v>134</v>
+      <c r="J106" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L106" s="25" t="s">
         <v>307</v>
@@ -9958,8 +10377,11 @@
       <c r="Q106" s="29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R106" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="13" t="s">
         <v>42</v>
       </c>
@@ -10011,8 +10433,11 @@
       <c r="Q107" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R107" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A108" s="13" t="s">
         <v>42</v>
       </c>
@@ -10040,7 +10465,7 @@
       <c r="I108" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J108" s="26" t="s">
+      <c r="J108" s="25" t="s">
         <v>32</v>
       </c>
       <c r="K108" s="13" t="s">
@@ -10064,8 +10489,11 @@
       <c r="Q108" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R108" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A109" s="13" t="s">
         <v>42</v>
       </c>
@@ -10093,11 +10521,11 @@
       <c r="I109" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J109" s="28" t="s">
-        <v>134</v>
+      <c r="J109" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>303</v>
@@ -10117,8 +10545,11 @@
       <c r="Q109" s="30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R109" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A110" s="13" t="s">
         <v>42</v>
       </c>
@@ -10146,11 +10577,11 @@
       <c r="I110" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J110" s="27" t="s">
-        <v>134</v>
+      <c r="J110" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="L110" s="26" t="s">
         <v>304</v>
@@ -10170,8 +10601,11 @@
       <c r="Q110" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R110" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A111" s="13" t="s">
         <v>42</v>
       </c>
@@ -10199,8 +10633,8 @@
       <c r="I111" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J111" s="28" t="s">
-        <v>134</v>
+      <c r="J111" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>32</v>
@@ -10223,8 +10657,11 @@
       <c r="Q111" s="30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R111" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A112" s="13" t="s">
         <v>42</v>
       </c>
@@ -10252,11 +10689,11 @@
       <c r="I112" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J112" s="27" t="s">
-        <v>134</v>
+      <c r="J112" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L112" s="26" t="s">
         <v>306</v>
@@ -10276,8 +10713,11 @@
       <c r="Q112" s="29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R112" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A113" s="13" t="s">
         <v>42</v>
       </c>
@@ -10305,11 +10745,11 @@
       <c r="I113" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J113" s="28" t="s">
-        <v>134</v>
+      <c r="J113" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L113" s="25" t="s">
         <v>307</v>
@@ -10329,8 +10769,11 @@
       <c r="Q113" s="30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R113" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="13" t="s">
         <v>42</v>
       </c>
@@ -10358,10 +10801,10 @@
       <c r="I114" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J114" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K114" s="13" t="s">
+      <c r="J114" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L114" s="13" t="s">
@@ -10382,8 +10825,11 @@
       <c r="Q114" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R114" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A115" s="13" t="s">
         <v>42</v>
       </c>
@@ -10411,10 +10857,10 @@
       <c r="I115" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J115" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K115" s="13" t="s">
+      <c r="J115" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L115" s="13" t="s">
@@ -10435,8 +10881,11 @@
       <c r="Q115" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R115" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A116" s="13" t="s">
         <v>42</v>
       </c>
@@ -10464,11 +10913,11 @@
       <c r="I116" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J116" s="24" t="s">
-        <v>134</v>
+      <c r="J116" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L116" s="13" t="s">
         <v>303</v>
@@ -10488,8 +10937,11 @@
       <c r="Q116" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R116" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A117" s="13" t="s">
         <v>42</v>
       </c>
@@ -10517,8 +10969,8 @@
       <c r="I117" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J117" s="24" t="s">
-        <v>134</v>
+      <c r="J117" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>32</v>
@@ -10541,8 +10993,11 @@
       <c r="Q117" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R117" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A118" s="13" t="s">
         <v>42</v>
       </c>
@@ -10570,8 +11025,8 @@
       <c r="I118" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J118" s="24" t="s">
-        <v>134</v>
+      <c r="J118" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K118" s="15" t="s">
         <v>32</v>
@@ -10594,8 +11049,11 @@
       <c r="Q118" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R118" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A119" s="13" t="s">
         <v>42</v>
       </c>
@@ -10623,11 +11081,11 @@
       <c r="I119" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J119" s="24" t="s">
-        <v>134</v>
+      <c r="J119" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L119" s="13" t="s">
         <v>306</v>
@@ -10647,8 +11105,11 @@
       <c r="Q119" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R119" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A120" s="13" t="s">
         <v>42</v>
       </c>
@@ -10676,11 +11137,11 @@
       <c r="I120" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J120" s="24" t="s">
-        <v>134</v>
+      <c r="J120" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K120" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L120" s="13" t="s">
         <v>307</v>
@@ -10700,8 +11161,11 @@
       <c r="Q120" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R120" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="13" t="s">
         <v>42</v>
       </c>
@@ -10729,10 +11193,10 @@
       <c r="I121" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J121" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K121" s="13" t="s">
+      <c r="J121" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L121" s="13" t="s">
@@ -10753,8 +11217,11 @@
       <c r="Q121" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R121" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A122" s="13" t="s">
         <v>42</v>
       </c>
@@ -10782,10 +11249,10 @@
       <c r="I122" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J122" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K122" s="13" t="s">
+      <c r="J122" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L122" s="13" t="s">
@@ -10806,8 +11273,11 @@
       <c r="Q122" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R122" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A123" s="13" t="s">
         <v>42</v>
       </c>
@@ -10835,11 +11305,11 @@
       <c r="I123" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J123" s="24" t="s">
-        <v>134</v>
+      <c r="J123" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L123" s="13" t="s">
         <v>303</v>
@@ -10859,8 +11329,11 @@
       <c r="Q123" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R123" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A124" s="13" t="s">
         <v>42</v>
       </c>
@@ -10888,8 +11361,8 @@
       <c r="I124" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J124" s="24" t="s">
-        <v>134</v>
+      <c r="J124" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K124" s="15" t="s">
         <v>32</v>
@@ -10912,8 +11385,11 @@
       <c r="Q124" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R124" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A125" s="13" t="s">
         <v>42</v>
       </c>
@@ -10941,8 +11417,8 @@
       <c r="I125" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J125" s="24" t="s">
-        <v>134</v>
+      <c r="J125" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>32</v>
@@ -10965,8 +11441,11 @@
       <c r="Q125" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R125" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A126" s="13" t="s">
         <v>42</v>
       </c>
@@ -10994,11 +11473,11 @@
       <c r="I126" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J126" s="24" t="s">
-        <v>134</v>
+      <c r="J126" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L126" s="13" t="s">
         <v>306</v>
@@ -11018,8 +11497,11 @@
       <c r="Q126" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R126" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A127" s="13" t="s">
         <v>42</v>
       </c>
@@ -11047,11 +11529,11 @@
       <c r="I127" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J127" s="24" t="s">
-        <v>134</v>
+      <c r="J127" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L127" s="13" t="s">
         <v>307</v>
@@ -11071,8 +11553,11 @@
       <c r="Q127" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R127" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="13" t="s">
         <v>42</v>
       </c>
@@ -11103,7 +11588,7 @@
       <c r="J128" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K128" s="13" t="s">
+      <c r="K128" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L128" s="25" t="s">
@@ -11124,8 +11609,11 @@
       <c r="Q128" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R128" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A129" s="13" t="s">
         <v>42</v>
       </c>
@@ -11153,10 +11641,10 @@
       <c r="I129" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J129" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K129" s="13" t="s">
+      <c r="J129" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K129" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L129" s="26" t="s">
@@ -11177,8 +11665,11 @@
       <c r="Q129" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R129" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A130" s="13" t="s">
         <v>42</v>
       </c>
@@ -11206,11 +11697,11 @@
       <c r="I130" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J130" s="28" t="s">
-        <v>134</v>
+      <c r="J130" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L130" s="25" t="s">
         <v>303</v>
@@ -11230,8 +11721,11 @@
       <c r="Q130" s="29" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R130" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A131" s="13" t="s">
         <v>42</v>
       </c>
@@ -11259,8 +11753,8 @@
       <c r="I131" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J131" s="27" t="s">
-        <v>134</v>
+      <c r="J131" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K131" s="15" t="s">
         <v>32</v>
@@ -11283,8 +11777,11 @@
       <c r="Q131" s="30" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R131" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A132" s="13" t="s">
         <v>42</v>
       </c>
@@ -11312,8 +11809,8 @@
       <c r="I132" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J132" s="28" t="s">
-        <v>134</v>
+      <c r="J132" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K132" s="15" t="s">
         <v>32</v>
@@ -11336,8 +11833,11 @@
       <c r="Q132" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R132" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A133" s="13" t="s">
         <v>42</v>
       </c>
@@ -11365,11 +11865,11 @@
       <c r="I133" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J133" s="27" t="s">
-        <v>134</v>
+      <c r="J133" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K133" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L133" s="26" t="s">
         <v>306</v>
@@ -11389,8 +11889,11 @@
       <c r="Q133" s="30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R133" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A134" s="13" t="s">
         <v>42</v>
       </c>
@@ -11418,11 +11921,11 @@
       <c r="I134" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J134" s="28" t="s">
-        <v>134</v>
+      <c r="J134" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K134" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L134" s="25" t="s">
         <v>307</v>
@@ -11442,8 +11945,11 @@
       <c r="Q134" s="29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R134" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="13" t="s">
         <v>42</v>
       </c>
@@ -11474,7 +11980,7 @@
       <c r="J135" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K135" s="13" t="s">
+      <c r="K135" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L135" s="25" t="s">
@@ -11495,8 +12001,11 @@
       <c r="Q135" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R135" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A136" s="13" t="s">
         <v>42</v>
       </c>
@@ -11524,10 +12033,10 @@
       <c r="I136" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J136" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K136" s="13" t="s">
+      <c r="J136" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L136" s="26" t="s">
@@ -11548,8 +12057,11 @@
       <c r="Q136" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R136" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A137" s="13" t="s">
         <v>42</v>
       </c>
@@ -11577,11 +12089,11 @@
       <c r="I137" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J137" s="28" t="s">
-        <v>134</v>
+      <c r="J137" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K137" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L137" s="25" t="s">
         <v>303</v>
@@ -11601,8 +12113,11 @@
       <c r="Q137" s="30" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R137" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A138" s="13" t="s">
         <v>42</v>
       </c>
@@ -11630,8 +12145,8 @@
       <c r="I138" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J138" s="27" t="s">
-        <v>134</v>
+      <c r="J138" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K138" s="15" t="s">
         <v>32</v>
@@ -11654,8 +12169,11 @@
       <c r="Q138" s="29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R138" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A139" s="13" t="s">
         <v>42</v>
       </c>
@@ -11683,8 +12201,8 @@
       <c r="I139" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J139" s="28" t="s">
-        <v>134</v>
+      <c r="J139" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K139" s="15" t="s">
         <v>32</v>
@@ -11707,8 +12225,11 @@
       <c r="Q139" s="30" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R139" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A140" s="13" t="s">
         <v>42</v>
       </c>
@@ -11736,11 +12257,11 @@
       <c r="I140" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J140" s="27" t="s">
-        <v>134</v>
+      <c r="J140" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K140" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L140" s="26" t="s">
         <v>306</v>
@@ -11760,8 +12281,11 @@
       <c r="Q140" s="29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R140" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A141" s="13" t="s">
         <v>42</v>
       </c>
@@ -11789,11 +12313,11 @@
       <c r="I141" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J141" s="28" t="s">
-        <v>134</v>
+      <c r="J141" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L141" s="25" t="s">
         <v>307</v>
@@ -11813,8 +12337,11 @@
       <c r="Q141" s="30" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R141" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="13" t="s">
         <v>42</v>
       </c>
@@ -11842,10 +12369,10 @@
       <c r="I142" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J142" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K142" s="13" t="s">
+      <c r="J142" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K142" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L142" s="13" t="s">
@@ -11866,8 +12393,11 @@
       <c r="Q142" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R142" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A143" s="13" t="s">
         <v>42</v>
       </c>
@@ -11895,10 +12425,10 @@
       <c r="I143" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J143" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K143" s="13" t="s">
+      <c r="J143" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K143" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L143" s="13" t="s">
@@ -11919,8 +12449,11 @@
       <c r="Q143" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R143" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A144" s="13" t="s">
         <v>42</v>
       </c>
@@ -11948,11 +12481,11 @@
       <c r="I144" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J144" s="24" t="s">
-        <v>134</v>
+      <c r="J144" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K144" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L144" s="13" t="s">
         <v>303</v>
@@ -11972,8 +12505,11 @@
       <c r="Q144" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R144" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A145" s="13" t="s">
         <v>42</v>
       </c>
@@ -12001,8 +12537,8 @@
       <c r="I145" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J145" s="24" t="s">
-        <v>134</v>
+      <c r="J145" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K145" s="15" t="s">
         <v>32</v>
@@ -12025,8 +12561,11 @@
       <c r="Q145" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R145" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A146" s="13" t="s">
         <v>42</v>
       </c>
@@ -12054,8 +12593,8 @@
       <c r="I146" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J146" s="24" t="s">
-        <v>134</v>
+      <c r="J146" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K146" s="15" t="s">
         <v>32</v>
@@ -12078,8 +12617,11 @@
       <c r="Q146" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R146" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A147" s="13" t="s">
         <v>42</v>
       </c>
@@ -12107,11 +12649,11 @@
       <c r="I147" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J147" s="24" t="s">
-        <v>134</v>
+      <c r="J147" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L147" s="13" t="s">
         <v>306</v>
@@ -12131,8 +12673,11 @@
       <c r="Q147" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R147" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A148" s="13" t="s">
         <v>42</v>
       </c>
@@ -12160,11 +12705,11 @@
       <c r="I148" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J148" s="24" t="s">
-        <v>134</v>
+      <c r="J148" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K148" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L148" s="13" t="s">
         <v>307</v>
@@ -12184,8 +12729,11 @@
       <c r="Q148" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R148" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="13" t="s">
         <v>42</v>
       </c>
@@ -12213,10 +12761,10 @@
       <c r="I149" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J149" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K149" s="13" t="s">
+      <c r="J149" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L149" s="13" t="s">
@@ -12237,8 +12785,11 @@
       <c r="Q149" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R149" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A150" s="13" t="s">
         <v>42</v>
       </c>
@@ -12266,10 +12817,10 @@
       <c r="I150" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J150" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K150" s="13" t="s">
+      <c r="J150" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L150" s="13" t="s">
@@ -12290,8 +12841,11 @@
       <c r="Q150" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R150" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A151" s="13" t="s">
         <v>42</v>
       </c>
@@ -12319,11 +12873,11 @@
       <c r="I151" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J151" s="24" t="s">
-        <v>134</v>
+      <c r="J151" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K151" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L151" s="13" t="s">
         <v>303</v>
@@ -12343,8 +12897,11 @@
       <c r="Q151" s="13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R151" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A152" s="13" t="s">
         <v>42</v>
       </c>
@@ -12372,8 +12929,8 @@
       <c r="I152" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J152" s="24" t="s">
-        <v>134</v>
+      <c r="J152" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K152" s="15" t="s">
         <v>32</v>
@@ -12396,8 +12953,11 @@
       <c r="Q152" s="13" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R152" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A153" s="13" t="s">
         <v>42</v>
       </c>
@@ -12425,8 +12985,8 @@
       <c r="I153" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J153" s="24" t="s">
-        <v>134</v>
+      <c r="J153" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K153" s="15" t="s">
         <v>32</v>
@@ -12449,8 +13009,11 @@
       <c r="Q153" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R153" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A154" s="13" t="s">
         <v>42</v>
       </c>
@@ -12478,11 +13041,11 @@
       <c r="I154" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J154" s="24" t="s">
-        <v>134</v>
+      <c r="J154" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K154" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L154" s="13" t="s">
         <v>306</v>
@@ -12502,8 +13065,11 @@
       <c r="Q154" s="13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R154" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A155" s="13" t="s">
         <v>42</v>
       </c>
@@ -12531,11 +13097,11 @@
       <c r="I155" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J155" s="24" t="s">
-        <v>134</v>
+      <c r="J155" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K155" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L155" s="13" t="s">
         <v>307</v>
@@ -12555,8 +13121,11 @@
       <c r="Q155" s="13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R155" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="13" t="s">
         <v>42</v>
       </c>
@@ -12587,7 +13156,7 @@
       <c r="J156" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K156" s="13" t="s">
+      <c r="K156" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L156" s="25" t="s">
@@ -12608,8 +13177,11 @@
       <c r="Q156" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R156" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A157" s="13" t="s">
         <v>42</v>
       </c>
@@ -12637,10 +13209,10 @@
       <c r="I157" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J157" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K157" s="13" t="s">
+      <c r="J157" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L157" s="26" t="s">
@@ -12661,8 +13233,11 @@
       <c r="Q157" s="30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R157" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A158" s="13" t="s">
         <v>42</v>
       </c>
@@ -12690,11 +13265,11 @@
       <c r="I158" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J158" s="28" t="s">
-        <v>134</v>
+      <c r="J158" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K158" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L158" s="25" t="s">
         <v>303</v>
@@ -12714,8 +13289,11 @@
       <c r="Q158" s="29" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R158" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A159" s="13" t="s">
         <v>42</v>
       </c>
@@ -12743,8 +13321,8 @@
       <c r="I159" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J159" s="27" t="s">
-        <v>134</v>
+      <c r="J159" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K159" s="15" t="s">
         <v>32</v>
@@ -12767,8 +13345,11 @@
       <c r="Q159" s="30" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R159" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A160" s="13" t="s">
         <v>42</v>
       </c>
@@ -12796,8 +13377,8 @@
       <c r="I160" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J160" s="28" t="s">
-        <v>134</v>
+      <c r="J160" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K160" s="15" t="s">
         <v>32</v>
@@ -12820,8 +13401,11 @@
       <c r="Q160" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R160" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A161" s="13" t="s">
         <v>42</v>
       </c>
@@ -12849,11 +13433,11 @@
       <c r="I161" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J161" s="27" t="s">
-        <v>134</v>
+      <c r="J161" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K161" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L161" s="26" t="s">
         <v>306</v>
@@ -12873,8 +13457,11 @@
       <c r="Q161" s="30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R161" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A162" s="13" t="s">
         <v>42</v>
       </c>
@@ -12902,11 +13489,11 @@
       <c r="I162" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J162" s="34" t="s">
-        <v>134</v>
+      <c r="J162" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K162" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L162" s="31" t="s">
         <v>307</v>
@@ -12926,8 +13513,11 @@
       <c r="Q162" s="35" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R162" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -12942,11 +13532,12 @@
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
-      <c r="O163" s="37"/>
+      <c r="O163" s="13"/>
       <c r="P163" s="13"/>
       <c r="Q163" s="13"/>
-    </row>
-    <row r="164" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R163" s="13"/>
+    </row>
+    <row r="164" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -12961,11 +13552,12 @@
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
-      <c r="O164" s="37"/>
+      <c r="O164" s="13"/>
       <c r="P164" s="13"/>
       <c r="Q164" s="13"/>
-    </row>
-    <row r="165" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R164" s="13"/>
+    </row>
+    <row r="165" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -12980,11 +13572,12 @@
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
       <c r="N165" s="18"/>
-      <c r="O165" s="37"/>
+      <c r="O165" s="13"/>
       <c r="P165" s="13"/>
       <c r="Q165" s="13"/>
-    </row>
-    <row r="166" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R165" s="13"/>
+    </row>
+    <row r="166" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -12999,11 +13592,12 @@
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
       <c r="N166" s="24"/>
-      <c r="O166" s="37"/>
+      <c r="O166" s="13"/>
       <c r="P166" s="13"/>
       <c r="Q166" s="13"/>
-    </row>
-    <row r="167" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R166" s="13"/>
+    </row>
+    <row r="167" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -13018,11 +13612,12 @@
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
       <c r="N167" s="18"/>
-      <c r="O167" s="37"/>
+      <c r="O167" s="13"/>
       <c r="P167" s="13"/>
       <c r="Q167" s="13"/>
-    </row>
-    <row r="168" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R167" s="13"/>
+    </row>
+    <row r="168" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -13037,11 +13632,12 @@
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
       <c r="N168" s="18"/>
-      <c r="O168" s="37"/>
+      <c r="O168" s="13"/>
       <c r="P168" s="13"/>
       <c r="Q168" s="13"/>
-    </row>
-    <row r="169" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R168" s="13"/>
+    </row>
+    <row r="169" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -13056,11 +13652,12 @@
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
       <c r="N169" s="18"/>
-      <c r="O169" s="37"/>
+      <c r="O169" s="13"/>
       <c r="P169" s="13"/>
       <c r="Q169" s="13"/>
-    </row>
-    <row r="170" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R169" s="13"/>
+    </row>
+    <row r="170" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -13078,8 +13675,9 @@
       <c r="O170" s="13"/>
       <c r="P170" s="13"/>
       <c r="Q170" s="13"/>
-    </row>
-    <row r="171" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R170" s="13"/>
+    </row>
+    <row r="171" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -13097,8 +13695,9 @@
       <c r="O171" s="13"/>
       <c r="P171" s="13"/>
       <c r="Q171" s="13"/>
-    </row>
-    <row r="172" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R171" s="13"/>
+    </row>
+    <row r="172" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -13116,8 +13715,9 @@
       <c r="O172" s="13"/>
       <c r="P172" s="13"/>
       <c r="Q172" s="13"/>
-    </row>
-    <row r="173" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R172" s="13"/>
+    </row>
+    <row r="173" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -13135,8 +13735,9 @@
       <c r="O173" s="13"/>
       <c r="P173" s="13"/>
       <c r="Q173" s="13"/>
-    </row>
-    <row r="174" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R173" s="13"/>
+    </row>
+    <row r="174" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -13154,8 +13755,9 @@
       <c r="O174" s="13"/>
       <c r="P174" s="13"/>
       <c r="Q174" s="13"/>
-    </row>
-    <row r="175" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R174" s="13"/>
+    </row>
+    <row r="175" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -13173,8 +13775,9 @@
       <c r="O175" s="13"/>
       <c r="P175" s="36"/>
       <c r="Q175" s="13"/>
-    </row>
-    <row r="176" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R175" s="13"/>
+    </row>
+    <row r="176" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -13192,8 +13795,9 @@
       <c r="O176" s="13"/>
       <c r="P176" s="36"/>
       <c r="Q176" s="13"/>
-    </row>
-    <row r="177" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R176" s="13"/>
+    </row>
+    <row r="177" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -13211,8 +13815,9 @@
       <c r="O177" s="13"/>
       <c r="P177" s="36"/>
       <c r="Q177" s="13"/>
-    </row>
-    <row r="178" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R177" s="13"/>
+    </row>
+    <row r="178" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -13230,8 +13835,9 @@
       <c r="O178" s="13"/>
       <c r="P178" s="36"/>
       <c r="Q178" s="13"/>
-    </row>
-    <row r="179" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R178" s="13"/>
+    </row>
+    <row r="179" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -13249,8 +13855,9 @@
       <c r="O179" s="13"/>
       <c r="P179" s="36"/>
       <c r="Q179" s="13"/>
-    </row>
-    <row r="180" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R179" s="13"/>
+    </row>
+    <row r="180" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -13268,8 +13875,9 @@
       <c r="O180" s="13"/>
       <c r="P180" s="13"/>
       <c r="Q180" s="13"/>
-    </row>
-    <row r="181" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R180" s="13"/>
+    </row>
+    <row r="181" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -13287,8 +13895,9 @@
       <c r="O181" s="13"/>
       <c r="P181" s="13"/>
       <c r="Q181" s="13"/>
-    </row>
-    <row r="182" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R181" s="13"/>
+    </row>
+    <row r="182" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -13306,8 +13915,9 @@
       <c r="O182" s="13"/>
       <c r="P182" s="13"/>
       <c r="Q182" s="13"/>
-    </row>
-    <row r="183" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R182" s="13"/>
+    </row>
+    <row r="183" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -13325,8 +13935,9 @@
       <c r="O183" s="13"/>
       <c r="P183" s="13"/>
       <c r="Q183" s="13"/>
-    </row>
-    <row r="184" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R183" s="13"/>
+    </row>
+    <row r="184" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -13344,8 +13955,9 @@
       <c r="O184" s="13"/>
       <c r="P184" s="13"/>
       <c r="Q184" s="13"/>
-    </row>
-    <row r="185" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R184" s="13"/>
+    </row>
+    <row r="185" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -13363,8 +13975,9 @@
       <c r="O185" s="13"/>
       <c r="P185" s="13"/>
       <c r="Q185" s="13"/>
-    </row>
-    <row r="186" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R185" s="13"/>
+    </row>
+    <row r="186" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -13382,8 +13995,9 @@
       <c r="O186" s="13"/>
       <c r="P186" s="13"/>
       <c r="Q186" s="13"/>
-    </row>
-    <row r="187" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R186" s="13"/>
+    </row>
+    <row r="187" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -13401,8 +14015,9 @@
       <c r="O187" s="13"/>
       <c r="P187" s="13"/>
       <c r="Q187" s="13"/>
-    </row>
-    <row r="188" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R187" s="13"/>
+    </row>
+    <row r="188" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -13420,8 +14035,9 @@
       <c r="O188" s="13"/>
       <c r="P188" s="13"/>
       <c r="Q188" s="13"/>
-    </row>
-    <row r="189" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R188" s="13"/>
+    </row>
+    <row r="189" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -13439,8 +14055,9 @@
       <c r="O189" s="13"/>
       <c r="P189" s="13"/>
       <c r="Q189" s="13"/>
-    </row>
-    <row r="190" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R189" s="13"/>
+    </row>
+    <row r="190" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -13458,8 +14075,9 @@
       <c r="O190" s="13"/>
       <c r="P190" s="13"/>
       <c r="Q190" s="13"/>
-    </row>
-    <row r="191" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R190" s="13"/>
+    </row>
+    <row r="191" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -13477,8 +14095,9 @@
       <c r="O191" s="13"/>
       <c r="P191" s="13"/>
       <c r="Q191" s="13"/>
-    </row>
-    <row r="192" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R191" s="13"/>
+    </row>
+    <row r="192" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -13496,8 +14115,9 @@
       <c r="O192" s="13"/>
       <c r="P192" s="13"/>
       <c r="Q192" s="13"/>
-    </row>
-    <row r="193" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R192" s="13"/>
+    </row>
+    <row r="193" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -13515,8 +14135,9 @@
       <c r="O193" s="13"/>
       <c r="P193" s="13"/>
       <c r="Q193" s="13"/>
-    </row>
-    <row r="194" spans="1:17" ht="12.6" x14ac:dyDescent="0.4">
+      <c r="R193" s="13"/>
+    </row>
+    <row r="194" spans="1:18" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -13534,457 +14155,193 @@
       <c r="O194" s="13"/>
       <c r="P194" s="13"/>
       <c r="Q194" s="13"/>
+      <c r="R194" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="K4:K8">
-    <cfRule type="duplicateValues" dxfId="27" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K15">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+  <conditionalFormatting sqref="K11:K24 K32:K52 K60:K80 K88:K101 K109:K162">
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K22">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+  <conditionalFormatting sqref="K170:K174">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K175:K179">
+    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K29">
-    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K36">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K43">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K50">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:K57">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60:K64">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:K71">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74:K78">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81:K85">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K88:K92">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K95:K99">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102:K106">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109:K113">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:K120">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K123:K127">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K130:K134">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K137:K141">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K144:K148">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K151:K155">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K158:K162">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K170:K174">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K175:K179">
-    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{1AB5A992-0FF9-4415-9133-28E7A55D91FF}"/>
-    <hyperlink ref="P4" r:id="rId2" xr:uid="{D9569CBD-1C1A-4EF0-9D90-B70EA928D150}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{9BE0ED28-10F6-4134-9498-8AD506CA6F59}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{2852B20A-FC0A-48C3-98A4-CEE3556CDAF9}"/>
-    <hyperlink ref="P6" r:id="rId5" xr:uid="{4005D574-44CA-4860-B6C2-0E3F4B83C0BD}"/>
-    <hyperlink ref="K5" r:id="rId6" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{720CEEEE-B2A5-4704-BF40-545E267FAB19}"/>
-    <hyperlink ref="K6" r:id="rId7" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{1C2382E8-D081-449A-852C-F4E9BEBBA494}"/>
-    <hyperlink ref="K7" r:id="rId8" xr:uid="{BB7FDDFB-F0A4-41F1-8934-BC9569D0F337}"/>
-    <hyperlink ref="K8" r:id="rId9" xr:uid="{3F62A061-DC73-48A0-A29B-269B8DAD2FA6}"/>
-    <hyperlink ref="J5" r:id="rId10" xr:uid="{3C4BCA66-72F6-45C5-9DDF-5AC7ADD28005}"/>
-    <hyperlink ref="J6" r:id="rId11" xr:uid="{4472A874-99C8-4060-A11F-9E02BE54B8DE}"/>
-    <hyperlink ref="J7" r:id="rId12" xr:uid="{DCFEDBB0-0E7D-4FCA-8594-68CE5046E2D2}"/>
-    <hyperlink ref="J8" r:id="rId13" xr:uid="{08E4EAE6-881D-47EC-9632-D514AD2D69A2}"/>
-    <hyperlink ref="J11" r:id="rId14" xr:uid="{C7BBD3AB-1B87-487C-8FEF-ECCB89DD041D}"/>
-    <hyperlink ref="J12" r:id="rId15" xr:uid="{D1673D7C-D02C-449C-9CF8-98DFD547A7D9}"/>
-    <hyperlink ref="J13" r:id="rId16" xr:uid="{48A919F3-2294-4C75-AF6D-BFE0F01FE80A}"/>
-    <hyperlink ref="J14" r:id="rId17" xr:uid="{A3C19DFD-1122-4EEA-8617-F31695F84BD4}"/>
-    <hyperlink ref="J15" r:id="rId18" xr:uid="{DEDA2093-C456-4B90-BEC5-8FD9D13D9B23}"/>
-    <hyperlink ref="J18" r:id="rId19" xr:uid="{AE8FADC7-548A-4D2D-AE1B-9EF6B753AC59}"/>
-    <hyperlink ref="J19" r:id="rId20" xr:uid="{2617C95A-FABB-4F56-82A4-F746BB5B0479}"/>
-    <hyperlink ref="J20" r:id="rId21" xr:uid="{4F977446-AAB2-4BC0-834A-BA4F096FC7C5}"/>
-    <hyperlink ref="J21" r:id="rId22" xr:uid="{B2AED188-98FC-426B-B569-2499EB2D0A8D}"/>
-    <hyperlink ref="J22" r:id="rId23" xr:uid="{4FC0F0D3-7C85-414B-8E95-529F9B7FA577}"/>
-    <hyperlink ref="J25" r:id="rId24" xr:uid="{7FA3F445-13F4-4C84-BF8E-CC82E3D24509}"/>
-    <hyperlink ref="J26" r:id="rId25" xr:uid="{FF7E9BD3-3DCE-4633-9C47-EA8F85527AD9}"/>
-    <hyperlink ref="J27" r:id="rId26" xr:uid="{96D2FE04-BC13-4AAE-967E-FA67E92909A8}"/>
-    <hyperlink ref="J28" r:id="rId27" xr:uid="{9C9CBB2F-54A8-4D01-8894-8C6E95287294}"/>
-    <hyperlink ref="J29" r:id="rId28" xr:uid="{730AB38B-245E-4B94-9BB9-62413D320240}"/>
-    <hyperlink ref="J32" r:id="rId29" xr:uid="{232DD33E-C25C-48C6-9BBA-1DE43652C754}"/>
-    <hyperlink ref="J33" r:id="rId30" xr:uid="{9F47B615-22B6-493F-8999-0C07F8290981}"/>
-    <hyperlink ref="J34" r:id="rId31" xr:uid="{5A80025F-540D-4122-8F24-FCC2DC8BB354}"/>
-    <hyperlink ref="J35" r:id="rId32" xr:uid="{15ED3224-6C2B-45DD-9B94-C554920814FC}"/>
-    <hyperlink ref="J36" r:id="rId33" xr:uid="{61D4A593-7A32-47FF-AACB-74307223DB3F}"/>
-    <hyperlink ref="J39" r:id="rId34" xr:uid="{0D1A8E6E-B4CD-490D-BBF4-D9ECC677088A}"/>
-    <hyperlink ref="J40" r:id="rId35" xr:uid="{E29E9328-C05A-482A-927F-1A65D60E51BA}"/>
-    <hyperlink ref="J41" r:id="rId36" xr:uid="{0B270D72-4E8A-4681-9208-B2BE4D71B600}"/>
-    <hyperlink ref="J42" r:id="rId37" xr:uid="{86E4FE59-F470-442E-8BE2-24DB1DC153C2}"/>
-    <hyperlink ref="J43" r:id="rId38" xr:uid="{28EC8E0C-280F-45F5-BC16-CF10BB6E343C}"/>
-    <hyperlink ref="J46" r:id="rId39" xr:uid="{C82B482F-1B97-4181-82B3-C568BAFD3D5F}"/>
-    <hyperlink ref="J47" r:id="rId40" xr:uid="{71878989-E047-4C8E-B5FB-FF436BB6D277}"/>
-    <hyperlink ref="J48" r:id="rId41" xr:uid="{CBA0CD5F-8107-4A6D-A44B-639FD6F60654}"/>
-    <hyperlink ref="J49" r:id="rId42" xr:uid="{E7B8CC4C-33A7-4D0B-BAF3-C08194108F44}"/>
-    <hyperlink ref="J50" r:id="rId43" xr:uid="{CCFBD324-5CC0-4E5E-A8EE-E9D51C864CE1}"/>
-    <hyperlink ref="J53" r:id="rId44" xr:uid="{50647109-A93D-44E0-BDC7-7281ED107E12}"/>
-    <hyperlink ref="J54" r:id="rId45" xr:uid="{FA9022A1-CEA4-49E6-A72B-55F4FC30F751}"/>
-    <hyperlink ref="J55" r:id="rId46" xr:uid="{C9BDDAA8-8C5E-4A68-AD50-9994FF6E9379}"/>
-    <hyperlink ref="J56" r:id="rId47" xr:uid="{5BD2AA61-DE82-4AF8-ACF9-235BFEFC3274}"/>
-    <hyperlink ref="J57" r:id="rId48" xr:uid="{5B989319-DBA0-4B7E-BCF7-C0C75A823FC3}"/>
-    <hyperlink ref="J60" r:id="rId49" xr:uid="{57D693D0-8A8D-46F5-A1C6-D05FE89597CF}"/>
-    <hyperlink ref="J61" r:id="rId50" xr:uid="{86D0373D-BB9B-4D21-939C-38A0124F0DD5}"/>
-    <hyperlink ref="J62" r:id="rId51" xr:uid="{C8681426-9C2E-4326-BF6E-E90D411CFF3C}"/>
-    <hyperlink ref="J63" r:id="rId52" xr:uid="{8B4963E2-9C7A-4EE7-9B97-D685C71F3E26}"/>
-    <hyperlink ref="J64" r:id="rId53" xr:uid="{52AF3D71-271A-41AD-985B-CB085DB4DCA3}"/>
-    <hyperlink ref="J67" r:id="rId54" xr:uid="{CFBCB208-84D1-472C-AC01-7C2BD37B5F9C}"/>
-    <hyperlink ref="J68" r:id="rId55" xr:uid="{85762114-4D49-4977-A621-350EBD3940F2}"/>
-    <hyperlink ref="J69" r:id="rId56" xr:uid="{778CDA4B-1111-40C0-B99C-E1001C4BA93D}"/>
-    <hyperlink ref="J70" r:id="rId57" xr:uid="{71DCAD7D-A1E2-450B-856F-AD49D2DB0F81}"/>
-    <hyperlink ref="J71" r:id="rId58" xr:uid="{C9F8D2C2-6C06-4098-A1D3-EDEAF9E58045}"/>
-    <hyperlink ref="J74" r:id="rId59" xr:uid="{BFC8A605-06E3-4D7B-A1A6-8155D8FB8469}"/>
-    <hyperlink ref="J75" r:id="rId60" xr:uid="{8EB8C837-7BF4-43FF-96A9-A891081BD15E}"/>
-    <hyperlink ref="J76" r:id="rId61" xr:uid="{00CF6CF6-5D17-43E4-A2DA-01DFD0497927}"/>
-    <hyperlink ref="J77" r:id="rId62" xr:uid="{4494A9BF-C4DA-4C16-B846-0D845B5DD729}"/>
-    <hyperlink ref="J78" r:id="rId63" xr:uid="{42E66DEF-144B-4E11-9CA0-016700C2A8B8}"/>
-    <hyperlink ref="J81" r:id="rId64" xr:uid="{8E609784-1519-4E8D-AC93-0FC89B285B8E}"/>
-    <hyperlink ref="J82" r:id="rId65" xr:uid="{AB13DC0C-9522-4AA8-8F15-D4982D950E76}"/>
-    <hyperlink ref="J83" r:id="rId66" xr:uid="{6985B1D3-5D4E-4C7F-B279-96867BC823AD}"/>
-    <hyperlink ref="J84" r:id="rId67" xr:uid="{69370B69-04EA-4157-AEB4-DC72DE4D8898}"/>
-    <hyperlink ref="J85" r:id="rId68" xr:uid="{C11B03E5-8DA7-446B-B5DE-F23760EDCD0C}"/>
-    <hyperlink ref="J88" r:id="rId69" xr:uid="{8FD9F694-9159-4E4D-8B6D-8520553568E2}"/>
-    <hyperlink ref="J89" r:id="rId70" xr:uid="{EE126E25-F92F-4B48-B300-D22627D28A02}"/>
-    <hyperlink ref="J90" r:id="rId71" xr:uid="{0B74EEA3-C066-4975-853A-9D91E6A923AC}"/>
-    <hyperlink ref="J91" r:id="rId72" xr:uid="{99BAED44-3BF6-4789-A973-AF6C576BA610}"/>
-    <hyperlink ref="J92" r:id="rId73" xr:uid="{6E79F05B-44D1-4D13-82B3-217F862BFB2B}"/>
-    <hyperlink ref="J95" r:id="rId74" xr:uid="{3F3920FA-4B4A-4219-B16F-55A7D2F0DD39}"/>
-    <hyperlink ref="J96" r:id="rId75" xr:uid="{49AC9A85-FA85-4AC3-B6CD-E3948AF940FB}"/>
-    <hyperlink ref="J97" r:id="rId76" xr:uid="{643549E1-1634-4DC9-9EED-A5683DBB06FA}"/>
-    <hyperlink ref="J98" r:id="rId77" xr:uid="{5CFE7362-05E6-4918-93FA-56F53B268EFA}"/>
-    <hyperlink ref="J99" r:id="rId78" xr:uid="{73917418-611B-4BCB-9216-DD99FB0521D7}"/>
-    <hyperlink ref="J102" r:id="rId79" xr:uid="{81E65880-4A79-4B2F-A0A6-3BAEEBF86E5E}"/>
-    <hyperlink ref="J103" r:id="rId80" xr:uid="{E75D34F8-3C31-42CC-BCC2-47BEE7E03C75}"/>
-    <hyperlink ref="J104" r:id="rId81" xr:uid="{D701113E-8020-434A-97CA-514E0B2F1558}"/>
-    <hyperlink ref="J105" r:id="rId82" xr:uid="{DD2369C6-C796-4B33-BAB0-36FAAB7BAB16}"/>
-    <hyperlink ref="J106" r:id="rId83" xr:uid="{89B78561-0E2A-4CA8-8C99-0792F5AECE73}"/>
-    <hyperlink ref="J109" r:id="rId84" xr:uid="{53AFC8E0-FF23-4E86-ACB6-1ED1D703B3EB}"/>
-    <hyperlink ref="J110" r:id="rId85" xr:uid="{FCE4EABC-C386-4ABB-8D71-E26E8F171CE4}"/>
-    <hyperlink ref="J111" r:id="rId86" xr:uid="{A7F0D4E1-DA02-40C7-8EFD-88F66ACD012E}"/>
-    <hyperlink ref="J112" r:id="rId87" xr:uid="{D664C442-D257-4DE5-87B3-89517FFBDD62}"/>
-    <hyperlink ref="J113" r:id="rId88" xr:uid="{B1650F82-3292-4667-8866-AE52569028F8}"/>
-    <hyperlink ref="J116" r:id="rId89" xr:uid="{4C8C13DF-8DE2-4309-B1AD-7B8235B029EF}"/>
-    <hyperlink ref="J117" r:id="rId90" xr:uid="{BC587770-CC3C-49AD-AC7B-28668E9192F8}"/>
-    <hyperlink ref="J118" r:id="rId91" xr:uid="{BB59FB34-5476-403B-A3CA-D357038A1718}"/>
-    <hyperlink ref="J119" r:id="rId92" xr:uid="{710DDA3B-5C67-436D-BF7A-AF100CC8A5A5}"/>
-    <hyperlink ref="J120" r:id="rId93" xr:uid="{3D26095E-5222-437B-813F-950FAB58E541}"/>
-    <hyperlink ref="J123" r:id="rId94" xr:uid="{47097636-860B-4C37-8E8B-2A32BEBDB394}"/>
-    <hyperlink ref="J124" r:id="rId95" xr:uid="{FCF9DF87-D1F4-4ED2-A9E2-6B472C767991}"/>
-    <hyperlink ref="J125" r:id="rId96" xr:uid="{D4BB45A5-AAE1-4026-9789-15A6A617F9C7}"/>
-    <hyperlink ref="J126" r:id="rId97" xr:uid="{327F2A4A-362D-4660-B864-B0518FD7A666}"/>
-    <hyperlink ref="J127" r:id="rId98" xr:uid="{5AE6436E-331C-4D2D-822A-B5A011306B56}"/>
-    <hyperlink ref="J130" r:id="rId99" xr:uid="{33DA90A0-9850-47D5-A282-4AA4B67EE75C}"/>
-    <hyperlink ref="J131" r:id="rId100" xr:uid="{640C5786-7A8A-45B0-944A-FE781DF7C258}"/>
-    <hyperlink ref="J132" r:id="rId101" xr:uid="{345EB26C-ADE3-41F6-9A7B-0912C1048EFB}"/>
-    <hyperlink ref="J133" r:id="rId102" xr:uid="{279266C1-6455-46F6-90EF-EB989F77217B}"/>
-    <hyperlink ref="J134" r:id="rId103" xr:uid="{1423E293-ED63-4EB7-A324-C2F7C1B37218}"/>
-    <hyperlink ref="J137" r:id="rId104" xr:uid="{5BC7352A-DA28-47B0-84C1-77624BFB3D33}"/>
-    <hyperlink ref="J138" r:id="rId105" xr:uid="{A92BCA4F-7E4F-40EA-9260-741A8626AE99}"/>
-    <hyperlink ref="J139" r:id="rId106" xr:uid="{9464803A-E66D-4977-A405-A89E94B88D27}"/>
-    <hyperlink ref="J140" r:id="rId107" xr:uid="{65861B15-0835-48F3-A2F4-94F8A7D42394}"/>
-    <hyperlink ref="J141" r:id="rId108" xr:uid="{B59ADC6C-2F8D-4099-876C-5C16971792ED}"/>
-    <hyperlink ref="J144" r:id="rId109" xr:uid="{9BE23181-AB37-4788-962C-C79E0698DA11}"/>
-    <hyperlink ref="J145" r:id="rId110" xr:uid="{597EAF42-8A11-4876-94FF-831E18C69532}"/>
-    <hyperlink ref="J146" r:id="rId111" xr:uid="{BE8E18BD-78F8-4C58-990B-01E0D1A2FDB3}"/>
-    <hyperlink ref="J147" r:id="rId112" xr:uid="{F86AE24A-A067-4912-8788-8C82737E555A}"/>
-    <hyperlink ref="J148" r:id="rId113" xr:uid="{AD06FE01-23C2-4F96-A0EC-B09030666FB2}"/>
-    <hyperlink ref="J151" r:id="rId114" xr:uid="{77B82358-BFD0-4C2C-B710-9BDC78057040}"/>
-    <hyperlink ref="J152" r:id="rId115" xr:uid="{D7948411-E591-44AC-8C94-733FF7D88FF5}"/>
-    <hyperlink ref="J153" r:id="rId116" xr:uid="{70297775-B0A9-45BA-88E7-F4F3F2E50829}"/>
-    <hyperlink ref="J154" r:id="rId117" xr:uid="{3A3A373D-29B6-4597-A37A-68E5FE6EB7AD}"/>
-    <hyperlink ref="J155" r:id="rId118" xr:uid="{D9FCA22D-BA64-467C-B9AC-64BABB9F8914}"/>
-    <hyperlink ref="J158" r:id="rId119" xr:uid="{F40ADFC2-B93F-47C0-AF3F-0C8BEFE42C07}"/>
-    <hyperlink ref="J159" r:id="rId120" xr:uid="{BD496AA8-F18F-42A5-B1DD-F27C72DD081A}"/>
-    <hyperlink ref="J160" r:id="rId121" xr:uid="{578F3EB0-0A33-4721-8194-8BD76DA4FD42}"/>
-    <hyperlink ref="J161" r:id="rId122" xr:uid="{352708F6-5654-4D23-8644-811E438A578A}"/>
-    <hyperlink ref="J162" r:id="rId123" xr:uid="{90E4ABE5-E421-4A8A-8F94-F006E6E97349}"/>
-    <hyperlink ref="P5" r:id="rId124" xr:uid="{DA570CA4-7B8A-43B8-B973-C7E50503F38A}"/>
-    <hyperlink ref="P7:P8" r:id="rId125" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{9294D62B-929E-4818-A93C-9160647777EA}"/>
-    <hyperlink ref="P11" r:id="rId126" xr:uid="{EDEBF662-A89E-4B0D-9229-81113F764020}"/>
-    <hyperlink ref="P13" r:id="rId127" xr:uid="{25C72E6A-B007-4CC1-A1CB-DFCDF85C9B01}"/>
-    <hyperlink ref="P12" r:id="rId128" xr:uid="{076CD20A-54D0-4B5C-9312-A5B012D5A4CC}"/>
-    <hyperlink ref="P14:P15" r:id="rId129" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{8E68A5D6-12F9-4B32-BAE6-33F064DF7CE3}"/>
-    <hyperlink ref="P18" r:id="rId130" xr:uid="{B697B639-914C-4DE6-B9B6-07E41AF08D0F}"/>
-    <hyperlink ref="P20" r:id="rId131" xr:uid="{30605DFD-5841-4B40-8533-BF9BCBF79F86}"/>
-    <hyperlink ref="P19" r:id="rId132" xr:uid="{5249381B-DDC8-4327-921B-78E187339FE0}"/>
-    <hyperlink ref="P21:P22" r:id="rId133" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{DC5770E8-B52F-4FD5-A455-FD98F7908B9D}"/>
-    <hyperlink ref="P25" r:id="rId134" xr:uid="{99C8C8EF-624F-42E9-BBBB-D1A85ECC427B}"/>
-    <hyperlink ref="P27" r:id="rId135" xr:uid="{F6815EF2-96F3-48EF-AF49-33EA215F9688}"/>
-    <hyperlink ref="P26" r:id="rId136" xr:uid="{ACD07C08-AD8C-44C9-8576-5DE267484A51}"/>
-    <hyperlink ref="P28:P29" r:id="rId137" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{4C299520-5090-49DB-A54B-002455B18B48}"/>
-    <hyperlink ref="P32" r:id="rId138" xr:uid="{4F0A76F5-8965-48D6-8214-AAA7047A3F3A}"/>
-    <hyperlink ref="P34" r:id="rId139" xr:uid="{6AAF0D1E-73FF-4DAD-8E36-A5D3AB413B4A}"/>
-    <hyperlink ref="P33" r:id="rId140" xr:uid="{5469F091-5C20-4AAC-8719-65BFAF598C1F}"/>
-    <hyperlink ref="P35:P36" r:id="rId141" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{210662E5-EB81-46BD-95E2-7CB5317347CC}"/>
-    <hyperlink ref="P39" r:id="rId142" xr:uid="{94558D27-1D8A-48AC-9256-92D7641785E0}"/>
-    <hyperlink ref="P41" r:id="rId143" xr:uid="{55B2ADB9-C137-4FBA-BC90-82991485A8B0}"/>
-    <hyperlink ref="P40" r:id="rId144" xr:uid="{1BF54FE6-2437-40FF-816E-1A43CD13BA41}"/>
-    <hyperlink ref="P42:P43" r:id="rId145" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{ABDAEB8A-A1CA-4188-8B8B-498B11BCE2CB}"/>
-    <hyperlink ref="P46" r:id="rId146" xr:uid="{6B6F9090-3232-48AF-AF4A-7ACF4C90B8ED}"/>
-    <hyperlink ref="P48" r:id="rId147" xr:uid="{E4AEE867-9497-4C0F-8B00-98BF75A59B71}"/>
-    <hyperlink ref="P47" r:id="rId148" xr:uid="{17C611E2-8F15-46AA-8DA0-A5C2D2A24732}"/>
-    <hyperlink ref="P49:P50" r:id="rId149" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{77BE912A-4B5C-4730-BCF4-0375EAA1CEF3}"/>
-    <hyperlink ref="P53" r:id="rId150" xr:uid="{F502AE81-985F-4D66-B8ED-5A89CA34F4DB}"/>
-    <hyperlink ref="P55" r:id="rId151" xr:uid="{139A7142-65BD-49CC-9993-4733AE005107}"/>
-    <hyperlink ref="P54" r:id="rId152" xr:uid="{68FADB8C-C593-4053-B7CF-475F025A29B2}"/>
-    <hyperlink ref="P56:P57" r:id="rId153" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{B4C89024-214D-4894-8202-DB47C6582688}"/>
-    <hyperlink ref="P60" r:id="rId154" xr:uid="{29852E2E-531A-4C39-9A9D-B7BD96E37D69}"/>
-    <hyperlink ref="P62" r:id="rId155" xr:uid="{84A1D27F-4853-4362-933C-E87272859422}"/>
-    <hyperlink ref="P61" r:id="rId156" xr:uid="{5E5BA3FA-A756-458C-B813-60AEEA12D510}"/>
-    <hyperlink ref="P63:P64" r:id="rId157" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{0F9DCB8A-FB71-4457-9159-98E2842A503A}"/>
-    <hyperlink ref="P67" r:id="rId158" xr:uid="{E2F96E2D-47E6-4CFD-9A8D-E2C8B296C1E3}"/>
-    <hyperlink ref="P69" r:id="rId159" xr:uid="{20A4E424-F1C7-482B-949C-0C932DDA55A4}"/>
-    <hyperlink ref="P68" r:id="rId160" xr:uid="{3A396BA2-BDC6-4852-93B9-6FA3CA516F93}"/>
-    <hyperlink ref="P70:P71" r:id="rId161" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{75589D51-2A70-4395-81A1-54F400019E24}"/>
-    <hyperlink ref="P74" r:id="rId162" xr:uid="{840AACC3-AAE8-4FF0-BEDC-1061CD8F5FEC}"/>
-    <hyperlink ref="P76" r:id="rId163" xr:uid="{FEC1F5D6-CB54-444D-9B76-33D0981A1B09}"/>
-    <hyperlink ref="P75" r:id="rId164" xr:uid="{DE903FA8-3F75-4E6B-AB72-DA401B554885}"/>
-    <hyperlink ref="P77:P78" r:id="rId165" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{81430A42-A5A0-4882-A25A-372C860150BF}"/>
-    <hyperlink ref="P81" r:id="rId166" xr:uid="{2339B88B-F0F0-4177-83E6-EFDC3BBB9D1A}"/>
-    <hyperlink ref="P83" r:id="rId167" xr:uid="{628826C8-0AF2-4FEA-BB6D-73872C1EF926}"/>
-    <hyperlink ref="P82" r:id="rId168" xr:uid="{C3202304-754E-40B1-BA9C-E9EFB4D7320A}"/>
-    <hyperlink ref="P84:P85" r:id="rId169" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{4E35A034-2DAB-421D-8A32-4D688873D983}"/>
-    <hyperlink ref="P88" r:id="rId170" xr:uid="{D88DAC45-2CBF-4BDD-8F39-1FF5A38BDC52}"/>
-    <hyperlink ref="P90" r:id="rId171" xr:uid="{019FAD1B-EBA1-43B1-92B8-A6DFF4BF4EE8}"/>
-    <hyperlink ref="P89" r:id="rId172" xr:uid="{753CA3AB-75C4-4E2F-8E4B-E1DE2709BA03}"/>
-    <hyperlink ref="P91:P92" r:id="rId173" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{122F900B-769C-4A1D-BCF1-F9EE940C62E0}"/>
-    <hyperlink ref="P95" r:id="rId174" xr:uid="{FE036F4A-E87E-4363-8D8E-282D57BDE812}"/>
-    <hyperlink ref="P97" r:id="rId175" xr:uid="{78D81663-2D77-4179-89F0-5C9C68437445}"/>
-    <hyperlink ref="P96" r:id="rId176" xr:uid="{0F7A93BE-44C2-428B-9EC6-3A31ADC6A463}"/>
-    <hyperlink ref="P98:P99" r:id="rId177" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{967E0FD1-9DAC-4A86-88F9-3A9C5D5FEDFD}"/>
-    <hyperlink ref="P102" r:id="rId178" xr:uid="{50A63C3F-2C21-472A-AA76-ADB5C5AC95D8}"/>
-    <hyperlink ref="P104" r:id="rId179" xr:uid="{4DE45FDB-91EA-4D2D-904F-6638FB3CF8D2}"/>
-    <hyperlink ref="P103" r:id="rId180" xr:uid="{BD55FAAE-1B4B-410B-9C3A-F4FD5A52C29C}"/>
-    <hyperlink ref="P105:P106" r:id="rId181" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{35A29856-9AFB-43D5-A16D-4F1C9A3757D3}"/>
-    <hyperlink ref="P109" r:id="rId182" xr:uid="{B045EE6B-7F49-4249-B657-936A0A172911}"/>
-    <hyperlink ref="P111" r:id="rId183" xr:uid="{F359E220-0FCB-44F6-9337-C6EAD8B22F99}"/>
-    <hyperlink ref="P110" r:id="rId184" xr:uid="{5DF8BA32-8C8E-48FD-9DB3-134E1D1E48AC}"/>
-    <hyperlink ref="P112:P113" r:id="rId185" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{A5FAAD2B-FB5D-4F73-985E-3E4EA724BBBD}"/>
-    <hyperlink ref="P116" r:id="rId186" xr:uid="{415E6F71-0C9A-4473-A032-D77BC0C14373}"/>
-    <hyperlink ref="P118" r:id="rId187" xr:uid="{E0DE7905-0AE8-48D7-9D74-35676733E238}"/>
-    <hyperlink ref="P117" r:id="rId188" xr:uid="{9E12B3E9-BFDE-4704-BF51-471E60E359B7}"/>
-    <hyperlink ref="P119:P120" r:id="rId189" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{6854C9FE-589E-4921-B479-067657451849}"/>
-    <hyperlink ref="P123" r:id="rId190" xr:uid="{4C07F748-FC95-4BA5-BC9F-C06E7908B9F3}"/>
-    <hyperlink ref="P125" r:id="rId191" xr:uid="{0945A32C-BFC6-4EA3-BB02-50061FACC7BB}"/>
-    <hyperlink ref="P124" r:id="rId192" xr:uid="{8DB04228-D9AC-47F6-9806-6663861E9E93}"/>
-    <hyperlink ref="P126:P127" r:id="rId193" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{CEFB1D24-5333-41BA-9E11-5BB6C46C1EB7}"/>
-    <hyperlink ref="P130" r:id="rId194" xr:uid="{18B75794-85F1-4CDB-A742-85E88C32BD86}"/>
-    <hyperlink ref="P132" r:id="rId195" xr:uid="{E58A29B0-C256-4B40-A484-E85B3F4C2E93}"/>
-    <hyperlink ref="P131" r:id="rId196" xr:uid="{C9A9B72B-C0E0-4794-94D2-819C3D0CA26F}"/>
-    <hyperlink ref="P133:P134" r:id="rId197" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{6E8BE2A6-E525-491F-A6E3-F33F202320B0}"/>
-    <hyperlink ref="P137" r:id="rId198" xr:uid="{11660C49-B5B3-48AF-9D1F-8D4D39740DEC}"/>
-    <hyperlink ref="P139" r:id="rId199" xr:uid="{59F0C41F-03F4-44CE-9CB4-EA45A355D506}"/>
-    <hyperlink ref="P138" r:id="rId200" xr:uid="{28F25F69-1215-4DB0-9430-57D23C1D9BD5}"/>
-    <hyperlink ref="P140:P141" r:id="rId201" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{1862643C-73AE-4493-A517-754558570D19}"/>
-    <hyperlink ref="P144" r:id="rId202" xr:uid="{05B70ECF-BAF9-4F35-8A87-9DDF7FFE8A13}"/>
-    <hyperlink ref="P146" r:id="rId203" xr:uid="{9C2D96D9-C176-4298-B943-DBDD3D1356E9}"/>
-    <hyperlink ref="P145" r:id="rId204" xr:uid="{DB9FEB18-A54F-4BDB-9726-999BA6BDD89F}"/>
-    <hyperlink ref="P147:P148" r:id="rId205" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{B23F8ED2-1107-4E79-89EC-DC5175DDB698}"/>
-    <hyperlink ref="P151" r:id="rId206" xr:uid="{1F64A551-29DA-456B-9E88-FAE63087D3AD}"/>
-    <hyperlink ref="P153" r:id="rId207" xr:uid="{24726359-C8A4-4355-8C87-F2F30F7571E0}"/>
-    <hyperlink ref="P152" r:id="rId208" xr:uid="{438D0979-FE2C-459C-8D10-C12CF6C30F75}"/>
-    <hyperlink ref="P154:P155" r:id="rId209" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{EECAAEE5-9944-4894-BA5E-95E0E311210B}"/>
-    <hyperlink ref="P158" r:id="rId210" xr:uid="{4A5CDB7B-D559-43DF-95D2-70D1F380CD89}"/>
-    <hyperlink ref="P160" r:id="rId211" xr:uid="{5A1EDFD0-BA53-4B12-B4B4-5F59CF7C4114}"/>
-    <hyperlink ref="P159" r:id="rId212" xr:uid="{C33761BA-3B92-4C8C-ACB3-6EC5BE6C1799}"/>
-    <hyperlink ref="P161:P162" r:id="rId213" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{16C8D158-95D8-40D0-9DDC-56955E815BEF}"/>
-    <hyperlink ref="K11" r:id="rId214" xr:uid="{E168CBB9-96D6-4AF4-BD58-656C4E74E1BF}"/>
-    <hyperlink ref="K12" r:id="rId215" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{8012F5E0-2F1F-4009-9D81-A4E2993F8C3F}"/>
-    <hyperlink ref="K13" r:id="rId216" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{6ED7A967-76DE-4E35-BE32-11B743D0ED3C}"/>
-    <hyperlink ref="K14" r:id="rId217" xr:uid="{64B80C81-AE11-42D8-BCB3-2599FAFBAF77}"/>
-    <hyperlink ref="K15" r:id="rId218" xr:uid="{D074A496-2CF4-4055-B18F-54818C8DBFC5}"/>
-    <hyperlink ref="K18" r:id="rId219" xr:uid="{3F209C73-60E5-45E8-98E6-7D0B7AFDC966}"/>
-    <hyperlink ref="K19" r:id="rId220" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{CA3400E6-D0A2-4B0B-B46B-78016C808F66}"/>
-    <hyperlink ref="K20" r:id="rId221" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{EDB4DE9C-6534-4A7E-91FC-7E0C19D2679D}"/>
-    <hyperlink ref="K21" r:id="rId222" xr:uid="{64A3A1C5-1354-48B1-B731-37B17C27225D}"/>
-    <hyperlink ref="K22" r:id="rId223" xr:uid="{9BEA648E-DB02-4538-B209-E5A04F354812}"/>
-    <hyperlink ref="K25" r:id="rId224" xr:uid="{BED263D8-8272-4155-A676-143122FC7890}"/>
-    <hyperlink ref="K26" r:id="rId225" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{9BF80AEE-4D7D-476B-8D60-8FC6A3C96D1A}"/>
-    <hyperlink ref="K27" r:id="rId226" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{831F9141-F134-4EC1-95A0-2B56822FCB96}"/>
-    <hyperlink ref="K28" r:id="rId227" xr:uid="{52AB8C6F-C6A7-4C4E-A716-48B3709E4051}"/>
-    <hyperlink ref="K29" r:id="rId228" xr:uid="{B72888A2-FC58-483E-AC8E-1C65A4BDDC7C}"/>
-    <hyperlink ref="K32" r:id="rId229" xr:uid="{DCCFF252-23C6-4045-8B81-44D6FDCEC069}"/>
-    <hyperlink ref="K33" r:id="rId230" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{F8EF6D41-7A2C-4246-9983-C541839548CD}"/>
-    <hyperlink ref="K34" r:id="rId231" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{DF019149-E971-43FD-ACB6-A1691AF96F5A}"/>
-    <hyperlink ref="K35" r:id="rId232" xr:uid="{388E8BA4-43A3-4B20-94D8-12C5B10A5DAA}"/>
-    <hyperlink ref="K36" r:id="rId233" xr:uid="{13E8A466-A1FF-4A72-AFD7-FE65FCB6EC14}"/>
-    <hyperlink ref="K39" r:id="rId234" xr:uid="{35C2D674-54D5-4A30-9171-3835D4ABC7B2}"/>
-    <hyperlink ref="K40" r:id="rId235" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{6EEB0D4A-7ADF-4CC5-B02C-9B69A454AFA0}"/>
-    <hyperlink ref="K41" r:id="rId236" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{8B55AFD0-DA91-419E-B6C0-57B36BB694C2}"/>
-    <hyperlink ref="K42" r:id="rId237" xr:uid="{8FCCB9D2-3263-4E55-A857-0E950A06F70B}"/>
-    <hyperlink ref="K43" r:id="rId238" xr:uid="{58173F9D-0721-4F63-A8CB-4E1A8AF2CBE4}"/>
-    <hyperlink ref="K46" r:id="rId239" xr:uid="{A9DAA62C-0EF1-444F-8516-AE5359FCBF36}"/>
-    <hyperlink ref="K47" r:id="rId240" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{CB93ADA4-975D-4188-9EDD-919066DD855A}"/>
-    <hyperlink ref="K48" r:id="rId241" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{EF15E459-5803-49EC-8EAF-47FEC98CFA4D}"/>
-    <hyperlink ref="K49" r:id="rId242" xr:uid="{D5701FEF-ADB6-4D89-8957-9CBCE9B1AFA1}"/>
-    <hyperlink ref="K50" r:id="rId243" xr:uid="{18C45779-4A2A-4241-B14B-0BF8C34E1085}"/>
-    <hyperlink ref="K53" r:id="rId244" xr:uid="{BF26F5BA-7715-4478-A9F2-320E9782060E}"/>
-    <hyperlink ref="K54" r:id="rId245" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{CD1E3F40-0DAD-44E5-B8C3-A9924D603999}"/>
-    <hyperlink ref="K55" r:id="rId246" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{7E12A6BF-80B1-405F-A0BD-61AE80E5D5B0}"/>
-    <hyperlink ref="K56" r:id="rId247" xr:uid="{F62A362F-DFEB-460A-A83E-0D65EBF2C09B}"/>
-    <hyperlink ref="K57" r:id="rId248" xr:uid="{6777536E-4ACF-46C1-AE87-DBC427CFB0D9}"/>
-    <hyperlink ref="K60" r:id="rId249" xr:uid="{A207B39D-44CD-4F1F-966E-C4E7D4097342}"/>
-    <hyperlink ref="K61" r:id="rId250" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{032A3E92-AD45-4D0B-B4D1-F2C42899AFF9}"/>
-    <hyperlink ref="K62" r:id="rId251" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{9D6C8726-F356-4EF0-B325-FCB02DF045C3}"/>
-    <hyperlink ref="K63" r:id="rId252" xr:uid="{9DD0EF03-B0AC-4B73-BB06-46E7F371D3C9}"/>
-    <hyperlink ref="K64" r:id="rId253" xr:uid="{ED78FC38-2278-4AA7-A5A7-3322EE6F9645}"/>
-    <hyperlink ref="K67" r:id="rId254" xr:uid="{455E650D-5B30-49AD-8B90-86C7EE67B912}"/>
-    <hyperlink ref="K68" r:id="rId255" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{209F4814-2EE7-402D-8605-6EB287EC224D}"/>
-    <hyperlink ref="K69" r:id="rId256" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{F50DBA88-1E4D-4F22-B054-7D8AC1AEBB60}"/>
-    <hyperlink ref="K70" r:id="rId257" xr:uid="{372A73F5-ACF4-4384-8B49-D1C91278E664}"/>
-    <hyperlink ref="K71" r:id="rId258" xr:uid="{820934C7-8C4A-4B3D-9AC2-F6114C6C27DE}"/>
-    <hyperlink ref="K74" r:id="rId259" xr:uid="{01D25C78-DC56-4B62-8085-3FEA07C7F31D}"/>
-    <hyperlink ref="K75" r:id="rId260" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{B0181252-B309-47A0-B04F-AA0B1F84DAEE}"/>
-    <hyperlink ref="K76" r:id="rId261" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{9A9F81A4-FFAC-4645-9867-4347BECB24FE}"/>
-    <hyperlink ref="K77" r:id="rId262" xr:uid="{6CCA07CA-EC8D-4AB3-A1FF-17AB3F06EAD0}"/>
-    <hyperlink ref="K78" r:id="rId263" xr:uid="{71C94821-EB6E-4CA2-BB93-287FADD092AD}"/>
-    <hyperlink ref="K81" r:id="rId264" xr:uid="{35F20D6F-DD0A-4BA7-ABE5-BE75B60338D1}"/>
-    <hyperlink ref="K82" r:id="rId265" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{F9C9EE3D-F13D-4AE4-AEDA-B3DA42E20B99}"/>
-    <hyperlink ref="K83" r:id="rId266" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{DFEB3E9F-3430-4868-9B94-CC2379086A17}"/>
-    <hyperlink ref="K84" r:id="rId267" xr:uid="{A75B4840-1894-414D-9B64-4AEFEE581FEC}"/>
-    <hyperlink ref="K85" r:id="rId268" xr:uid="{ED6C9245-48F4-44E6-AFE8-9840CEFEE441}"/>
-    <hyperlink ref="K88" r:id="rId269" xr:uid="{B3CE37E9-5089-4ECB-979E-4B6F193B473E}"/>
-    <hyperlink ref="K89" r:id="rId270" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{E85A3D17-5AD9-4C45-AE43-6ED3E64497CC}"/>
-    <hyperlink ref="K90" r:id="rId271" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{4048A7BE-CD12-47C1-8432-4287774A5F8E}"/>
-    <hyperlink ref="K91" r:id="rId272" xr:uid="{DD50763A-3703-4D88-8509-14DBBEB9A0B6}"/>
-    <hyperlink ref="K92" r:id="rId273" xr:uid="{ECB184B9-D518-42DB-B6F8-A4C8FFDFF306}"/>
-    <hyperlink ref="K95" r:id="rId274" xr:uid="{08C932E2-A64F-42A8-AF46-182C0234E81A}"/>
-    <hyperlink ref="K96" r:id="rId275" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{1A7A8715-BA91-4491-AE12-98BDCE308C84}"/>
-    <hyperlink ref="K97" r:id="rId276" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{F1C2ACF6-6B36-4D59-869E-9B129E827B72}"/>
-    <hyperlink ref="K98" r:id="rId277" xr:uid="{8D70E7F7-87B3-42EB-8AE6-159174CDD471}"/>
-    <hyperlink ref="K99" r:id="rId278" xr:uid="{880528D0-EAB7-413A-923D-04EF3E79DFD5}"/>
-    <hyperlink ref="K102" r:id="rId279" xr:uid="{CFC907D0-19FF-4C24-82A3-F11C7EB4533C}"/>
-    <hyperlink ref="K103" r:id="rId280" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{932A10A1-B1EC-44A3-A438-7EFFC1ADBDB6}"/>
-    <hyperlink ref="K104" r:id="rId281" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{9CE12478-29CB-44A8-A815-D835C691F333}"/>
-    <hyperlink ref="K105" r:id="rId282" xr:uid="{B0B14606-3D98-4AF8-BEA6-D1CAEF22F9EF}"/>
-    <hyperlink ref="K106" r:id="rId283" xr:uid="{A4D865DB-E8B8-4B05-BE06-C2E2C65A2420}"/>
-    <hyperlink ref="K109" r:id="rId284" xr:uid="{51077F6A-78D2-4C38-8589-E30A8D076F2C}"/>
-    <hyperlink ref="K110" r:id="rId285" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{CA773684-018E-4FB4-A5B0-E0172A3F658C}"/>
-    <hyperlink ref="K111" r:id="rId286" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{39A375D9-8F0F-4E5A-84DF-3F0B43CA7352}"/>
-    <hyperlink ref="K112" r:id="rId287" xr:uid="{30D4C982-A1B8-45D2-AEF7-B578D75D7A04}"/>
-    <hyperlink ref="K113" r:id="rId288" xr:uid="{794BC569-8ED5-4B9B-A16D-D34F4F9FBBD5}"/>
-    <hyperlink ref="K116" r:id="rId289" xr:uid="{C7A23F35-5EB5-4B6F-8F7A-6EE7286D9F2D}"/>
-    <hyperlink ref="K117" r:id="rId290" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{0777DB8C-1695-42DE-B894-FED1299C53DF}"/>
-    <hyperlink ref="K118" r:id="rId291" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{C1BD70E5-D2E5-4CFC-A520-9BBDAF3A0061}"/>
-    <hyperlink ref="K119" r:id="rId292" xr:uid="{768C7977-0E4D-4CDE-96D2-CD3E7DFCDD72}"/>
-    <hyperlink ref="K120" r:id="rId293" xr:uid="{44E25CF3-928D-4FDD-B6E0-3F4A1711A8DF}"/>
-    <hyperlink ref="K123" r:id="rId294" xr:uid="{5502D6C2-2403-45CE-99E7-C26916DC3B65}"/>
-    <hyperlink ref="K124" r:id="rId295" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{7D7FD700-3C17-4340-85A1-E0D3266D47E4}"/>
-    <hyperlink ref="K125" r:id="rId296" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{F3839D75-926F-4AB4-94A0-33E05060B55E}"/>
-    <hyperlink ref="K126" r:id="rId297" xr:uid="{AF61A2E5-3DB1-4AF1-A818-38229AF7A7B2}"/>
-    <hyperlink ref="K127" r:id="rId298" xr:uid="{274A577E-B91F-40EA-8BEB-76B25634A662}"/>
-    <hyperlink ref="K130" r:id="rId299" xr:uid="{C20169FE-94D1-490B-A026-62854173B67D}"/>
-    <hyperlink ref="K131" r:id="rId300" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{52D765C7-07DE-4A72-90AB-A9F2573655F6}"/>
-    <hyperlink ref="K132" r:id="rId301" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{8A83BD32-35A7-45E8-99FD-5A3333F8EAAD}"/>
-    <hyperlink ref="K133" r:id="rId302" xr:uid="{8AC9A73D-AB03-4855-A704-1155783C2FD4}"/>
-    <hyperlink ref="K134" r:id="rId303" xr:uid="{37D8EBBB-0FD6-426E-BABF-C827D316D747}"/>
-    <hyperlink ref="K137" r:id="rId304" xr:uid="{301296BD-4081-4FE2-B280-A49183663B61}"/>
-    <hyperlink ref="K138" r:id="rId305" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{DC5D2A49-2B69-427A-9B97-D5357C1BD4A2}"/>
-    <hyperlink ref="K139" r:id="rId306" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{A8A6C3F6-9157-4F09-BD9E-8D3FA774149B}"/>
-    <hyperlink ref="K140" r:id="rId307" xr:uid="{8648EED1-FFB0-4512-803A-7739862F741E}"/>
-    <hyperlink ref="K141" r:id="rId308" xr:uid="{1897352A-ACE5-40D4-9408-57FA066505ED}"/>
-    <hyperlink ref="K144" r:id="rId309" xr:uid="{79057770-B496-480A-ABE8-86525D04C562}"/>
-    <hyperlink ref="K145" r:id="rId310" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{CA6261E6-BB6F-44FE-895B-46D3E033D614}"/>
-    <hyperlink ref="K146" r:id="rId311" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{B0B08997-F46B-4CB4-842D-FD2935270DEA}"/>
-    <hyperlink ref="K147" r:id="rId312" xr:uid="{C0BB9A0A-BFCB-4039-9560-D782C7C05735}"/>
-    <hyperlink ref="K148" r:id="rId313" xr:uid="{A320F43D-82A9-40C5-9CF1-A7A409A45D90}"/>
-    <hyperlink ref="K151" r:id="rId314" xr:uid="{82A68CFA-2B6F-494B-9362-1F7C72975E8A}"/>
-    <hyperlink ref="K152" r:id="rId315" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{1B81AC7F-B689-4529-AA91-9384C684ADF2}"/>
-    <hyperlink ref="K153" r:id="rId316" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{2442F83E-2A57-4ED7-8020-C117331D7079}"/>
-    <hyperlink ref="K154" r:id="rId317" xr:uid="{96AEEC58-F0B7-43D5-895B-6EFFEAB79EC4}"/>
-    <hyperlink ref="K155" r:id="rId318" xr:uid="{27435E73-CC26-4FB5-A8B2-66F556A47AA8}"/>
-    <hyperlink ref="K158" r:id="rId319" xr:uid="{F4FBFF7B-B2F0-424F-B1AA-638571CC9D0E}"/>
-    <hyperlink ref="K159" r:id="rId320" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{01829291-ADE0-4ACE-89D1-7E3B34A27776}"/>
-    <hyperlink ref="K160" r:id="rId321" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{454BB7B7-2D64-4578-B596-3C2EBDD6F87A}"/>
-    <hyperlink ref="K161" r:id="rId322" xr:uid="{BD4AD272-55FA-4ABD-BCFD-0512B9C5E4AC}"/>
-    <hyperlink ref="K162" r:id="rId323" xr:uid="{18777932-8F68-451C-9B60-ED7088DD29B7}"/>
-    <hyperlink ref="N6:N8" r:id="rId324" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{DE039646-EED2-40D2-9D31-E0A359242B2C}"/>
-    <hyperlink ref="N11" r:id="rId325" xr:uid="{AE4BFEDB-D053-4E46-83FD-92E65F6711AB}"/>
-    <hyperlink ref="N13:N15" r:id="rId326" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{DFEDD54B-71D4-4700-A9ED-09B6464EF1DB}"/>
-    <hyperlink ref="N18" r:id="rId327" xr:uid="{EA5ABE86-F490-4964-9BB3-672D9BD74C59}"/>
-    <hyperlink ref="N20:N22" r:id="rId328" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{6D00CC15-6CBB-4D7E-9AA0-9544DB91503E}"/>
-    <hyperlink ref="N25" r:id="rId329" xr:uid="{99E300E3-A6A1-435E-B3D6-B5621C9B7FB3}"/>
-    <hyperlink ref="N27:N29" r:id="rId330" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{32402C2C-0038-4307-AB1E-52B4C7CA6031}"/>
-    <hyperlink ref="N32" r:id="rId331" xr:uid="{6EC50EA5-3F08-4463-B33B-5CEF90FDBC2E}"/>
-    <hyperlink ref="N34:N36" r:id="rId332" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{750A46DC-2984-49D9-BA6A-7ACDA44A6424}"/>
-    <hyperlink ref="N39" r:id="rId333" xr:uid="{178F5373-6D2F-4935-BB67-6FE9B2D84633}"/>
-    <hyperlink ref="N41:N43" r:id="rId334" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{BB525F58-3DE8-40CB-963F-C09C5686296E}"/>
-    <hyperlink ref="N46" r:id="rId335" xr:uid="{CFF1AB47-0772-47AB-8FE8-25D794EAA24E}"/>
-    <hyperlink ref="N48:N50" r:id="rId336" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{49D33845-87CE-4F56-A752-D4E6B0A0168A}"/>
-    <hyperlink ref="N53" r:id="rId337" xr:uid="{F838C95A-7BA1-4D41-BBDC-E0FF9E8391E2}"/>
-    <hyperlink ref="N55:N57" r:id="rId338" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{32A9A27D-10DD-431E-AE8B-FDD429CFD57B}"/>
-    <hyperlink ref="N60" r:id="rId339" xr:uid="{CB1F0D2E-88F9-435B-B368-73FC1B6661B8}"/>
-    <hyperlink ref="N62:N64" r:id="rId340" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{BDAD2338-495E-46F1-8A0A-7BADED0C42A5}"/>
-    <hyperlink ref="N67" r:id="rId341" xr:uid="{100642ED-1DB0-43BE-85BF-563AC0CB9AE1}"/>
-    <hyperlink ref="N69:N71" r:id="rId342" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{8AEA7E4F-CD42-4A9B-B64D-D7EEE80A357E}"/>
-    <hyperlink ref="N74" r:id="rId343" xr:uid="{D0546147-AC58-441C-B0D7-209B6150A59E}"/>
-    <hyperlink ref="N76:N78" r:id="rId344" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{E66B09EE-14F3-45C7-9D99-7E65AA3F6901}"/>
-    <hyperlink ref="N81" r:id="rId345" xr:uid="{35255CEA-587F-4D79-9F05-278203CBB7ED}"/>
-    <hyperlink ref="N83:N85" r:id="rId346" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{3D1ED185-BA11-4BCD-AA68-656DBAD912F7}"/>
-    <hyperlink ref="N88" r:id="rId347" xr:uid="{F3E6FDEC-914A-49E4-8DBE-E531A17DA3D2}"/>
-    <hyperlink ref="N90:N92" r:id="rId348" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{8C576181-BCEC-4ACA-B0C5-5EA793873F7A}"/>
-    <hyperlink ref="N95" r:id="rId349" xr:uid="{819959DE-4956-4B79-A0E5-3B860581926E}"/>
-    <hyperlink ref="N97:N99" r:id="rId350" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{FBF67417-6117-499C-94EE-D37720F3A40D}"/>
-    <hyperlink ref="N102" r:id="rId351" xr:uid="{A60EEEEA-13C0-4110-94FD-56496D5FF85F}"/>
-    <hyperlink ref="N104:N106" r:id="rId352" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{239BC94F-37BE-42D0-9F62-B40197CFF2F5}"/>
-    <hyperlink ref="N109" r:id="rId353" xr:uid="{9E48492B-9140-4A0E-9798-E2C7CD312DA3}"/>
-    <hyperlink ref="N111:N113" r:id="rId354" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{7942F502-B5E6-40E9-983F-DD911990BFD6}"/>
-    <hyperlink ref="N116" r:id="rId355" xr:uid="{4A1EBDD8-3DBB-4BCD-AFD6-54DB05967F31}"/>
-    <hyperlink ref="N118:N120" r:id="rId356" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{E9365770-CFCD-4873-A4BF-F213018503C2}"/>
-    <hyperlink ref="N123" r:id="rId357" xr:uid="{48E51AF3-3D3E-4AD6-8C6A-F6CFB17F0AF6}"/>
-    <hyperlink ref="N125:N127" r:id="rId358" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{6C9AC666-5959-410D-AF49-1F156A6DC32C}"/>
-    <hyperlink ref="N130" r:id="rId359" xr:uid="{E06A73B9-0351-4534-A3CC-0795BDF4DB1F}"/>
-    <hyperlink ref="N132:N134" r:id="rId360" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{3B23D400-D7CA-4199-9FFA-EFF3E35FE919}"/>
-    <hyperlink ref="N137" r:id="rId361" xr:uid="{27004E24-0240-4683-919A-B7B250625521}"/>
-    <hyperlink ref="N139:N141" r:id="rId362" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{335A8A9B-7133-4073-ABB5-059170D8F839}"/>
-    <hyperlink ref="N144" r:id="rId363" xr:uid="{4780A178-4A54-425A-B564-ACB3E03DBE95}"/>
-    <hyperlink ref="N146:N148" r:id="rId364" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{CB932CE4-86A9-463C-85D5-EE4CDF183140}"/>
-    <hyperlink ref="N151" r:id="rId365" xr:uid="{174ABEFD-D68D-4306-86D5-D1EEEDC00E7F}"/>
-    <hyperlink ref="N153:N155" r:id="rId366" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{7B176891-58C7-4FF8-9F02-C1859EC82E5E}"/>
-    <hyperlink ref="N158" r:id="rId367" xr:uid="{D19304D6-2CCD-4E3F-B93B-C9E61F0C7DCE}"/>
-    <hyperlink ref="N160:N162" r:id="rId368" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{3EFA50BE-5636-4365-88C2-E21862E81F34}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{D9569CBD-1C1A-4EF0-9D90-B70EA928D150}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{9BE0ED28-10F6-4134-9498-8AD506CA6F59}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{2852B20A-FC0A-48C3-98A4-CEE3556CDAF9}"/>
+    <hyperlink ref="P6" r:id="rId4" xr:uid="{4005D574-44CA-4860-B6C2-0E3F4B83C0BD}"/>
+    <hyperlink ref="K6" r:id="rId5" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{1C2382E8-D081-449A-852C-F4E9BEBBA494}"/>
+    <hyperlink ref="J14" r:id="rId6" xr:uid="{A3C19DFD-1122-4EEA-8617-F31695F84BD4}"/>
+    <hyperlink ref="J15" r:id="rId7" xr:uid="{DEDA2093-C456-4B90-BEC5-8FD9D13D9B23}"/>
+    <hyperlink ref="P5" r:id="rId8" xr:uid="{DA570CA4-7B8A-43B8-B973-C7E50503F38A}"/>
+    <hyperlink ref="P7:P8" r:id="rId9" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{9294D62B-929E-4818-A93C-9160647777EA}"/>
+    <hyperlink ref="P11" r:id="rId10" xr:uid="{EDEBF662-A89E-4B0D-9229-81113F764020}"/>
+    <hyperlink ref="P13" r:id="rId11" xr:uid="{25C72E6A-B007-4CC1-A1CB-DFCDF85C9B01}"/>
+    <hyperlink ref="P12" r:id="rId12" xr:uid="{076CD20A-54D0-4B5C-9312-A5B012D5A4CC}"/>
+    <hyperlink ref="P14:P15" r:id="rId13" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{8E68A5D6-12F9-4B32-BAE6-33F064DF7CE3}"/>
+    <hyperlink ref="P18" r:id="rId14" xr:uid="{B697B639-914C-4DE6-B9B6-07E41AF08D0F}"/>
+    <hyperlink ref="P20" r:id="rId15" xr:uid="{30605DFD-5841-4B40-8533-BF9BCBF79F86}"/>
+    <hyperlink ref="P19" r:id="rId16" xr:uid="{5249381B-DDC8-4327-921B-78E187339FE0}"/>
+    <hyperlink ref="P21:P22" r:id="rId17" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{DC5770E8-B52F-4FD5-A455-FD98F7908B9D}"/>
+    <hyperlink ref="P25" r:id="rId18" xr:uid="{99C8C8EF-624F-42E9-BBBB-D1A85ECC427B}"/>
+    <hyperlink ref="P27" r:id="rId19" xr:uid="{F6815EF2-96F3-48EF-AF49-33EA215F9688}"/>
+    <hyperlink ref="P26" r:id="rId20" xr:uid="{ACD07C08-AD8C-44C9-8576-5DE267484A51}"/>
+    <hyperlink ref="P28:P29" r:id="rId21" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{4C299520-5090-49DB-A54B-002455B18B48}"/>
+    <hyperlink ref="P32" r:id="rId22" xr:uid="{4F0A76F5-8965-48D6-8214-AAA7047A3F3A}"/>
+    <hyperlink ref="P34" r:id="rId23" xr:uid="{6AAF0D1E-73FF-4DAD-8E36-A5D3AB413B4A}"/>
+    <hyperlink ref="P33" r:id="rId24" xr:uid="{5469F091-5C20-4AAC-8719-65BFAF598C1F}"/>
+    <hyperlink ref="P35:P36" r:id="rId25" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{210662E5-EB81-46BD-95E2-7CB5317347CC}"/>
+    <hyperlink ref="P39" r:id="rId26" xr:uid="{94558D27-1D8A-48AC-9256-92D7641785E0}"/>
+    <hyperlink ref="P41" r:id="rId27" xr:uid="{55B2ADB9-C137-4FBA-BC90-82991485A8B0}"/>
+    <hyperlink ref="P40" r:id="rId28" xr:uid="{1BF54FE6-2437-40FF-816E-1A43CD13BA41}"/>
+    <hyperlink ref="P42:P43" r:id="rId29" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{ABDAEB8A-A1CA-4188-8B8B-498B11BCE2CB}"/>
+    <hyperlink ref="P46" r:id="rId30" xr:uid="{6B6F9090-3232-48AF-AF4A-7ACF4C90B8ED}"/>
+    <hyperlink ref="P48" r:id="rId31" xr:uid="{E4AEE867-9497-4C0F-8B00-98BF75A59B71}"/>
+    <hyperlink ref="P47" r:id="rId32" xr:uid="{17C611E2-8F15-46AA-8DA0-A5C2D2A24732}"/>
+    <hyperlink ref="P49:P50" r:id="rId33" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{77BE912A-4B5C-4730-BCF4-0375EAA1CEF3}"/>
+    <hyperlink ref="P53" r:id="rId34" xr:uid="{F502AE81-985F-4D66-B8ED-5A89CA34F4DB}"/>
+    <hyperlink ref="P55" r:id="rId35" xr:uid="{139A7142-65BD-49CC-9993-4733AE005107}"/>
+    <hyperlink ref="P54" r:id="rId36" xr:uid="{68FADB8C-C593-4053-B7CF-475F025A29B2}"/>
+    <hyperlink ref="P56:P57" r:id="rId37" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{B4C89024-214D-4894-8202-DB47C6582688}"/>
+    <hyperlink ref="P60" r:id="rId38" xr:uid="{29852E2E-531A-4C39-9A9D-B7BD96E37D69}"/>
+    <hyperlink ref="P62" r:id="rId39" xr:uid="{84A1D27F-4853-4362-933C-E87272859422}"/>
+    <hyperlink ref="P61" r:id="rId40" xr:uid="{5E5BA3FA-A756-458C-B813-60AEEA12D510}"/>
+    <hyperlink ref="P63:P64" r:id="rId41" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{0F9DCB8A-FB71-4457-9159-98E2842A503A}"/>
+    <hyperlink ref="P67" r:id="rId42" xr:uid="{E2F96E2D-47E6-4CFD-9A8D-E2C8B296C1E3}"/>
+    <hyperlink ref="P69" r:id="rId43" xr:uid="{20A4E424-F1C7-482B-949C-0C932DDA55A4}"/>
+    <hyperlink ref="P68" r:id="rId44" xr:uid="{3A396BA2-BDC6-4852-93B9-6FA3CA516F93}"/>
+    <hyperlink ref="P70:P71" r:id="rId45" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{75589D51-2A70-4395-81A1-54F400019E24}"/>
+    <hyperlink ref="P74" r:id="rId46" xr:uid="{840AACC3-AAE8-4FF0-BEDC-1061CD8F5FEC}"/>
+    <hyperlink ref="P76" r:id="rId47" xr:uid="{FEC1F5D6-CB54-444D-9B76-33D0981A1B09}"/>
+    <hyperlink ref="P75" r:id="rId48" xr:uid="{DE903FA8-3F75-4E6B-AB72-DA401B554885}"/>
+    <hyperlink ref="P77:P78" r:id="rId49" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{81430A42-A5A0-4882-A25A-372C860150BF}"/>
+    <hyperlink ref="P81" r:id="rId50" xr:uid="{2339B88B-F0F0-4177-83E6-EFDC3BBB9D1A}"/>
+    <hyperlink ref="P83" r:id="rId51" xr:uid="{628826C8-0AF2-4FEA-BB6D-73872C1EF926}"/>
+    <hyperlink ref="P82" r:id="rId52" xr:uid="{C3202304-754E-40B1-BA9C-E9EFB4D7320A}"/>
+    <hyperlink ref="P84:P85" r:id="rId53" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{4E35A034-2DAB-421D-8A32-4D688873D983}"/>
+    <hyperlink ref="P88" r:id="rId54" xr:uid="{D88DAC45-2CBF-4BDD-8F39-1FF5A38BDC52}"/>
+    <hyperlink ref="P90" r:id="rId55" xr:uid="{019FAD1B-EBA1-43B1-92B8-A6DFF4BF4EE8}"/>
+    <hyperlink ref="P89" r:id="rId56" xr:uid="{753CA3AB-75C4-4E2F-8E4B-E1DE2709BA03}"/>
+    <hyperlink ref="P91:P92" r:id="rId57" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{122F900B-769C-4A1D-BCF1-F9EE940C62E0}"/>
+    <hyperlink ref="P95" r:id="rId58" xr:uid="{FE036F4A-E87E-4363-8D8E-282D57BDE812}"/>
+    <hyperlink ref="P97" r:id="rId59" xr:uid="{78D81663-2D77-4179-89F0-5C9C68437445}"/>
+    <hyperlink ref="P96" r:id="rId60" xr:uid="{0F7A93BE-44C2-428B-9EC6-3A31ADC6A463}"/>
+    <hyperlink ref="P98:P99" r:id="rId61" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{967E0FD1-9DAC-4A86-88F9-3A9C5D5FEDFD}"/>
+    <hyperlink ref="P102" r:id="rId62" xr:uid="{50A63C3F-2C21-472A-AA76-ADB5C5AC95D8}"/>
+    <hyperlink ref="P104" r:id="rId63" xr:uid="{4DE45FDB-91EA-4D2D-904F-6638FB3CF8D2}"/>
+    <hyperlink ref="P103" r:id="rId64" xr:uid="{BD55FAAE-1B4B-410B-9C3A-F4FD5A52C29C}"/>
+    <hyperlink ref="P105:P106" r:id="rId65" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{35A29856-9AFB-43D5-A16D-4F1C9A3757D3}"/>
+    <hyperlink ref="P109" r:id="rId66" xr:uid="{B045EE6B-7F49-4249-B657-936A0A172911}"/>
+    <hyperlink ref="P111" r:id="rId67" xr:uid="{F359E220-0FCB-44F6-9337-C6EAD8B22F99}"/>
+    <hyperlink ref="P110" r:id="rId68" xr:uid="{5DF8BA32-8C8E-48FD-9DB3-134E1D1E48AC}"/>
+    <hyperlink ref="P112:P113" r:id="rId69" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{A5FAAD2B-FB5D-4F73-985E-3E4EA724BBBD}"/>
+    <hyperlink ref="P116" r:id="rId70" xr:uid="{415E6F71-0C9A-4473-A032-D77BC0C14373}"/>
+    <hyperlink ref="P118" r:id="rId71" xr:uid="{E0DE7905-0AE8-48D7-9D74-35676733E238}"/>
+    <hyperlink ref="P117" r:id="rId72" xr:uid="{9E12B3E9-BFDE-4704-BF51-471E60E359B7}"/>
+    <hyperlink ref="P119:P120" r:id="rId73" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{6854C9FE-589E-4921-B479-067657451849}"/>
+    <hyperlink ref="P123" r:id="rId74" xr:uid="{4C07F748-FC95-4BA5-BC9F-C06E7908B9F3}"/>
+    <hyperlink ref="P125" r:id="rId75" xr:uid="{0945A32C-BFC6-4EA3-BB02-50061FACC7BB}"/>
+    <hyperlink ref="P124" r:id="rId76" xr:uid="{8DB04228-D9AC-47F6-9806-6663861E9E93}"/>
+    <hyperlink ref="P126:P127" r:id="rId77" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{CEFB1D24-5333-41BA-9E11-5BB6C46C1EB7}"/>
+    <hyperlink ref="P130" r:id="rId78" xr:uid="{18B75794-85F1-4CDB-A742-85E88C32BD86}"/>
+    <hyperlink ref="P132" r:id="rId79" xr:uid="{E58A29B0-C256-4B40-A484-E85B3F4C2E93}"/>
+    <hyperlink ref="P131" r:id="rId80" xr:uid="{C9A9B72B-C0E0-4794-94D2-819C3D0CA26F}"/>
+    <hyperlink ref="P133:P134" r:id="rId81" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{6E8BE2A6-E525-491F-A6E3-F33F202320B0}"/>
+    <hyperlink ref="P137" r:id="rId82" xr:uid="{11660C49-B5B3-48AF-9D1F-8D4D39740DEC}"/>
+    <hyperlink ref="P139" r:id="rId83" xr:uid="{59F0C41F-03F4-44CE-9CB4-EA45A355D506}"/>
+    <hyperlink ref="P138" r:id="rId84" xr:uid="{28F25F69-1215-4DB0-9430-57D23C1D9BD5}"/>
+    <hyperlink ref="P140:P141" r:id="rId85" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{1862643C-73AE-4493-A517-754558570D19}"/>
+    <hyperlink ref="P144" r:id="rId86" xr:uid="{05B70ECF-BAF9-4F35-8A87-9DDF7FFE8A13}"/>
+    <hyperlink ref="P146" r:id="rId87" xr:uid="{9C2D96D9-C176-4298-B943-DBDD3D1356E9}"/>
+    <hyperlink ref="P145" r:id="rId88" xr:uid="{DB9FEB18-A54F-4BDB-9726-999BA6BDD89F}"/>
+    <hyperlink ref="P147:P148" r:id="rId89" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{B23F8ED2-1107-4E79-89EC-DC5175DDB698}"/>
+    <hyperlink ref="P151" r:id="rId90" xr:uid="{1F64A551-29DA-456B-9E88-FAE63087D3AD}"/>
+    <hyperlink ref="P153" r:id="rId91" xr:uid="{24726359-C8A4-4355-8C87-F2F30F7571E0}"/>
+    <hyperlink ref="P152" r:id="rId92" xr:uid="{438D0979-FE2C-459C-8D10-C12CF6C30F75}"/>
+    <hyperlink ref="P154:P155" r:id="rId93" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{EECAAEE5-9944-4894-BA5E-95E0E311210B}"/>
+    <hyperlink ref="P158" r:id="rId94" xr:uid="{4A5CDB7B-D559-43DF-95D2-70D1F380CD89}"/>
+    <hyperlink ref="P160" r:id="rId95" xr:uid="{5A1EDFD0-BA53-4B12-B4B4-5F59CF7C4114}"/>
+    <hyperlink ref="P159" r:id="rId96" xr:uid="{C33761BA-3B92-4C8C-ACB3-6EC5BE6C1799}"/>
+    <hyperlink ref="P161:P162" r:id="rId97" display="https://i.imgur.com/mRdMBZA.png" xr:uid="{16C8D158-95D8-40D0-9DDC-56955E815BEF}"/>
+    <hyperlink ref="K13" r:id="rId98" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{6ED7A967-76DE-4E35-BE32-11B743D0ED3C}"/>
+    <hyperlink ref="N6:N8" r:id="rId99" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{DE039646-EED2-40D2-9D31-E0A359242B2C}"/>
+    <hyperlink ref="N11" r:id="rId100" xr:uid="{AE4BFEDB-D053-4E46-83FD-92E65F6711AB}"/>
+    <hyperlink ref="N13:N15" r:id="rId101" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{DFEDD54B-71D4-4700-A9ED-09B6464EF1DB}"/>
+    <hyperlink ref="N18" r:id="rId102" xr:uid="{EA5ABE86-F490-4964-9BB3-672D9BD74C59}"/>
+    <hyperlink ref="N20:N22" r:id="rId103" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{6D00CC15-6CBB-4D7E-9AA0-9544DB91503E}"/>
+    <hyperlink ref="N25" r:id="rId104" xr:uid="{99E300E3-A6A1-435E-B3D6-B5621C9B7FB3}"/>
+    <hyperlink ref="N27:N29" r:id="rId105" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{32402C2C-0038-4307-AB1E-52B4C7CA6031}"/>
+    <hyperlink ref="N32" r:id="rId106" xr:uid="{6EC50EA5-3F08-4463-B33B-5CEF90FDBC2E}"/>
+    <hyperlink ref="N34:N36" r:id="rId107" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{750A46DC-2984-49D9-BA6A-7ACDA44A6424}"/>
+    <hyperlink ref="N39" r:id="rId108" xr:uid="{178F5373-6D2F-4935-BB67-6FE9B2D84633}"/>
+    <hyperlink ref="N41:N43" r:id="rId109" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{BB525F58-3DE8-40CB-963F-C09C5686296E}"/>
+    <hyperlink ref="N46" r:id="rId110" xr:uid="{CFF1AB47-0772-47AB-8FE8-25D794EAA24E}"/>
+    <hyperlink ref="N48:N50" r:id="rId111" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{49D33845-87CE-4F56-A752-D4E6B0A0168A}"/>
+    <hyperlink ref="N53" r:id="rId112" xr:uid="{F838C95A-7BA1-4D41-BBDC-E0FF9E8391E2}"/>
+    <hyperlink ref="N55:N57" r:id="rId113" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{32A9A27D-10DD-431E-AE8B-FDD429CFD57B}"/>
+    <hyperlink ref="N60" r:id="rId114" xr:uid="{CB1F0D2E-88F9-435B-B368-73FC1B6661B8}"/>
+    <hyperlink ref="N62:N64" r:id="rId115" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{BDAD2338-495E-46F1-8A0A-7BADED0C42A5}"/>
+    <hyperlink ref="N67" r:id="rId116" xr:uid="{100642ED-1DB0-43BE-85BF-563AC0CB9AE1}"/>
+    <hyperlink ref="N69:N71" r:id="rId117" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{8AEA7E4F-CD42-4A9B-B64D-D7EEE80A357E}"/>
+    <hyperlink ref="N74" r:id="rId118" xr:uid="{D0546147-AC58-441C-B0D7-209B6150A59E}"/>
+    <hyperlink ref="N76:N78" r:id="rId119" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{E66B09EE-14F3-45C7-9D99-7E65AA3F6901}"/>
+    <hyperlink ref="N81" r:id="rId120" xr:uid="{35255CEA-587F-4D79-9F05-278203CBB7ED}"/>
+    <hyperlink ref="N83:N85" r:id="rId121" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{3D1ED185-BA11-4BCD-AA68-656DBAD912F7}"/>
+    <hyperlink ref="N88" r:id="rId122" xr:uid="{F3E6FDEC-914A-49E4-8DBE-E531A17DA3D2}"/>
+    <hyperlink ref="N90:N92" r:id="rId123" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{8C576181-BCEC-4ACA-B0C5-5EA793873F7A}"/>
+    <hyperlink ref="N95" r:id="rId124" xr:uid="{819959DE-4956-4B79-A0E5-3B860581926E}"/>
+    <hyperlink ref="N97:N99" r:id="rId125" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{FBF67417-6117-499C-94EE-D37720F3A40D}"/>
+    <hyperlink ref="N102" r:id="rId126" xr:uid="{A60EEEEA-13C0-4110-94FD-56496D5FF85F}"/>
+    <hyperlink ref="N104:N106" r:id="rId127" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{239BC94F-37BE-42D0-9F62-B40197CFF2F5}"/>
+    <hyperlink ref="N109" r:id="rId128" xr:uid="{9E48492B-9140-4A0E-9798-E2C7CD312DA3}"/>
+    <hyperlink ref="N111:N113" r:id="rId129" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{7942F502-B5E6-40E9-983F-DD911990BFD6}"/>
+    <hyperlink ref="N116" r:id="rId130" xr:uid="{4A1EBDD8-3DBB-4BCD-AFD6-54DB05967F31}"/>
+    <hyperlink ref="N118:N120" r:id="rId131" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{E9365770-CFCD-4873-A4BF-F213018503C2}"/>
+    <hyperlink ref="N123" r:id="rId132" xr:uid="{48E51AF3-3D3E-4AD6-8C6A-F6CFB17F0AF6}"/>
+    <hyperlink ref="N125:N127" r:id="rId133" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{6C9AC666-5959-410D-AF49-1F156A6DC32C}"/>
+    <hyperlink ref="N130" r:id="rId134" xr:uid="{E06A73B9-0351-4534-A3CC-0795BDF4DB1F}"/>
+    <hyperlink ref="N132:N134" r:id="rId135" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{3B23D400-D7CA-4199-9FFA-EFF3E35FE919}"/>
+    <hyperlink ref="N137" r:id="rId136" xr:uid="{27004E24-0240-4683-919A-B7B250625521}"/>
+    <hyperlink ref="N139:N141" r:id="rId137" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{335A8A9B-7133-4073-ABB5-059170D8F839}"/>
+    <hyperlink ref="N144" r:id="rId138" xr:uid="{4780A178-4A54-425A-B564-ACB3E03DBE95}"/>
+    <hyperlink ref="N146:N148" r:id="rId139" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{CB932CE4-86A9-463C-85D5-EE4CDF183140}"/>
+    <hyperlink ref="N151" r:id="rId140" xr:uid="{174ABEFD-D68D-4306-86D5-D1EEEDC00E7F}"/>
+    <hyperlink ref="N153:N155" r:id="rId141" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{7B176891-58C7-4FF8-9F02-C1859EC82E5E}"/>
+    <hyperlink ref="N158" r:id="rId142" xr:uid="{D19304D6-2CCD-4E3F-B93B-C9E61F0C7DCE}"/>
+    <hyperlink ref="N160:N162" r:id="rId143" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/SRcurrency.svg" xr:uid="{3EFA50BE-5636-4365-88C2-E21862E81F34}"/>
+    <hyperlink ref="J5" r:id="rId144" xr:uid="{D6AFB943-286D-4C36-A371-0E8FE46F1B90}"/>
+    <hyperlink ref="J28" r:id="rId145" xr:uid="{D0AC58E8-C6B6-4EB4-B1FF-7ED181C34CB5}"/>
+    <hyperlink ref="J29" r:id="rId146" xr:uid="{E219D02E-CA3B-4836-B08F-958116C05BA4}"/>
+    <hyperlink ref="J32" r:id="rId147" xr:uid="{20B1C77E-255F-4AB3-8CB8-93210AC8E773}"/>
+    <hyperlink ref="J42" r:id="rId148" xr:uid="{BA739C41-4575-4A33-9C96-AD32524896E7}"/>
+    <hyperlink ref="J43" r:id="rId149" xr:uid="{50713490-1903-4314-8EFA-3036EEED0BEE}"/>
+    <hyperlink ref="J33" r:id="rId150" xr:uid="{8D220609-2D34-48AD-A30F-42CE121090A0}"/>
+    <hyperlink ref="K27" r:id="rId151" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{18389BD0-8081-44CA-A3BF-F000921D5811}"/>
+    <hyperlink ref="K55" r:id="rId152" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{73FC660F-D491-402B-B9B8-1FE4720EFD83}"/>
+    <hyperlink ref="K83" r:id="rId153" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{68210DFE-C911-46B7-BDD3-3FC36E721789}"/>
+    <hyperlink ref="K104" r:id="rId154" display="https://i.imgur.com/58TUihy.jpeg" xr:uid="{2637A841-B5F1-4634-BFD0-9E2EB861B255}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId369"/>
+    <tablePart r:id="rId155"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13994,7 +14351,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -14002,9 +14359,10 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -14017,7 +14375,9 @@
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -14033,7 +14393,9 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="38" t="b">
+        <v>0</v>
+      </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -14049,7 +14411,9 @@
       <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -14081,7 +14445,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AEE0F-DD5A-4FB5-8E67-4134D46A637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF69A01-D25F-48D3-ADA4-6ADED0C4317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
     <sheet name="2. Hotspots Sheet" sheetId="6" r:id="rId2"/>
     <sheet name="3. Floors Sheet" sheetId="7" r:id="rId3"/>
     <sheet name="4. Styles Sheet (Custom CSS)" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="419">
   <si>
     <t>Description</t>
   </si>
@@ -1064,13 +1065,1153 @@
   </si>
   <si>
     <t>https://i.imgur.com/u4NOPOQ.png</t>
+  </si>
+  <si>
+    <t>olumn</t>
+  </si>
+  <si>
+    <t>Data Header</t>
+  </si>
+  <si>
+    <t>Purpose &amp; Functionality</t>
+  </si>
+  <si>
+    <t>Dependencies &amp; Relations</t>
+  </si>
+  <si>
+    <t>Behavior &amp; Conditions</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (FloorID)</t>
+    </r>
+  </si>
+  <si>
+    <t>Floor Identifier</t>
+  </si>
+  <si>
+    <r>
+      <t>Specifies the physical floor (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>FF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = First Floor, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>GG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = Ground Floor). Used for spatial organization.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tied to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>SceneID (B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>. Helps group scenes by real-world location.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>FF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, loads first-floor scenes; if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>GG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, loads ground-floor scenes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (SceneID)</t>
+    </r>
+  </si>
+  <si>
+    <t>Scene Identifier</t>
+  </si>
+  <si>
+    <r>
+      <t>Unique ID for each scene (matches </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>Column C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> in the first sheet). Determines which 360° scene loads.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Linked to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>HotspotID (C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>TargetSceneID (E)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Used for scene transitions when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>Type (D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (HotspotID)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hotspot Identifier</t>
+  </si>
+  <si>
+    <r>
+      <t>Follows format: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>hs[Scene#] [Hotspot#]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>hs1 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = 2nd hotspot in Scene 1).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Depends on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>SceneID (B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>. Must be unique per scene.</t>
+    </r>
+  </si>
+  <si>
+    <t>Used to reference hotspots in scripts and triggers.</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Type)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hotspot Type</t>
+  </si>
+  <si>
+    <t>Defines behavior: - nav = Navigation hotspot (changes scene) - info = Hover card hotspot (displays info).</t>
+  </si>
+  <si>
+    <r>
+      <t>Controls </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>TargetSceneID (E)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>J-Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> columns.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> must be valid; if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>J-Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> are active (if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (TargetSceneID)</t>
+    </r>
+  </si>
+  <si>
+    <t>Navigation Target</t>
+  </si>
+  <si>
+    <r>
+      <t>For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> hotspots: - Previous/Next = Sequential navigation </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Requires </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>D = "nav"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Invalid if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>D = "info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (must be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (StyleID/CustomCSS)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hotspot Styling</t>
+  </si>
+  <si>
+    <t>Custom CSS or style ID to override default hotspot appearance.</t>
+  </si>
+  <si>
+    <t>Independent. Optional.</t>
+  </si>
+  <si>
+    <t>Applied only if provided; else, uses default styling.</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Pitch)</t>
+    </r>
+  </si>
+  <si>
+    <t>3D Positioning</t>
+  </si>
+  <si>
+    <t>Spherical coordinates for hotspot placement: - Pitch = Up/down</t>
+  </si>
+  <si>
+    <t>Work together for spatial placement.</t>
+  </si>
+  <si>
+    <t>Must be valid numbers; invalid values may hide the hotspot.</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Yaw)</t>
+    </r>
+  </si>
+  <si>
+    <t>Spherical coordinates for hotspot placement: - Yaw = Left/right</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Rotation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>Rotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = XYZ orientation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Custom Hotspot URL)</t>
+    </r>
+  </si>
+  <si>
+    <t>Icon Image</t>
+  </si>
+  <si>
+    <r>
+      <t>For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> hotspots, this is the clickable icon (e.g., a circular "i" button).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Requires </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>D = "info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>R = TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>If missing, uses a default icon.</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (HoverImage URL)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hover Card Image</t>
+  </si>
+  <si>
+    <t>Main image displayed in the hover popup.</t>
+  </si>
+  <si>
+    <t>If blank, no image is shown.</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Title)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hover Card Text</t>
+  </si>
+  <si>
+    <r>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>Title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = Header text</t>
+    </r>
+  </si>
+  <si>
+    <t>Supports HTML/text formatting.</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Description)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = Body text.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (SR Currency Symbol)</t>
+    </r>
+  </si>
+  <si>
+    <t>Price Display</t>
+  </si>
+  <si>
+    <r>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = Currency symbol (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>₹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Displays as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>[N][O]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>$50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Price)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = Numeric value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Avatar Image URL)</t>
+    </r>
+  </si>
+  <si>
+    <t>Speaker Avatar</t>
+  </si>
+  <si>
+    <t>Image of the voice actor/narrator.</t>
+  </si>
+  <si>
+    <t>If missing, hides the avatar container.</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Voice Over)</t>
+    </r>
+  </si>
+  <si>
+    <t>Audio Content</t>
+  </si>
+  <si>
+    <t>URL of audio file or TTS (Text-to-Speech) script.</t>
+  </si>
+  <si>
+    <t>Overrides scene audio when played.</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> (Hotspot Hover Active)</t>
+    </r>
+  </si>
+  <si>
+    <t>Master Toggle</t>
+  </si>
+  <si>
+    <r>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t> = Hotspot is interactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t xml:space="preserve">  FALSE = Disables all hotspot functions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Overrides </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>J-Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, hotspot is visible but non-functional.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1173,6 +2314,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Roboto Mono"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1188,7 +2340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1240,12 +2392,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1351,240 +2518,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1756,6 +2714,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2575,81 +3551,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:T24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="81"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="79"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="76" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="75" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="74" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="73"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="72" dataCellStyle="Hyperlink"/>
-    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="71" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="70" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="69" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="66"/>
-    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="64"/>
-    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="63"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="54" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="53" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="51" dataCellStyle="Hyperlink"/>
+    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="50" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="49" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="48" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:R162" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:R162" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:R162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="18">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="59"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="37" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="16" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2863,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4383,10 +5359,10 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
@@ -4419,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4520,11 +5496,11 @@
       <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="14">
-        <v>-33</v>
-      </c>
-      <c r="H2" s="14">
-        <v>-90</v>
+      <c r="G2" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H2" s="25">
+        <v>71.7</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>51</v>
@@ -4576,11 +5552,11 @@
       <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14">
-        <v>-26</v>
-      </c>
-      <c r="H3" s="14">
-        <v>-143</v>
+      <c r="G3" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H3" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>51</v>
@@ -4632,11 +5608,11 @@
       <c r="F4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>-4</v>
+      <c r="G4" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>50</v>
@@ -4688,11 +5664,11 @@
       <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="14">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14">
-        <v>-50</v>
+      <c r="G5" s="26">
+        <v>5</v>
+      </c>
+      <c r="H5" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>50</v>
@@ -4744,11 +5720,11 @@
       <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="H6" s="14">
-        <v>-132</v>
+      <c r="G6" s="25">
+        <v>24</v>
+      </c>
+      <c r="H6" s="25">
+        <v>-161</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>50</v>
@@ -4800,11 +5776,11 @@
       <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H7" s="13">
-        <v>-174</v>
+      <c r="G7" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H7" s="26">
+        <v>117</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>50</v>
@@ -4856,11 +5832,11 @@
       <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H8" s="13">
-        <v>117.5</v>
+      <c r="G8" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H8" s="31">
+        <v>47.6</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>50</v>
@@ -4912,11 +5888,11 @@
       <c r="F9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="14">
-        <v>-33</v>
-      </c>
-      <c r="H9" s="14">
-        <v>-90</v>
+      <c r="G9" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H9" s="25">
+        <v>71.7</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>51</v>
@@ -4968,11 +5944,11 @@
       <c r="F10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="14">
-        <v>-26</v>
-      </c>
-      <c r="H10" s="14">
-        <v>-143</v>
+      <c r="G10" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H10" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>51</v>
@@ -5024,11 +6000,11 @@
       <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>-4</v>
+      <c r="G11" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>50</v>
@@ -5080,11 +6056,11 @@
       <c r="F12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="14">
-        <v>10</v>
-      </c>
-      <c r="H12" s="14">
-        <v>-50</v>
+      <c r="G12" s="26">
+        <v>5</v>
+      </c>
+      <c r="H12" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>50</v>
@@ -5136,11 +6112,11 @@
       <c r="F13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14">
-        <v>-9</v>
-      </c>
-      <c r="H13" s="14">
-        <v>-132</v>
+      <c r="G13" s="25">
+        <v>24</v>
+      </c>
+      <c r="H13" s="25">
+        <v>-161</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>50</v>
@@ -5192,11 +6168,11 @@
       <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H14" s="13">
-        <v>-174</v>
+      <c r="G14" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H14" s="26">
+        <v>117</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>50</v>
@@ -5248,11 +6224,11 @@
       <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H15" s="13">
-        <v>117.5</v>
+      <c r="G15" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H15" s="31">
+        <v>47.6</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>50</v>
@@ -5305,10 +6281,10 @@
         <v>35</v>
       </c>
       <c r="G16" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H16" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>51</v>
@@ -5361,10 +6337,10 @@
         <v>35</v>
       </c>
       <c r="G17" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H17" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>51</v>
@@ -5417,10 +6393,10 @@
         <v>33</v>
       </c>
       <c r="G18" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>50</v>
@@ -5473,10 +6449,10 @@
         <v>33</v>
       </c>
       <c r="G19" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H19" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>50</v>
@@ -5529,10 +6505,10 @@
         <v>33</v>
       </c>
       <c r="G20" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H20" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>50</v>
@@ -5585,10 +6561,10 @@
         <v>33</v>
       </c>
       <c r="G21" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H21" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>50</v>
@@ -5640,11 +6616,11 @@
       <c r="F22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H22" s="25">
-        <v>117.5</v>
+      <c r="G22" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H22" s="31">
+        <v>47.6</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>50</v>
@@ -5697,10 +6673,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H23" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>51</v>
@@ -5753,10 +6729,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H24" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>51</v>
@@ -5809,10 +6785,10 @@
         <v>33</v>
       </c>
       <c r="G25" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H25" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>50</v>
@@ -5865,10 +6841,10 @@
         <v>33</v>
       </c>
       <c r="G26" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H26" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>50</v>
@@ -5921,10 +6897,10 @@
         <v>33</v>
       </c>
       <c r="G27" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H27" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>50</v>
@@ -5976,11 +6952,11 @@
       <c r="F28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="32">
-        <v>-26</v>
-      </c>
-      <c r="H28" s="32">
-        <v>-174</v>
+      <c r="G28" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H28" s="26">
+        <v>117</v>
       </c>
       <c r="I28" s="32" t="s">
         <v>50</v>
@@ -6032,11 +7008,11 @@
       <c r="F29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H29" s="25">
-        <v>117.5</v>
+      <c r="G29" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H29" s="31">
+        <v>47.6</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>50</v>
@@ -6088,11 +7064,11 @@
       <c r="F30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H30" s="13">
-        <v>-90</v>
+      <c r="G30" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H30" s="25">
+        <v>71.7</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>51</v>
@@ -6144,11 +7120,11 @@
       <c r="F31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H31" s="13">
-        <v>-143</v>
+      <c r="G31" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H31" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I31" s="26" t="s">
         <v>51</v>
@@ -6200,11 +7176,11 @@
       <c r="F32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13">
-        <v>-4</v>
+      <c r="G32" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>50</v>
@@ -6256,11 +7232,11 @@
       <c r="F33" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="13">
-        <v>10</v>
-      </c>
-      <c r="H33" s="13">
-        <v>-50</v>
+      <c r="G33" s="26">
+        <v>5</v>
+      </c>
+      <c r="H33" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I33" s="26" t="s">
         <v>50</v>
@@ -6312,11 +7288,11 @@
       <c r="F34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H34" s="13">
-        <v>-132</v>
+      <c r="G34" s="25">
+        <v>24</v>
+      </c>
+      <c r="H34" s="25">
+        <v>-161</v>
       </c>
       <c r="I34" s="25" t="s">
         <v>50</v>
@@ -6368,11 +7344,11 @@
       <c r="F35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H35" s="13">
-        <v>-174</v>
+      <c r="G35" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H35" s="26">
+        <v>117</v>
       </c>
       <c r="I35" s="26" t="s">
         <v>50</v>
@@ -6424,11 +7400,11 @@
       <c r="F36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H36" s="13">
-        <v>117.5</v>
+      <c r="G36" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H36" s="31">
+        <v>47.6</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>50</v>
@@ -6480,11 +7456,11 @@
       <c r="F37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H37" s="13">
-        <v>-90</v>
+      <c r="G37" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H37" s="25">
+        <v>71.7</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>51</v>
@@ -6536,11 +7512,11 @@
       <c r="F38" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H38" s="13">
-        <v>-143</v>
+      <c r="G38" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H38" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I38" s="26" t="s">
         <v>51</v>
@@ -6592,11 +7568,11 @@
       <c r="F39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <v>-4</v>
+      <c r="G39" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H39" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>50</v>
@@ -6648,11 +7624,11 @@
       <c r="F40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="13">
-        <v>10</v>
-      </c>
-      <c r="H40" s="13">
-        <v>-50</v>
+      <c r="G40" s="26">
+        <v>5</v>
+      </c>
+      <c r="H40" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I40" s="26" t="s">
         <v>50</v>
@@ -6704,11 +7680,11 @@
       <c r="F41" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H41" s="13">
-        <v>-132</v>
+      <c r="G41" s="25">
+        <v>24</v>
+      </c>
+      <c r="H41" s="25">
+        <v>-161</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>50</v>
@@ -6760,11 +7736,11 @@
       <c r="F42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H42" s="13">
-        <v>-174</v>
+      <c r="G42" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H42" s="26">
+        <v>117</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>50</v>
@@ -6816,11 +7792,11 @@
       <c r="F43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H43" s="13">
-        <v>117.5</v>
+      <c r="G43" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H43" s="31">
+        <v>47.6</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>50</v>
@@ -6873,10 +7849,10 @@
         <v>35</v>
       </c>
       <c r="G44" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H44" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>51</v>
@@ -6929,10 +7905,10 @@
         <v>35</v>
       </c>
       <c r="G45" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H45" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>51</v>
@@ -6985,10 +7961,10 @@
         <v>33</v>
       </c>
       <c r="G46" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H46" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I46" s="25" t="s">
         <v>50</v>
@@ -7041,10 +8017,10 @@
         <v>33</v>
       </c>
       <c r="G47" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H47" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I47" s="26" t="s">
         <v>50</v>
@@ -7097,10 +8073,10 @@
         <v>33</v>
       </c>
       <c r="G48" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H48" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I48" s="25" t="s">
         <v>50</v>
@@ -7153,10 +8129,10 @@
         <v>33</v>
       </c>
       <c r="G49" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H49" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I49" s="26" t="s">
         <v>50</v>
@@ -7208,11 +8184,11 @@
       <c r="F50" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H50" s="25">
-        <v>117.5</v>
+      <c r="G50" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H50" s="31">
+        <v>47.6</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>50</v>
@@ -7265,10 +8241,10 @@
         <v>35</v>
       </c>
       <c r="G51" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H51" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>51</v>
@@ -7321,10 +8297,10 @@
         <v>35</v>
       </c>
       <c r="G52" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H52" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I52" s="26" t="s">
         <v>51</v>
@@ -7377,10 +8353,10 @@
         <v>33</v>
       </c>
       <c r="G53" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H53" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I53" s="25" t="s">
         <v>50</v>
@@ -7433,10 +8409,10 @@
         <v>33</v>
       </c>
       <c r="G54" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H54" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>50</v>
@@ -7489,10 +8465,10 @@
         <v>33</v>
       </c>
       <c r="G55" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H55" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I55" s="25" t="s">
         <v>50</v>
@@ -7545,10 +8521,10 @@
         <v>33</v>
       </c>
       <c r="G56" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H56" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I56" s="26" t="s">
         <v>50</v>
@@ -7600,11 +8576,11 @@
       <c r="F57" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H57" s="25">
-        <v>117.5</v>
+      <c r="G57" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H57" s="31">
+        <v>47.6</v>
       </c>
       <c r="I57" s="25" t="s">
         <v>50</v>
@@ -7656,11 +8632,11 @@
       <c r="F58" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H58" s="13">
-        <v>-90</v>
+      <c r="G58" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H58" s="25">
+        <v>71.7</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>51</v>
@@ -7712,11 +8688,11 @@
       <c r="F59" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H59" s="13">
-        <v>-143</v>
+      <c r="G59" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H59" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I59" s="26" t="s">
         <v>51</v>
@@ -7768,11 +8744,11 @@
       <c r="F60" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="13">
-        <v>0</v>
-      </c>
-      <c r="H60" s="13">
-        <v>-4</v>
+      <c r="G60" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H60" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I60" s="25" t="s">
         <v>50</v>
@@ -7824,11 +8800,11 @@
       <c r="F61" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="13">
-        <v>10</v>
-      </c>
-      <c r="H61" s="13">
-        <v>-50</v>
+      <c r="G61" s="26">
+        <v>5</v>
+      </c>
+      <c r="H61" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I61" s="26" t="s">
         <v>50</v>
@@ -7880,11 +8856,11 @@
       <c r="F62" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H62" s="13">
-        <v>-132</v>
+      <c r="G62" s="25">
+        <v>24</v>
+      </c>
+      <c r="H62" s="25">
+        <v>-161</v>
       </c>
       <c r="I62" s="25" t="s">
         <v>50</v>
@@ -7936,11 +8912,11 @@
       <c r="F63" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G63" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H63" s="13">
-        <v>-174</v>
+      <c r="G63" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H63" s="26">
+        <v>117</v>
       </c>
       <c r="I63" s="26" t="s">
         <v>50</v>
@@ -7992,11 +8968,11 @@
       <c r="F64" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H64" s="13">
-        <v>117.5</v>
+      <c r="G64" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H64" s="31">
+        <v>47.6</v>
       </c>
       <c r="I64" s="25" t="s">
         <v>50</v>
@@ -8048,11 +9024,11 @@
       <c r="F65" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H65" s="13">
-        <v>-90</v>
+      <c r="G65" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H65" s="25">
+        <v>71.7</v>
       </c>
       <c r="I65" s="25" t="s">
         <v>51</v>
@@ -8104,11 +9080,11 @@
       <c r="F66" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H66" s="13">
-        <v>-143</v>
+      <c r="G66" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H66" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I66" s="26" t="s">
         <v>51</v>
@@ -8160,11 +9136,11 @@
       <c r="F67" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="13">
-        <v>0</v>
-      </c>
-      <c r="H67" s="13">
-        <v>-4</v>
+      <c r="G67" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H67" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I67" s="25" t="s">
         <v>50</v>
@@ -8216,11 +9192,11 @@
       <c r="F68" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G68" s="13">
-        <v>10</v>
-      </c>
-      <c r="H68" s="13">
-        <v>-50</v>
+      <c r="G68" s="26">
+        <v>5</v>
+      </c>
+      <c r="H68" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I68" s="26" t="s">
         <v>50</v>
@@ -8272,11 +9248,11 @@
       <c r="F69" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H69" s="13">
-        <v>-132</v>
+      <c r="G69" s="25">
+        <v>24</v>
+      </c>
+      <c r="H69" s="25">
+        <v>-161</v>
       </c>
       <c r="I69" s="25" t="s">
         <v>50</v>
@@ -8328,11 +9304,11 @@
       <c r="F70" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G70" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H70" s="13">
-        <v>-174</v>
+      <c r="G70" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H70" s="26">
+        <v>117</v>
       </c>
       <c r="I70" s="26" t="s">
         <v>50</v>
@@ -8384,11 +9360,11 @@
       <c r="F71" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G71" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H71" s="13">
-        <v>117.5</v>
+      <c r="G71" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H71" s="31">
+        <v>47.6</v>
       </c>
       <c r="I71" s="25" t="s">
         <v>50</v>
@@ -8441,10 +9417,10 @@
         <v>35</v>
       </c>
       <c r="G72" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H72" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I72" s="25" t="s">
         <v>51</v>
@@ -8497,10 +9473,10 @@
         <v>35</v>
       </c>
       <c r="G73" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H73" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I73" s="26" t="s">
         <v>51</v>
@@ -8553,10 +9529,10 @@
         <v>33</v>
       </c>
       <c r="G74" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H74" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I74" s="25" t="s">
         <v>50</v>
@@ -8609,10 +9585,10 @@
         <v>33</v>
       </c>
       <c r="G75" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H75" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I75" s="26" t="s">
         <v>50</v>
@@ -8665,10 +9641,10 @@
         <v>33</v>
       </c>
       <c r="G76" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H76" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I76" s="25" t="s">
         <v>50</v>
@@ -8721,10 +9697,10 @@
         <v>33</v>
       </c>
       <c r="G77" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H77" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I77" s="26" t="s">
         <v>50</v>
@@ -8776,11 +9752,11 @@
       <c r="F78" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G78" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H78" s="25">
-        <v>117.5</v>
+      <c r="G78" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H78" s="31">
+        <v>47.6</v>
       </c>
       <c r="I78" s="25" t="s">
         <v>50</v>
@@ -8833,10 +9809,10 @@
         <v>35</v>
       </c>
       <c r="G79" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H79" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I79" s="25" t="s">
         <v>51</v>
@@ -8889,10 +9865,10 @@
         <v>35</v>
       </c>
       <c r="G80" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H80" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I80" s="26" t="s">
         <v>51</v>
@@ -8945,10 +9921,10 @@
         <v>33</v>
       </c>
       <c r="G81" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H81" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I81" s="25" t="s">
         <v>50</v>
@@ -9001,10 +9977,10 @@
         <v>33</v>
       </c>
       <c r="G82" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H82" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I82" s="26" t="s">
         <v>50</v>
@@ -9057,10 +10033,10 @@
         <v>33</v>
       </c>
       <c r="G83" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H83" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I83" s="25" t="s">
         <v>50</v>
@@ -9113,10 +10089,10 @@
         <v>33</v>
       </c>
       <c r="G84" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H84" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I84" s="26" t="s">
         <v>50</v>
@@ -9168,11 +10144,11 @@
       <c r="F85" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G85" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H85" s="25">
-        <v>117.5</v>
+      <c r="G85" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H85" s="31">
+        <v>47.6</v>
       </c>
       <c r="I85" s="25" t="s">
         <v>50</v>
@@ -9224,11 +10200,11 @@
       <c r="F86" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H86" s="13">
-        <v>-90</v>
+      <c r="G86" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H86" s="25">
+        <v>71.7</v>
       </c>
       <c r="I86" s="25" t="s">
         <v>51</v>
@@ -9280,11 +10256,11 @@
       <c r="F87" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G87" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H87" s="13">
-        <v>-143</v>
+      <c r="G87" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H87" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I87" s="26" t="s">
         <v>51</v>
@@ -9336,11 +10312,11 @@
       <c r="F88" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="13">
-        <v>0</v>
-      </c>
-      <c r="H88" s="13">
-        <v>-4</v>
+      <c r="G88" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H88" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I88" s="25" t="s">
         <v>50</v>
@@ -9392,11 +10368,11 @@
       <c r="F89" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G89" s="13">
-        <v>10</v>
-      </c>
-      <c r="H89" s="13">
-        <v>-50</v>
+      <c r="G89" s="26">
+        <v>5</v>
+      </c>
+      <c r="H89" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I89" s="26" t="s">
         <v>50</v>
@@ -9448,11 +10424,11 @@
       <c r="F90" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G90" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H90" s="13">
-        <v>-132</v>
+      <c r="G90" s="25">
+        <v>24</v>
+      </c>
+      <c r="H90" s="25">
+        <v>-161</v>
       </c>
       <c r="I90" s="25" t="s">
         <v>50</v>
@@ -9504,11 +10480,11 @@
       <c r="F91" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G91" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H91" s="13">
-        <v>-174</v>
+      <c r="G91" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H91" s="26">
+        <v>117</v>
       </c>
       <c r="I91" s="26" t="s">
         <v>50</v>
@@ -9560,11 +10536,11 @@
       <c r="F92" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G92" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H92" s="13">
-        <v>117.5</v>
+      <c r="G92" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H92" s="31">
+        <v>47.6</v>
       </c>
       <c r="I92" s="25" t="s">
         <v>50</v>
@@ -9616,11 +10592,11 @@
       <c r="F93" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G93" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H93" s="13">
-        <v>-90</v>
+      <c r="G93" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H93" s="25">
+        <v>71.7</v>
       </c>
       <c r="I93" s="25" t="s">
         <v>51</v>
@@ -9672,11 +10648,11 @@
       <c r="F94" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G94" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H94" s="13">
-        <v>-143</v>
+      <c r="G94" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H94" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I94" s="26" t="s">
         <v>51</v>
@@ -9728,11 +10704,11 @@
       <c r="F95" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G95" s="13">
-        <v>0</v>
-      </c>
-      <c r="H95" s="13">
-        <v>-4</v>
+      <c r="G95" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H95" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I95" s="25" t="s">
         <v>50</v>
@@ -9784,11 +10760,11 @@
       <c r="F96" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G96" s="13">
-        <v>10</v>
-      </c>
-      <c r="H96" s="13">
-        <v>-50</v>
+      <c r="G96" s="26">
+        <v>5</v>
+      </c>
+      <c r="H96" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I96" s="26" t="s">
         <v>50</v>
@@ -9840,11 +10816,11 @@
       <c r="F97" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G97" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H97" s="13">
-        <v>-132</v>
+      <c r="G97" s="25">
+        <v>24</v>
+      </c>
+      <c r="H97" s="25">
+        <v>-161</v>
       </c>
       <c r="I97" s="25" t="s">
         <v>50</v>
@@ -9896,11 +10872,11 @@
       <c r="F98" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G98" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H98" s="13">
-        <v>-174</v>
+      <c r="G98" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H98" s="26">
+        <v>117</v>
       </c>
       <c r="I98" s="26" t="s">
         <v>50</v>
@@ -9952,11 +10928,11 @@
       <c r="F99" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G99" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H99" s="13">
-        <v>117.5</v>
+      <c r="G99" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H99" s="31">
+        <v>47.6</v>
       </c>
       <c r="I99" s="25" t="s">
         <v>50</v>
@@ -10009,10 +10985,10 @@
         <v>35</v>
       </c>
       <c r="G100" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H100" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I100" s="25" t="s">
         <v>51</v>
@@ -10065,10 +11041,10 @@
         <v>35</v>
       </c>
       <c r="G101" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H101" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I101" s="26" t="s">
         <v>51</v>
@@ -10121,10 +11097,10 @@
         <v>33</v>
       </c>
       <c r="G102" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H102" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I102" s="25" t="s">
         <v>50</v>
@@ -10177,10 +11153,10 @@
         <v>33</v>
       </c>
       <c r="G103" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H103" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I103" s="26" t="s">
         <v>50</v>
@@ -10233,10 +11209,10 @@
         <v>33</v>
       </c>
       <c r="G104" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H104" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I104" s="25" t="s">
         <v>50</v>
@@ -10289,10 +11265,10 @@
         <v>33</v>
       </c>
       <c r="G105" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H105" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I105" s="26" t="s">
         <v>50</v>
@@ -10344,11 +11320,11 @@
       <c r="F106" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G106" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H106" s="25">
-        <v>117.5</v>
+      <c r="G106" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H106" s="31">
+        <v>47.6</v>
       </c>
       <c r="I106" s="25" t="s">
         <v>50</v>
@@ -10401,10 +11377,10 @@
         <v>35</v>
       </c>
       <c r="G107" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H107" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I107" s="25" t="s">
         <v>51</v>
@@ -10457,10 +11433,10 @@
         <v>35</v>
       </c>
       <c r="G108" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H108" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I108" s="26" t="s">
         <v>51</v>
@@ -10513,10 +11489,10 @@
         <v>33</v>
       </c>
       <c r="G109" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H109" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I109" s="25" t="s">
         <v>50</v>
@@ -10569,10 +11545,10 @@
         <v>33</v>
       </c>
       <c r="G110" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H110" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I110" s="26" t="s">
         <v>50</v>
@@ -10625,10 +11601,10 @@
         <v>33</v>
       </c>
       <c r="G111" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H111" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I111" s="25" t="s">
         <v>50</v>
@@ -10681,10 +11657,10 @@
         <v>33</v>
       </c>
       <c r="G112" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H112" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I112" s="26" t="s">
         <v>50</v>
@@ -10736,11 +11712,11 @@
       <c r="F113" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G113" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H113" s="25">
-        <v>117.5</v>
+      <c r="G113" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H113" s="31">
+        <v>47.6</v>
       </c>
       <c r="I113" s="25" t="s">
         <v>50</v>
@@ -10792,11 +11768,11 @@
       <c r="F114" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G114" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H114" s="13">
-        <v>-90</v>
+      <c r="G114" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H114" s="25">
+        <v>71.7</v>
       </c>
       <c r="I114" s="25" t="s">
         <v>51</v>
@@ -10848,11 +11824,11 @@
       <c r="F115" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G115" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H115" s="13">
-        <v>-143</v>
+      <c r="G115" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H115" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I115" s="26" t="s">
         <v>51</v>
@@ -10904,11 +11880,11 @@
       <c r="F116" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G116" s="13">
-        <v>0</v>
-      </c>
-      <c r="H116" s="13">
-        <v>-4</v>
+      <c r="G116" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H116" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I116" s="25" t="s">
         <v>50</v>
@@ -10960,11 +11936,11 @@
       <c r="F117" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G117" s="13">
-        <v>10</v>
-      </c>
-      <c r="H117" s="13">
-        <v>-50</v>
+      <c r="G117" s="26">
+        <v>5</v>
+      </c>
+      <c r="H117" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I117" s="26" t="s">
         <v>50</v>
@@ -11016,11 +11992,11 @@
       <c r="F118" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G118" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H118" s="13">
-        <v>-132</v>
+      <c r="G118" s="25">
+        <v>24</v>
+      </c>
+      <c r="H118" s="25">
+        <v>-161</v>
       </c>
       <c r="I118" s="25" t="s">
         <v>50</v>
@@ -11072,11 +12048,11 @@
       <c r="F119" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G119" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H119" s="13">
-        <v>-174</v>
+      <c r="G119" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H119" s="26">
+        <v>117</v>
       </c>
       <c r="I119" s="26" t="s">
         <v>50</v>
@@ -11128,11 +12104,11 @@
       <c r="F120" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G120" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H120" s="13">
-        <v>117.5</v>
+      <c r="G120" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H120" s="31">
+        <v>47.6</v>
       </c>
       <c r="I120" s="25" t="s">
         <v>50</v>
@@ -11184,11 +12160,11 @@
       <c r="F121" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G121" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H121" s="13">
-        <v>-90</v>
+      <c r="G121" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H121" s="25">
+        <v>71.7</v>
       </c>
       <c r="I121" s="25" t="s">
         <v>51</v>
@@ -11240,11 +12216,11 @@
       <c r="F122" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G122" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H122" s="13">
-        <v>-143</v>
+      <c r="G122" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H122" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I122" s="26" t="s">
         <v>51</v>
@@ -11296,11 +12272,11 @@
       <c r="F123" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G123" s="13">
-        <v>0</v>
-      </c>
-      <c r="H123" s="13">
-        <v>-4</v>
+      <c r="G123" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H123" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I123" s="25" t="s">
         <v>50</v>
@@ -11352,11 +12328,11 @@
       <c r="F124" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G124" s="13">
-        <v>10</v>
-      </c>
-      <c r="H124" s="13">
-        <v>-50</v>
+      <c r="G124" s="26">
+        <v>5</v>
+      </c>
+      <c r="H124" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I124" s="26" t="s">
         <v>50</v>
@@ -11408,11 +12384,11 @@
       <c r="F125" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G125" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H125" s="13">
-        <v>-132</v>
+      <c r="G125" s="25">
+        <v>24</v>
+      </c>
+      <c r="H125" s="25">
+        <v>-161</v>
       </c>
       <c r="I125" s="25" t="s">
         <v>50</v>
@@ -11464,11 +12440,11 @@
       <c r="F126" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G126" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H126" s="13">
-        <v>-174</v>
+      <c r="G126" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H126" s="26">
+        <v>117</v>
       </c>
       <c r="I126" s="26" t="s">
         <v>50</v>
@@ -11520,11 +12496,11 @@
       <c r="F127" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G127" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H127" s="13">
-        <v>117.5</v>
+      <c r="G127" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H127" s="31">
+        <v>47.6</v>
       </c>
       <c r="I127" s="25" t="s">
         <v>50</v>
@@ -11577,10 +12553,10 @@
         <v>35</v>
       </c>
       <c r="G128" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H128" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I128" s="25" t="s">
         <v>51</v>
@@ -11633,10 +12609,10 @@
         <v>35</v>
       </c>
       <c r="G129" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H129" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I129" s="26" t="s">
         <v>51</v>
@@ -11689,10 +12665,10 @@
         <v>33</v>
       </c>
       <c r="G130" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H130" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I130" s="25" t="s">
         <v>50</v>
@@ -11745,10 +12721,10 @@
         <v>33</v>
       </c>
       <c r="G131" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H131" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I131" s="26" t="s">
         <v>50</v>
@@ -11801,10 +12777,10 @@
         <v>33</v>
       </c>
       <c r="G132" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H132" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I132" s="25" t="s">
         <v>50</v>
@@ -11857,10 +12833,10 @@
         <v>33</v>
       </c>
       <c r="G133" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H133" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I133" s="26" t="s">
         <v>50</v>
@@ -11912,11 +12888,11 @@
       <c r="F134" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G134" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H134" s="25">
-        <v>117.5</v>
+      <c r="G134" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H134" s="31">
+        <v>47.6</v>
       </c>
       <c r="I134" s="25" t="s">
         <v>50</v>
@@ -11969,10 +12945,10 @@
         <v>35</v>
       </c>
       <c r="G135" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H135" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I135" s="25" t="s">
         <v>51</v>
@@ -12025,10 +13001,10 @@
         <v>35</v>
       </c>
       <c r="G136" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H136" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I136" s="26" t="s">
         <v>51</v>
@@ -12081,10 +13057,10 @@
         <v>33</v>
       </c>
       <c r="G137" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H137" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I137" s="25" t="s">
         <v>50</v>
@@ -12137,10 +13113,10 @@
         <v>33</v>
       </c>
       <c r="G138" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H138" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I138" s="26" t="s">
         <v>50</v>
@@ -12193,10 +13169,10 @@
         <v>33</v>
       </c>
       <c r="G139" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H139" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I139" s="25" t="s">
         <v>50</v>
@@ -12249,10 +13225,10 @@
         <v>33</v>
       </c>
       <c r="G140" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H140" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I140" s="26" t="s">
         <v>50</v>
@@ -12304,11 +13280,11 @@
       <c r="F141" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G141" s="25">
-        <v>13.7</v>
-      </c>
-      <c r="H141" s="25">
-        <v>117.5</v>
+      <c r="G141" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H141" s="31">
+        <v>47.6</v>
       </c>
       <c r="I141" s="25" t="s">
         <v>50</v>
@@ -12360,11 +13336,11 @@
       <c r="F142" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G142" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H142" s="13">
-        <v>-90</v>
+      <c r="G142" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H142" s="25">
+        <v>71.7</v>
       </c>
       <c r="I142" s="25" t="s">
         <v>51</v>
@@ -12416,11 +13392,11 @@
       <c r="F143" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G143" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H143" s="13">
-        <v>-143</v>
+      <c r="G143" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H143" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I143" s="26" t="s">
         <v>51</v>
@@ -12472,11 +13448,11 @@
       <c r="F144" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G144" s="13">
-        <v>0</v>
-      </c>
-      <c r="H144" s="13">
-        <v>-4</v>
+      <c r="G144" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H144" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I144" s="25" t="s">
         <v>50</v>
@@ -12528,11 +13504,11 @@
       <c r="F145" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G145" s="13">
-        <v>10</v>
-      </c>
-      <c r="H145" s="13">
-        <v>-50</v>
+      <c r="G145" s="26">
+        <v>5</v>
+      </c>
+      <c r="H145" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I145" s="26" t="s">
         <v>50</v>
@@ -12584,11 +13560,11 @@
       <c r="F146" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G146" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H146" s="13">
-        <v>-132</v>
+      <c r="G146" s="25">
+        <v>24</v>
+      </c>
+      <c r="H146" s="25">
+        <v>-161</v>
       </c>
       <c r="I146" s="25" t="s">
         <v>50</v>
@@ -12640,11 +13616,11 @@
       <c r="F147" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G147" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H147" s="13">
-        <v>-174</v>
+      <c r="G147" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H147" s="26">
+        <v>117</v>
       </c>
       <c r="I147" s="26" t="s">
         <v>50</v>
@@ -12696,11 +13672,11 @@
       <c r="F148" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G148" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H148" s="13">
-        <v>117.5</v>
+      <c r="G148" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H148" s="31">
+        <v>47.6</v>
       </c>
       <c r="I148" s="25" t="s">
         <v>50</v>
@@ -12752,11 +13728,11 @@
       <c r="F149" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G149" s="13">
-        <v>-33</v>
-      </c>
-      <c r="H149" s="13">
-        <v>-90</v>
+      <c r="G149" s="25">
+        <v>-78</v>
+      </c>
+      <c r="H149" s="25">
+        <v>71.7</v>
       </c>
       <c r="I149" s="25" t="s">
         <v>51</v>
@@ -12808,11 +13784,11 @@
       <c r="F150" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G150" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H150" s="13">
-        <v>-143</v>
+      <c r="G150" s="26">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="H150" s="26">
+        <v>-79.900000000000006</v>
       </c>
       <c r="I150" s="26" t="s">
         <v>51</v>
@@ -12864,11 +13840,11 @@
       <c r="F151" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G151" s="13">
-        <v>0</v>
-      </c>
-      <c r="H151" s="13">
-        <v>-4</v>
+      <c r="G151" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H151" s="25">
+        <v>-34.9</v>
       </c>
       <c r="I151" s="25" t="s">
         <v>50</v>
@@ -12920,11 +13896,11 @@
       <c r="F152" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G152" s="13">
-        <v>10</v>
-      </c>
-      <c r="H152" s="13">
-        <v>-50</v>
+      <c r="G152" s="26">
+        <v>5</v>
+      </c>
+      <c r="H152" s="26">
+        <v>-85.5</v>
       </c>
       <c r="I152" s="26" t="s">
         <v>50</v>
@@ -12976,11 +13952,11 @@
       <c r="F153" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G153" s="13">
-        <v>-9</v>
-      </c>
-      <c r="H153" s="13">
-        <v>-132</v>
+      <c r="G153" s="25">
+        <v>24</v>
+      </c>
+      <c r="H153" s="25">
+        <v>-161</v>
       </c>
       <c r="I153" s="25" t="s">
         <v>50</v>
@@ -13032,11 +14008,11 @@
       <c r="F154" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G154" s="13">
-        <v>-26</v>
-      </c>
-      <c r="H154" s="13">
-        <v>-174</v>
+      <c r="G154" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="H154" s="26">
+        <v>117</v>
       </c>
       <c r="I154" s="26" t="s">
         <v>50</v>
@@ -13088,11 +14064,11 @@
       <c r="F155" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G155" s="13">
-        <v>13.7</v>
-      </c>
-      <c r="H155" s="13">
-        <v>117.5</v>
+      <c r="G155" s="31">
+        <v>-6.7</v>
+      </c>
+      <c r="H155" s="31">
+        <v>47.6</v>
       </c>
       <c r="I155" s="25" t="s">
         <v>50</v>
@@ -13145,10 +14121,10 @@
         <v>35</v>
       </c>
       <c r="G156" s="25">
-        <v>-33</v>
+        <v>-78</v>
       </c>
       <c r="H156" s="25">
-        <v>-90</v>
+        <v>71.7</v>
       </c>
       <c r="I156" s="25" t="s">
         <v>51</v>
@@ -13201,10 +14177,10 @@
         <v>35</v>
       </c>
       <c r="G157" s="26">
-        <v>-26</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H157" s="26">
-        <v>-143</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="I157" s="26" t="s">
         <v>51</v>
@@ -13257,10 +14233,10 @@
         <v>33</v>
       </c>
       <c r="G158" s="25">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H158" s="25">
-        <v>-4</v>
+        <v>-34.9</v>
       </c>
       <c r="I158" s="25" t="s">
         <v>50</v>
@@ -13313,10 +14289,10 @@
         <v>33</v>
       </c>
       <c r="G159" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H159" s="26">
-        <v>-50</v>
+        <v>-85.5</v>
       </c>
       <c r="I159" s="26" t="s">
         <v>50</v>
@@ -13369,10 +14345,10 @@
         <v>33</v>
       </c>
       <c r="G160" s="25">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="H160" s="25">
-        <v>-132</v>
+        <v>-161</v>
       </c>
       <c r="I160" s="25" t="s">
         <v>50</v>
@@ -13425,10 +14401,10 @@
         <v>33</v>
       </c>
       <c r="G161" s="26">
-        <v>-26</v>
+        <v>12.5</v>
       </c>
       <c r="H161" s="26">
-        <v>-174</v>
+        <v>117</v>
       </c>
       <c r="I161" s="26" t="s">
         <v>50</v>
@@ -13481,10 +14457,10 @@
         <v>33</v>
       </c>
       <c r="G162" s="31">
-        <v>13.7</v>
+        <v>-6.7</v>
       </c>
       <c r="H162" s="31">
-        <v>117.5</v>
+        <v>47.6</v>
       </c>
       <c r="I162" s="31" t="s">
         <v>50</v>
@@ -14160,28 +15136,28 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="K4:K8">
-    <cfRule type="duplicateValues" dxfId="29" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K24 K32:K52 K60:K80 K88:K101 K109:K162">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K29">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:K57">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:K85">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102:K106">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K170:K174">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K175:K179">
-    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K29">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:K57">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K85">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K102:K106">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1" xr:uid="{D9569CBD-1C1A-4EF0-9D90-B70EA928D150}"/>
@@ -14564,4 +15540,349 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4312CB-53A7-4009-A6C6-8EE208F0452A}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.21875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="55.27734375" style="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F4B0C-3E74-490C-9231-EEB6432409BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D577892-62CE-4F7D-8129-4465B781F8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="373">
   <si>
     <t>https://i.imgur.com/6DLBULh.jpeg</t>
   </si>
@@ -128,21 +128,12 @@
     <t>FloorID</t>
   </si>
   <si>
-    <t>FloorName</t>
-  </si>
-  <si>
     <t>ThumbnailURL</t>
   </si>
   <si>
-    <t>GF</t>
-  </si>
-  <si>
     <t>https://example.com/gf-thumb.jpg</t>
   </si>
   <si>
-    <t>FF</t>
-  </si>
-  <si>
     <t>https://example.com/ff-thumb.jpg</t>
   </si>
   <si>
@@ -2073,13 +2064,16 @@
       </rPr>
       <t>, hotspot is visible but non-functional.</t>
     </r>
+  </si>
+  <si>
+    <t>FloorID2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2192,6 +2186,11 @@
       <sz val="10"/>
       <color rgb="FF404040"/>
       <name val="Roboto Mono"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2320,7 +2319,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="39">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2520,24 +2519,6 @@
         <name val="Inter"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2978,52 +2959,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:T24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:T24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="32" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="31" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="30" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="28" dataCellStyle="Hyperlink"/>
-    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="27" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="26" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="25" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="31" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="30" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="27" dataCellStyle="Hyperlink"/>
+    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="26" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="25" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="24" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:C162" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:C162" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="3">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorID2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="8" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="6"/>
@@ -3252,7 +3232,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -3282,19 +3262,19 @@
   <sheetData>
     <row r="1" spans="1:20" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>9</v>
@@ -3303,22 +3283,22 @@
         <v>14</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>16</v>
@@ -3336,7 +3316,7 @@
         <v>19</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>11</v>
@@ -3356,28 +3336,28 @@
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M2" s="13" t="b">
         <v>1</v>
@@ -3418,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>2</v>
@@ -3427,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I3" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M3" s="13" t="b">
         <v>1</v>
@@ -3480,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>3</v>
@@ -3489,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M4" s="13" t="b">
         <v>1</v>
@@ -3536,13 +3516,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="17">
         <v>4</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>4</v>
@@ -3551,19 +3531,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I5" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M5" s="13" t="b">
         <v>1</v>
@@ -3598,34 +3578,34 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="17">
         <v>5</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M6" s="13" t="b">
         <v>1</v>
@@ -3660,34 +3640,34 @@
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="17">
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I7" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M7" s="13" t="b">
         <v>1</v>
@@ -3722,34 +3702,34 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="17">
         <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M8" s="13" t="b">
         <v>1</v>
@@ -3784,34 +3764,34 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="17">
         <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M9" s="13" t="b">
         <v>1</v>
@@ -3846,34 +3826,34 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="17">
         <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M10" s="13" t="b">
         <v>1</v>
@@ -3908,34 +3888,34 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17">
         <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I11" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M11" s="13" t="b">
         <v>1</v>
@@ -3970,34 +3950,34 @@
         <v>7</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="17">
         <v>11</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I12" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M12" s="13" t="b">
         <v>1</v>
@@ -4032,34 +4012,34 @@
         <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="17">
         <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I13" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M13" s="13" t="b">
         <v>0</v>
@@ -4094,34 +4074,34 @@
         <v>6</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="17">
         <v>13</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I14" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M14" s="13" t="b">
         <v>0</v>
@@ -4156,34 +4136,34 @@
         <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="17">
         <v>14</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I15" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M15" s="13" t="b">
         <v>0</v>
@@ -4218,34 +4198,34 @@
         <v>5</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="17">
         <v>15</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I16" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M16" s="13" t="b">
         <v>1</v>
@@ -4280,34 +4260,34 @@
         <v>5</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" s="17">
         <v>16</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M17" s="13" t="b">
         <v>0</v>
@@ -4342,34 +4322,34 @@
         <v>5</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" s="17">
         <v>17</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I18" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M18" s="13" t="b">
         <v>0</v>
@@ -4401,37 +4381,37 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="17">
         <v>18</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I19" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M19" s="13" t="b">
         <v>1</v>
@@ -4463,37 +4443,37 @@
         <v>13</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="17">
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M20" s="13" t="b">
         <v>1</v>
@@ -4525,37 +4505,37 @@
         <v>13</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="17">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I21" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M21" s="13" t="b">
         <v>1</v>
@@ -4587,37 +4567,37 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="17">
         <v>21</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M22" s="13" t="b">
         <v>1</v>
@@ -4649,37 +4629,37 @@
         <v>13</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="17">
         <v>22</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I23" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M23" s="13" t="b">
         <v>1</v>
@@ -4711,16 +4691,16 @@
         <v>13</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="17">
         <v>23</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>1</v>
@@ -4729,19 +4709,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I24" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M24" s="22" t="b">
         <v>1</v>
@@ -4808,12 +4788,12 @@
   <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
@@ -4835,1773 +4815,1773 @@
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A31" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A32" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A33" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A35" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A36" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A38" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A39" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A40" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A41" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A42" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A47" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A48" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A49" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A50" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A52" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A53" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A54" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A55" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A57" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A59" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A61" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A63" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A66" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A68" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A69" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A71" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A73" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A74" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A75" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A76" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A77" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A78" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A80" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A81" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A82" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A83" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A84" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A85" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A87" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A88" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A89" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A90" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A91" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A92" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A94" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A95" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A96" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A97" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A98" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A99" s="13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A101" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A102" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A103" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A104" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A105" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A106" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A108" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A109" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A110" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A111" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A112" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A113" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A115" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A116" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A117" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A118" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A119" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A120" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A122" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A123" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A124" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A125" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A126" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A127" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A129" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A130" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A131" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A132" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A133" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A134" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A136" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A137" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A138" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A139" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A140" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A141" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A143" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A144" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A145" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A146" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A147" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A148" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A150" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A151" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A152" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A153" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A154" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A155" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A157" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A158" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A159" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A160" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A161" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
       <c r="A162" s="13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="12.6" x14ac:dyDescent="0.4">
@@ -6775,90 +6755,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74CACAF-9354-4720-9024-D16273E302C8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{72E309C2-0B37-4986-8266-D5C476E933F5}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{31AE04C3-0E33-427A-8E3A-9CFE42D66995}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{72E309C2-0B37-4986-8266-D5C476E933F5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{31AE04C3-0E33-427A-8E3A-9CFE42D66995}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6883,10 +6852,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6898,7 +6867,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -6910,7 +6879,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6922,7 +6891,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7012,325 +6981,325 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="E1" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="E2" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>308</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="E4" s="30" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="E5" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="E6" s="30" t="s">
         <v>323</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>328</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>342</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>350</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>366</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>371</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D577892-62CE-4F7D-8129-4465B781F8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC75C3-A710-42F6-8812-7C85C0826587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="374">
   <si>
     <t>https://i.imgur.com/6DLBULh.jpeg</t>
   </si>
@@ -2067,13 +2067,16 @@
   </si>
   <si>
     <t>FloorID2</t>
+  </si>
+  <si>
+    <t>scene-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2090,11 +2093,6 @@
     </font>
     <font>
       <sz val="5"/>
-      <color rgb="FF404040"/>
-      <name val="Inter"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF404040"/>
       <name val="Inter"/>
     </font>
@@ -2229,7 +2227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2237,27 +2235,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2266,10 +2264,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2281,10 +2276,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2293,25 +2288,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2320,6 +2315,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2520,24 +2533,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2992,32 +2987,32 @@
   <autoFilter ref="A1:C162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="3">
     <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="HotspotID" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:D3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorID2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorID2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3332,31 +3327,31 @@
       <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M2" s="13" t="b">
@@ -3365,7 +3360,7 @@
       <c r="N2" s="13">
         <v>1</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <v>-7.6</v>
       </c>
       <c r="P2" s="13">
@@ -3380,7 +3375,7 @@
       <c r="S2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3394,31 +3389,31 @@
       <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M3" s="13" t="b">
@@ -3427,7 +3422,7 @@
       <c r="N3" s="13">
         <v>1</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>-7.6</v>
       </c>
       <c r="P3" s="13">
@@ -3442,7 +3437,7 @@
       <c r="S3" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3456,31 +3451,31 @@
       <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>118</v>
       </c>
       <c r="I4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M4" s="13" t="b">
@@ -3489,7 +3484,7 @@
       <c r="N4" s="13">
         <v>1</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>-7.6</v>
       </c>
       <c r="P4" s="13">
@@ -3504,7 +3499,7 @@
       <c r="S4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3518,31 +3513,31 @@
       <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M5" s="13" t="b">
@@ -3551,7 +3546,7 @@
       <c r="N5" s="13">
         <v>1</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <v>-7.6</v>
       </c>
       <c r="P5" s="13">
@@ -3566,7 +3561,7 @@
       <c r="S5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3580,31 +3575,31 @@
       <c r="C6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>5</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M6" s="13" t="b">
@@ -3613,7 +3608,7 @@
       <c r="N6" s="13">
         <v>1</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <v>-7.6</v>
       </c>
       <c r="P6" s="13">
@@ -3628,7 +3623,7 @@
       <c r="S6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3642,19 +3637,19 @@
       <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>119</v>
       </c>
       <c r="I7" s="13" t="b">
@@ -3663,10 +3658,10 @@
       <c r="J7" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>287</v>
       </c>
       <c r="M7" s="13" t="b">
@@ -3675,7 +3670,7 @@
       <c r="N7" s="13">
         <v>1</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <v>-7.6</v>
       </c>
       <c r="P7" s="13">
@@ -3690,7 +3685,7 @@
       <c r="S7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3704,19 +3699,19 @@
       <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I8" s="13" t="b">
@@ -3725,10 +3720,10 @@
       <c r="J8" t="s">
         <v>278</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M8" s="13" t="b">
@@ -3737,7 +3732,7 @@
       <c r="N8" s="13">
         <v>1</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <v>-7.6</v>
       </c>
       <c r="P8" s="13">
@@ -3752,7 +3747,7 @@
       <c r="S8" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3766,19 +3761,19 @@
       <c r="C9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I9" s="13" t="b">
@@ -3787,10 +3782,10 @@
       <c r="J9" t="s">
         <v>279</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>288</v>
       </c>
       <c r="M9" s="13" t="b">
@@ -3799,7 +3794,7 @@
       <c r="N9" s="13">
         <v>1</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="18">
         <v>-7.6</v>
       </c>
       <c r="P9" s="13">
@@ -3814,7 +3809,7 @@
       <c r="S9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3828,31 +3823,31 @@
       <c r="C10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M10" s="13" t="b">
@@ -3861,7 +3856,7 @@
       <c r="N10" s="13">
         <v>1</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <v>-7.6</v>
       </c>
       <c r="P10" s="13">
@@ -3876,7 +3871,7 @@
       <c r="S10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3890,31 +3885,31 @@
       <c r="C11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M11" s="13" t="b">
@@ -3923,7 +3918,7 @@
       <c r="N11" s="13">
         <v>1</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>-7.6</v>
       </c>
       <c r="P11" s="13">
@@ -3938,7 +3933,7 @@
       <c r="S11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -3952,31 +3947,31 @@
       <c r="C12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>11</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M12" s="13" t="b">
@@ -3985,7 +3980,7 @@
       <c r="N12" s="13">
         <v>1</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="18">
         <v>-7.6</v>
       </c>
       <c r="P12" s="13">
@@ -4000,7 +3995,7 @@
       <c r="S12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4014,31 +4009,31 @@
       <c r="C13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I13" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M13" s="13" t="b">
@@ -4047,7 +4042,7 @@
       <c r="N13" s="13">
         <v>1</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <v>-7.6</v>
       </c>
       <c r="P13" s="13">
@@ -4062,7 +4057,7 @@
       <c r="S13" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4076,31 +4071,31 @@
       <c r="C14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>13</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I14" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M14" s="13" t="b">
@@ -4109,7 +4104,7 @@
       <c r="N14" s="13">
         <v>1</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="18">
         <v>-7.6</v>
       </c>
       <c r="P14" s="13">
@@ -4124,7 +4119,7 @@
       <c r="S14" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4138,31 +4133,31 @@
       <c r="C15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>14</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M15" s="13" t="b">
@@ -4171,7 +4166,7 @@
       <c r="N15" s="13">
         <v>1</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="18">
         <v>-7.6</v>
       </c>
       <c r="P15" s="13">
@@ -4186,7 +4181,7 @@
       <c r="S15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4200,31 +4195,31 @@
       <c r="C16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>15</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M16" s="13" t="b">
@@ -4233,7 +4228,7 @@
       <c r="N16" s="13">
         <v>1</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <v>-7.6</v>
       </c>
       <c r="P16" s="13">
@@ -4248,7 +4243,7 @@
       <c r="S16" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4262,31 +4257,31 @@
       <c r="C17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>16</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I17" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M17" s="13" t="b">
@@ -4295,7 +4290,7 @@
       <c r="N17" s="13">
         <v>1</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>-7.6</v>
       </c>
       <c r="P17" s="13">
@@ -4310,7 +4305,7 @@
       <c r="S17" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4324,31 +4319,31 @@
       <c r="C18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>17</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I18" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>286</v>
       </c>
       <c r="M18" s="13" t="b">
@@ -4357,7 +4352,7 @@
       <c r="N18" s="13">
         <v>1</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="18">
         <v>-7.6</v>
       </c>
       <c r="P18" s="13">
@@ -4372,7 +4367,7 @@
       <c r="S18" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4386,19 +4381,19 @@
       <c r="C19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>18</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>118</v>
       </c>
       <c r="I19" s="13" t="b">
@@ -4407,10 +4402,10 @@
       <c r="J19" t="s">
         <v>280</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="23" t="s">
         <v>289</v>
       </c>
       <c r="M19" s="13" t="b">
@@ -4419,7 +4414,7 @@
       <c r="N19" s="13">
         <v>1</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>-7.6</v>
       </c>
       <c r="P19" s="13">
@@ -4434,7 +4429,7 @@
       <c r="S19" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4448,19 +4443,19 @@
       <c r="C20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="13" t="b">
@@ -4469,10 +4464,10 @@
       <c r="J20" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="23" t="s">
         <v>285</v>
       </c>
       <c r="M20" s="13" t="b">
@@ -4481,7 +4476,7 @@
       <c r="N20" s="13">
         <v>1</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="18">
         <v>-7.6</v>
       </c>
       <c r="P20" s="13">
@@ -4496,7 +4491,7 @@
       <c r="S20" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4510,31 +4505,31 @@
       <c r="C21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>20</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I21" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>285</v>
       </c>
       <c r="M21" s="13" t="b">
@@ -4543,7 +4538,7 @@
       <c r="N21" s="13">
         <v>1</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="18">
         <v>-7.6</v>
       </c>
       <c r="P21" s="13">
@@ -4558,7 +4553,7 @@
       <c r="S21" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4572,31 +4567,31 @@
       <c r="C22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>21</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>285</v>
       </c>
       <c r="M22" s="13" t="b">
@@ -4605,7 +4600,7 @@
       <c r="N22" s="13">
         <v>1</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="18">
         <v>-7.6</v>
       </c>
       <c r="P22" s="13">
@@ -4620,7 +4615,7 @@
       <c r="S22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4634,31 +4629,31 @@
       <c r="C23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>22</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I23" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>285</v>
       </c>
       <c r="M23" s="13" t="b">
@@ -4667,7 +4662,7 @@
       <c r="N23" s="13">
         <v>1</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="18">
         <v>-7.6</v>
       </c>
       <c r="P23" s="13">
@@ -4682,7 +4677,7 @@
       <c r="S23" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="19">
         <v>45750</v>
       </c>
     </row>
@@ -4696,40 +4691,40 @@
       <c r="C24" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>23</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I24" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="M24" s="22" t="b">
+      <c r="M24" s="21" t="b">
         <v>1</v>
       </c>
       <c r="N24" s="13">
         <v>1</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="22">
         <v>-7.6</v>
       </c>
       <c r="P24" s="13">
@@ -4744,17 +4739,17 @@
       <c r="S24" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="19">
         <v>45750</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
@@ -4787,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4817,7 +4812,7 @@
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -4828,8 +4823,8 @@
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>20</v>
+      <c r="B3" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>105</v>
@@ -4839,8 +4834,8 @@
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>20</v>
+      <c r="B4" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>106</v>
@@ -4850,8 +4845,8 @@
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
+      <c r="B5" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>121</v>
@@ -4861,8 +4856,8 @@
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
+      <c r="B6" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>122</v>
@@ -4872,8 +4867,8 @@
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>20</v>
+      <c r="B7" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>123</v>
@@ -4883,8 +4878,8 @@
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
+      <c r="B8" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>124</v>
@@ -4895,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>107</v>
@@ -4906,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>125</v>
@@ -4917,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>126</v>
@@ -4928,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>127</v>
@@ -4939,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>128</v>
@@ -4950,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>129</v>
@@ -4961,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>130</v>
@@ -4972,7 +4967,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>131</v>
@@ -4983,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>132</v>
@@ -4994,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>133</v>
@@ -5005,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>134</v>
@@ -5016,7 +5011,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>135</v>
@@ -5027,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>136</v>
@@ -5038,7 +5033,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>137</v>
@@ -5049,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>138</v>
@@ -5060,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>139</v>
@@ -5071,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>140</v>
@@ -5082,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>141</v>
@@ -5093,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>142</v>
@@ -5104,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>143</v>
@@ -5115,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>144</v>
@@ -5126,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>145</v>
@@ -5137,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>146</v>
@@ -5148,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>147</v>
@@ -5159,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>148</v>
@@ -5170,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>149</v>
@@ -5181,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>150</v>
@@ -5192,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>151</v>
@@ -5203,7 +5198,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>152</v>
@@ -5214,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>153</v>
@@ -5225,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>154</v>
@@ -5236,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>155</v>
@@ -5247,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>156</v>
@@ -5258,7 +5253,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>157</v>
@@ -5269,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>158</v>
@@ -5280,7 +5275,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>159</v>
@@ -5291,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>160</v>
@@ -5302,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>161</v>
@@ -5313,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>162</v>
@@ -5324,7 +5319,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>163</v>
@@ -5335,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>164</v>
@@ -5346,7 +5341,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>165</v>
@@ -5357,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>166</v>
@@ -5368,7 +5363,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>167</v>
@@ -5379,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>168</v>
@@ -5390,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>169</v>
@@ -5401,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>170</v>
@@ -5412,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>171</v>
@@ -5423,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>172</v>
@@ -5434,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>173</v>
@@ -5445,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>174</v>
@@ -5456,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>175</v>
@@ -5467,7 +5462,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>176</v>
@@ -5478,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>177</v>
@@ -5489,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>178</v>
@@ -5500,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>179</v>
@@ -5511,7 +5506,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>180</v>
@@ -5522,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>181</v>
@@ -5533,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>182</v>
@@ -5544,7 +5539,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>183</v>
@@ -5555,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>184</v>
@@ -5566,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>185</v>
@@ -5577,7 +5572,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>186</v>
@@ -5588,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>187</v>
@@ -5599,7 +5594,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>188</v>
@@ -5610,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>189</v>
@@ -5621,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>190</v>
@@ -5632,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>191</v>
@@ -5643,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>192</v>
@@ -5654,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>193</v>
@@ -5665,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>194</v>
@@ -5676,7 +5671,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>195</v>
@@ -5687,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>196</v>
@@ -5698,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>197</v>
@@ -5709,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>198</v>
@@ -5720,7 +5715,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>199</v>
@@ -5731,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>200</v>
@@ -5742,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>201</v>
@@ -5753,7 +5748,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>202</v>
@@ -5764,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>203</v>
@@ -5775,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>204</v>
@@ -5786,7 +5781,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>205</v>
@@ -5797,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>206</v>
@@ -5808,7 +5803,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>207</v>
@@ -5819,7 +5814,7 @@
         <v>12</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>208</v>
@@ -5830,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>209</v>
@@ -5841,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>210</v>
@@ -5852,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>211</v>
@@ -5863,7 +5858,7 @@
         <v>12</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>212</v>
@@ -5874,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>213</v>
@@ -5885,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>214</v>
@@ -5896,7 +5891,7 @@
         <v>13</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>215</v>
@@ -5907,7 +5902,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>216</v>
@@ -5918,7 +5913,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>217</v>
@@ -5929,7 +5924,7 @@
         <v>13</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>218</v>
@@ -5940,7 +5935,7 @@
         <v>13</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>219</v>
@@ -5951,7 +5946,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>220</v>
@@ -5962,7 +5957,7 @@
         <v>13</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>221</v>
@@ -5973,7 +5968,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>222</v>
@@ -5984,7 +5979,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>223</v>
@@ -5995,7 +5990,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>224</v>
@@ -6006,7 +6001,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>225</v>
@@ -6017,7 +6012,7 @@
         <v>13</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>226</v>
@@ -6028,7 +6023,7 @@
         <v>13</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>227</v>
@@ -6039,7 +6034,7 @@
         <v>13</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>228</v>
@@ -6050,7 +6045,7 @@
         <v>13</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>229</v>
@@ -6061,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>230</v>
@@ -6072,7 +6067,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>231</v>
@@ -6083,7 +6078,7 @@
         <v>13</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>232</v>
@@ -6094,7 +6089,7 @@
         <v>13</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>233</v>
@@ -6105,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>234</v>
@@ -6116,7 +6111,7 @@
         <v>13</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>235</v>
@@ -6127,7 +6122,7 @@
         <v>13</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>236</v>
@@ -6138,7 +6133,7 @@
         <v>13</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>237</v>
@@ -6149,7 +6144,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>238</v>
@@ -6160,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>239</v>
@@ -6171,7 +6166,7 @@
         <v>13</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>240</v>
@@ -6182,7 +6177,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>241</v>
@@ -6193,7 +6188,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>242</v>
@@ -6204,7 +6199,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>243</v>
@@ -6215,7 +6210,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>244</v>
@@ -6226,7 +6221,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>245</v>
@@ -6237,7 +6232,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>246</v>
@@ -6248,7 +6243,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>247</v>
@@ -6259,7 +6254,7 @@
         <v>13</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>248</v>
@@ -6270,7 +6265,7 @@
         <v>13</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>249</v>
@@ -6281,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>250</v>
@@ -6292,7 +6287,7 @@
         <v>13</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>251</v>
@@ -6303,7 +6298,7 @@
         <v>13</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>252</v>
@@ -6314,7 +6309,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>253</v>
@@ -6325,7 +6320,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>254</v>
@@ -6336,7 +6331,7 @@
         <v>13</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>255</v>
@@ -6347,7 +6342,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>256</v>
@@ -6358,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>257</v>
@@ -6369,7 +6364,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>258</v>
@@ -6380,7 +6375,7 @@
         <v>13</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>259</v>
@@ -6391,7 +6386,7 @@
         <v>13</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>260</v>
@@ -6402,7 +6397,7 @@
         <v>13</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>261</v>
@@ -6413,7 +6408,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>262</v>
@@ -6424,7 +6419,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>263</v>
@@ -6435,7 +6430,7 @@
         <v>13</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>264</v>
@@ -6446,7 +6441,7 @@
         <v>13</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>265</v>
@@ -6457,7 +6452,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>266</v>
@@ -6468,7 +6463,7 @@
         <v>13</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>267</v>
@@ -6479,7 +6474,7 @@
         <v>13</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>268</v>
@@ -6490,7 +6485,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>269</v>
@@ -6501,7 +6496,7 @@
         <v>13</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>270</v>
@@ -6512,7 +6507,7 @@
         <v>13</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>272</v>
@@ -6523,7 +6518,7 @@
         <v>13</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>273</v>
@@ -6534,7 +6529,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>274</v>
@@ -6545,7 +6540,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>275</v>
@@ -6556,7 +6551,7 @@
         <v>13</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>276</v>
@@ -6567,7 +6562,7 @@
         <v>13</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>277</v>
@@ -6578,7 +6573,7 @@
         <v>13</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>271</v>
@@ -6745,7 +6740,7 @@
       <c r="C194" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6793,7 +6788,7 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="b">
+      <c r="D2" s="24" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
@@ -6808,7 +6803,7 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="b">
+      <c r="D3" s="24" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="4"/>
@@ -6824,7 +6819,7 @@
       <c r="C5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{72E309C2-0B37-4986-8266-D5C476E933F5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{31AE04C3-0E33-427A-8E3A-9CFE42D66995}"/>
@@ -6980,325 +6975,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>371</v>
       </c>
     </row>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2708790-4893-4B7D-95EE-31FC4F2DD275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6078189-EC6B-4511-890C-3132CEC0A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,20 @@
     <sheet name="4. Styles Sheet (Custom CSS)" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="449">
   <si>
     <t>Description</t>
   </si>
@@ -2289,6 +2302,12 @@
   </si>
   <si>
     <t>https://roommanager.com/wp-content/uploads/2022/10/Office-Map.png</t>
+  </si>
+  <si>
+    <t>Floor Map Active</t>
+  </si>
+  <si>
+    <t>Get Pitch/Yaw Data</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2620,30 +2639,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="69">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2743,60 +2750,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3352,6 +3305,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="0"/>
         <name val="Inter"/>
         <scheme val="none"/>
@@ -3484,6 +3455,96 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3706,85 +3767,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:W24" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:W24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="59" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="58" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="56"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="55" dataCellStyle="Hyperlink"/>
-    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="54" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="53" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="52" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="46"/>
-    <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:Y24" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A1:Y24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="61" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="60" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="59" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
+    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="56" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="54" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="44"/>
+    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:S162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="19">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="42"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="30"/>
-    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="20" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="16" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3996,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4011,23 +4074,26 @@
     <col min="5" max="5" width="17.94140625" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="67.38671875" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="73.5" customWidth="1"/>
+    <col min="10" max="10" width="37.94140625" customWidth="1"/>
     <col min="11" max="11" width="30.71875" customWidth="1"/>
-    <col min="12" max="12" width="39.38671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="12" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="46" customWidth="1"/>
     <col min="15" max="15" width="9.44140625" customWidth="1"/>
     <col min="16" max="16" width="8.609375" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="22" width="9.88671875" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.38671875" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" customWidth="1"/>
+    <col min="19" max="19" width="13.27734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.27734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" customWidth="1"/>
+    <col min="22" max="24" width="18.77734375" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.38671875" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
@@ -4067,7 +4133,7 @@
       <c r="M1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="9" t="s">
@@ -4095,10 +4161,16 @@
         <v>444</v>
       </c>
       <c r="W1" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -4138,7 +4210,7 @@
       <c r="M2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="45">
         <v>1</v>
       </c>
       <c r="O2" s="19">
@@ -4165,11 +4237,17 @@
       <c r="V2" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -4209,7 +4287,7 @@
       <c r="M3" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="45">
         <v>1</v>
       </c>
       <c r="O3" s="19">
@@ -4234,13 +4312,19 @@
         <v>0</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="W3" s="20">
+        <v>445</v>
+      </c>
+      <c r="W3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -4280,7 +4364,7 @@
       <c r="M4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="45">
         <v>1</v>
       </c>
       <c r="O4" s="19">
@@ -4304,14 +4388,18 @@
       <c r="U4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="V4" s="13" t="b">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="20">
+      <c r="X4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
@@ -4351,7 +4439,7 @@
       <c r="M5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="45">
         <v>1</v>
       </c>
       <c r="O5" s="19">
@@ -4375,14 +4463,18 @@
       <c r="U5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="V5" s="13" t="b">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="20">
+      <c r="X5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -4422,7 +4514,7 @@
       <c r="M6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="45">
         <v>1</v>
       </c>
       <c r="O6" s="19">
@@ -4446,14 +4538,18 @@
       <c r="U6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="V6" s="13" t="b">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="20">
+      <c r="X6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -4493,7 +4589,7 @@
       <c r="M7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="45">
         <v>1</v>
       </c>
       <c r="O7" s="19">
@@ -4517,14 +4613,18 @@
       <c r="U7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="V7" s="13" t="b">
+      <c r="V7" s="13"/>
+      <c r="W7" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="20">
+      <c r="X7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -4564,7 +4664,7 @@
       <c r="M8" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="45">
         <v>1</v>
       </c>
       <c r="O8" s="19">
@@ -4591,11 +4691,17 @@
       <c r="V8" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -4635,7 +4741,7 @@
       <c r="M9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="45">
         <v>1</v>
       </c>
       <c r="O9" s="19">
@@ -4662,11 +4768,17 @@
       <c r="V9" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
@@ -4706,7 +4818,7 @@
       <c r="M10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="45">
         <v>1</v>
       </c>
       <c r="O10" s="19">
@@ -4733,11 +4845,17 @@
       <c r="V10" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
@@ -4777,7 +4895,7 @@
       <c r="M11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="45">
         <v>1</v>
       </c>
       <c r="O11" s="19">
@@ -4804,11 +4922,17 @@
       <c r="V11" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
@@ -4848,7 +4972,7 @@
       <c r="M12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="45">
         <v>1</v>
       </c>
       <c r="O12" s="19">
@@ -4875,11 +4999,17 @@
       <c r="V12" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -4919,7 +5049,7 @@
       <c r="M13" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="45">
         <v>1</v>
       </c>
       <c r="O13" s="19">
@@ -4946,11 +5076,17 @@
       <c r="V13" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +5126,7 @@
       <c r="M14" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="45">
         <v>1</v>
       </c>
       <c r="O14" s="19">
@@ -5017,11 +5153,17 @@
       <c r="V14" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -5061,7 +5203,7 @@
       <c r="M15" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="45">
         <v>1</v>
       </c>
       <c r="O15" s="19">
@@ -5088,11 +5230,17 @@
       <c r="V15" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -5132,7 +5280,7 @@
       <c r="M16" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="45">
         <v>1</v>
       </c>
       <c r="O16" s="19">
@@ -5159,11 +5307,17 @@
       <c r="V16" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W16" s="20">
+      <c r="W16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -5203,7 +5357,7 @@
       <c r="M17" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="45">
         <v>1</v>
       </c>
       <c r="O17" s="19">
@@ -5230,11 +5384,17 @@
       <c r="V17" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -5274,7 +5434,7 @@
       <c r="M18" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="45">
         <v>1</v>
       </c>
       <c r="O18" s="19">
@@ -5301,11 +5461,17 @@
       <c r="V18" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5511,7 @@
       <c r="M19" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="45">
         <v>1</v>
       </c>
       <c r="O19" s="19">
@@ -5372,11 +5538,17 @@
       <c r="V19" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
@@ -5416,7 +5588,7 @@
       <c r="M20" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="45">
         <v>1</v>
       </c>
       <c r="O20" s="19">
@@ -5443,11 +5615,17 @@
       <c r="V20" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +5665,7 @@
       <c r="M21" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="45">
         <v>1</v>
       </c>
       <c r="O21" s="19">
@@ -5514,11 +5692,17 @@
       <c r="V21" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
@@ -5558,7 +5742,7 @@
       <c r="M22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="45">
         <v>1</v>
       </c>
       <c r="O22" s="19">
@@ -5585,11 +5769,17 @@
       <c r="V22" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +5819,7 @@
       <c r="M23" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="45">
         <v>1</v>
       </c>
       <c r="O23" s="19">
@@ -5656,11 +5846,17 @@
       <c r="V23" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
@@ -5700,7 +5896,7 @@
       <c r="M24" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="45">
         <v>1</v>
       </c>
       <c r="O24" s="23">
@@ -5727,17 +5923,23 @@
       <c r="V24" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="20">
         <v>45750</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
@@ -16030,28 +16232,28 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="L4:L8">
-    <cfRule type="duplicateValues" dxfId="8" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L24 L32:L52 L60:L80 L88:L101 L109:L162">
-    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L29">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:L57">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81:L85">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102:L106">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L170:L174">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L175:L179">
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{D9569CBD-1C1A-4EF0-9D90-B70EA928D150}"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6078189-EC6B-4511-890C-3132CEC0A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68D4CC-65EE-42D4-BDAE-06F7EBE6D19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4062,7 +4062,7 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4692,7 +4692,7 @@
         <v>445</v>
       </c>
       <c r="W8" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="13" t="b">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>445</v>
       </c>
       <c r="W9" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="13" t="b">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>445</v>
       </c>
       <c r="W10" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="13" t="b">
         <v>1</v>
@@ -5972,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68D4CC-65EE-42D4-BDAE-06F7EBE6D19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFCF80-C761-4AA9-8C29-F1D47FCC96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="451">
   <si>
     <t>Description</t>
   </si>
@@ -2309,12 +2309,19 @@
   <si>
     <t>Get Pitch/Yaw Data</t>
   </si>
+  <si>
+    <t>Floor map Details</t>
+  </si>
+  <si>
+    <t>Title:
+Description of the card details if needed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2428,6 +2435,11 @@
       <color rgb="FF404040"/>
       <name val="Roboto Mono"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inter"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2515,7 +2527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2645,12 +2657,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3767,87 +3803,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:Y24" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A1:Y24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="61" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="60" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="59" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="58"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
-    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="56" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="55" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="54" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="44"/>
-    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:Z24" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:Z24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="65"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="62" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="61" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="60" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="59"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="58" dataCellStyle="Hyperlink"/>
+    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="56" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="46"/>
+    <tableColumn id="26" xr3:uid="{9B34F8E8-0E7B-400B-82B0-9AB62121F087}" name="Floor map Details" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="45"/>
+    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:S162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="19">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="17" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4059,10 +4096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4087,13 +4124,13 @@
     <col min="19" max="19" width="13.27734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.27734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.88671875" customWidth="1"/>
-    <col min="22" max="24" width="18.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.38671875" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" customWidth="1"/>
+    <col min="22" max="25" width="18.77734375" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.38671875" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
@@ -4161,16 +4198,19 @@
         <v>444</v>
       </c>
       <c r="W1" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -4237,17 +4277,20 @@
       <c r="V2" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W2" s="13" t="b">
-        <v>1</v>
+      <c r="W2" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -4272,7 +4315,7 @@
       <c r="H3" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="13" t="b">
+      <c r="I3" s="47" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="18" t="s">
@@ -4308,23 +4351,26 @@
       <c r="T3" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="U3" s="13" t="b">
+      <c r="U3" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V3" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W3" s="13" t="b">
-        <v>1</v>
+      <c r="W3" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X3" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -4389,17 +4435,20 @@
         <v>1</v>
       </c>
       <c r="V4" s="13"/>
-      <c r="W4" s="13" t="b">
+      <c r="W4" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X4" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
@@ -4464,17 +4513,20 @@
         <v>1</v>
       </c>
       <c r="V5" s="13"/>
-      <c r="W5" s="13" t="b">
+      <c r="W5" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X5" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -4539,17 +4591,20 @@
         <v>1</v>
       </c>
       <c r="V6" s="13"/>
-      <c r="W6" s="13" t="b">
+      <c r="W6" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X6" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -4614,17 +4669,20 @@
         <v>1</v>
       </c>
       <c r="V7" s="13"/>
-      <c r="W7" s="13" t="b">
+      <c r="W7" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X7" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X7" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -4691,17 +4749,20 @@
       <c r="V8" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W8" s="13" t="b">
+      <c r="W8" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X8" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X8" s="13" t="b">
+      <c r="Y8" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Z8" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -4768,17 +4829,20 @@
       <c r="V9" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W9" s="13" t="b">
+      <c r="W9" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X9" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="20">
+      <c r="Y9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
@@ -4845,17 +4909,20 @@
       <c r="V10" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W10" s="13" t="b">
+      <c r="W10" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="X10" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="X10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="20">
+      <c r="Y10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
@@ -4922,17 +4989,20 @@
       <c r="V11" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W11" s="13" t="b">
-        <v>1</v>
+      <c r="W11" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
@@ -4999,17 +5069,20 @@
       <c r="V12" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W12" s="13" t="b">
-        <v>1</v>
+      <c r="W12" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -5046,7 +5119,7 @@
       <c r="L13" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M13" s="13" t="b">
+      <c r="M13" s="47" t="b">
         <v>0</v>
       </c>
       <c r="N13" s="45">
@@ -5076,17 +5149,20 @@
       <c r="V13" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W13" s="13" t="b">
-        <v>1</v>
+      <c r="W13" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X13" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
@@ -5123,7 +5199,7 @@
       <c r="L14" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="13" t="b">
+      <c r="M14" s="47" t="b">
         <v>0</v>
       </c>
       <c r="N14" s="45">
@@ -5153,17 +5229,20 @@
       <c r="V14" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W14" s="13" t="b">
-        <v>1</v>
+      <c r="W14" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X14" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -5200,7 +5279,7 @@
       <c r="L15" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M15" s="13" t="b">
+      <c r="M15" s="47" t="b">
         <v>0</v>
       </c>
       <c r="N15" s="45">
@@ -5230,17 +5309,20 @@
       <c r="V15" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="W15" s="13" t="b">
-        <v>1</v>
+      <c r="W15" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Y15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -5265,7 +5347,7 @@
       <c r="H16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="13" t="b">
+      <c r="I16" s="47" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="18" t="s">
@@ -5307,17 +5389,20 @@
       <c r="V16" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W16" s="13" t="b">
-        <v>1</v>
+      <c r="W16" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X16" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y16" s="20">
+      <c r="Y16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -5354,7 +5439,7 @@
       <c r="L17" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="13" t="b">
+      <c r="M17" s="47" t="b">
         <v>0</v>
       </c>
       <c r="N17" s="45">
@@ -5384,17 +5469,20 @@
       <c r="V17" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W17" s="13" t="b">
-        <v>1</v>
+      <c r="W17" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X17" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -5431,7 +5519,7 @@
       <c r="L18" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="13" t="b">
+      <c r="M18" s="47" t="b">
         <v>0</v>
       </c>
       <c r="N18" s="45">
@@ -5461,17 +5549,20 @@
       <c r="V18" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W18" s="13" t="b">
-        <v>1</v>
+      <c r="W18" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X18" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -5538,17 +5629,20 @@
       <c r="V19" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W19" s="13" t="b">
-        <v>1</v>
+      <c r="W19" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X19" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
@@ -5615,17 +5709,20 @@
       <c r="V20" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W20" s="13" t="b">
-        <v>1</v>
+      <c r="W20" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X20" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
@@ -5692,17 +5789,20 @@
       <c r="V21" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W21" s="13" t="b">
-        <v>1</v>
+      <c r="W21" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X21" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
@@ -5769,17 +5869,20 @@
       <c r="V22" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W22" s="13" t="b">
-        <v>1</v>
+      <c r="W22" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
@@ -5834,7 +5937,7 @@
       <c r="R23" s="13">
         <v>0</v>
       </c>
-      <c r="S23" s="13" t="b">
+      <c r="S23" s="47" t="b">
         <v>0</v>
       </c>
       <c r="T23" s="13" t="s">
@@ -5846,17 +5949,20 @@
       <c r="V23" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W23" s="13" t="b">
-        <v>1</v>
+      <c r="W23" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X23" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="20">
         <v>45750</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="12.6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" ht="50.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
@@ -5923,23 +6029,26 @@
       <c r="V24" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="W24" s="13" t="b">
-        <v>1</v>
+      <c r="W24" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="X24" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Y24" s="20">
+      <c r="Y24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="20">
         <v>45750</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
@@ -5972,8 +6081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -16232,28 +16341,28 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="L4:L8">
-    <cfRule type="duplicateValues" dxfId="7" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L24 L32:L52 L60:L80 L88:L101 L109:L162">
-    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L29">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:L57">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81:L85">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102:L106">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L170:L174">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L175:L179">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{D9569CBD-1C1A-4EF0-9D90-B70EA928D150}"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFCF80-C761-4AA9-8C29-F1D47FCC96F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38523649-3119-43E2-A829-3A992A6F97F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4099,7 +4099,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4251,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="45">
-        <v>1</v>
+        <v>14.24</v>
       </c>
       <c r="O2" s="19">
-        <v>-7.6</v>
+        <v>75.16</v>
       </c>
       <c r="P2" s="13">
         <v>100</v>
@@ -6082,7 +6082,7 @@
   <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H156" sqref="H156:I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -6190,10 +6190,10 @@
         <v>31</v>
       </c>
       <c r="H2" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I2" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>47</v>
@@ -6249,10 +6249,10 @@
         <v>31</v>
       </c>
       <c r="H3" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I3" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>47</v>
@@ -6308,10 +6308,10 @@
         <v>29</v>
       </c>
       <c r="H4" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I4" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>46</v>
@@ -6367,10 +6367,10 @@
         <v>29</v>
       </c>
       <c r="H5" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I5" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>46</v>
@@ -6426,10 +6426,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I6" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>46</v>
@@ -6485,10 +6485,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I7" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>46</v>
@@ -6544,10 +6544,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I8" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>46</v>
@@ -6603,10 +6603,10 @@
         <v>31</v>
       </c>
       <c r="H9" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I9" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>47</v>
@@ -6662,10 +6662,10 @@
         <v>31</v>
       </c>
       <c r="H10" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I10" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>47</v>
@@ -6721,10 +6721,10 @@
         <v>29</v>
       </c>
       <c r="H11" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I11" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>46</v>
@@ -6780,10 +6780,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I12" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>46</v>
@@ -6839,10 +6839,10 @@
         <v>29</v>
       </c>
       <c r="H13" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I13" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>46</v>
@@ -6898,10 +6898,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I14" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>46</v>
@@ -6957,10 +6957,10 @@
         <v>29</v>
       </c>
       <c r="H15" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I15" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>46</v>
@@ -7016,10 +7016,10 @@
         <v>31</v>
       </c>
       <c r="H16" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I16" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>47</v>
@@ -7075,10 +7075,10 @@
         <v>31</v>
       </c>
       <c r="H17" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I17" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>47</v>
@@ -7134,10 +7134,10 @@
         <v>29</v>
       </c>
       <c r="H18" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I18" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>46</v>
@@ -7193,10 +7193,10 @@
         <v>29</v>
       </c>
       <c r="H19" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I19" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>46</v>
@@ -7252,10 +7252,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I20" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>46</v>
@@ -7311,10 +7311,10 @@
         <v>29</v>
       </c>
       <c r="H21" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I21" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>46</v>
@@ -7370,10 +7370,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I22" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>46</v>
@@ -7429,10 +7429,10 @@
         <v>31</v>
       </c>
       <c r="H23" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I23" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>47</v>
@@ -7488,10 +7488,10 @@
         <v>31</v>
       </c>
       <c r="H24" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I24" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>47</v>
@@ -7547,10 +7547,10 @@
         <v>29</v>
       </c>
       <c r="H25" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I25" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>46</v>
@@ -7606,10 +7606,10 @@
         <v>29</v>
       </c>
       <c r="H26" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I26" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>46</v>
@@ -7665,10 +7665,10 @@
         <v>29</v>
       </c>
       <c r="H27" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I27" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>46</v>
@@ -7724,10 +7724,10 @@
         <v>29</v>
       </c>
       <c r="H28" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I28" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>46</v>
@@ -7783,10 +7783,10 @@
         <v>29</v>
       </c>
       <c r="H29" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I29" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>46</v>
@@ -7842,10 +7842,10 @@
         <v>31</v>
       </c>
       <c r="H30" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I30" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>47</v>
@@ -7901,10 +7901,10 @@
         <v>31</v>
       </c>
       <c r="H31" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I31" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>47</v>
@@ -7960,10 +7960,10 @@
         <v>29</v>
       </c>
       <c r="H32" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I32" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>46</v>
@@ -8019,10 +8019,10 @@
         <v>29</v>
       </c>
       <c r="H33" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I33" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J33" s="26" t="s">
         <v>46</v>
@@ -8078,10 +8078,10 @@
         <v>29</v>
       </c>
       <c r="H34" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I34" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>46</v>
@@ -8137,10 +8137,10 @@
         <v>29</v>
       </c>
       <c r="H35" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I35" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>46</v>
@@ -8196,10 +8196,10 @@
         <v>29</v>
       </c>
       <c r="H36" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I36" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>46</v>
@@ -8255,10 +8255,10 @@
         <v>31</v>
       </c>
       <c r="H37" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I37" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>47</v>
@@ -8314,10 +8314,10 @@
         <v>31</v>
       </c>
       <c r="H38" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I38" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>47</v>
@@ -8373,10 +8373,10 @@
         <v>29</v>
       </c>
       <c r="H39" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I39" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>46</v>
@@ -8432,10 +8432,10 @@
         <v>29</v>
       </c>
       <c r="H40" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I40" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>46</v>
@@ -8491,10 +8491,10 @@
         <v>29</v>
       </c>
       <c r="H41" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I41" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>46</v>
@@ -8550,10 +8550,10 @@
         <v>29</v>
       </c>
       <c r="H42" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I42" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J42" s="26" t="s">
         <v>46</v>
@@ -8609,10 +8609,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I43" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J43" s="25" t="s">
         <v>46</v>
@@ -8668,10 +8668,10 @@
         <v>31</v>
       </c>
       <c r="H44" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I44" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>47</v>
@@ -8727,10 +8727,10 @@
         <v>31</v>
       </c>
       <c r="H45" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I45" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J45" s="26" t="s">
         <v>47</v>
@@ -8786,10 +8786,10 @@
         <v>29</v>
       </c>
       <c r="H46" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I46" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>46</v>
@@ -8845,10 +8845,10 @@
         <v>29</v>
       </c>
       <c r="H47" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I47" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J47" s="26" t="s">
         <v>46</v>
@@ -8904,10 +8904,10 @@
         <v>29</v>
       </c>
       <c r="H48" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I48" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>46</v>
@@ -8963,10 +8963,10 @@
         <v>29</v>
       </c>
       <c r="H49" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I49" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J49" s="26" t="s">
         <v>46</v>
@@ -9022,10 +9022,10 @@
         <v>29</v>
       </c>
       <c r="H50" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I50" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J50" s="25" t="s">
         <v>46</v>
@@ -9081,10 +9081,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I51" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>47</v>
@@ -9140,10 +9140,10 @@
         <v>31</v>
       </c>
       <c r="H52" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I52" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J52" s="26" t="s">
         <v>47</v>
@@ -9199,10 +9199,10 @@
         <v>29</v>
       </c>
       <c r="H53" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I53" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J53" s="25" t="s">
         <v>46</v>
@@ -9258,10 +9258,10 @@
         <v>29</v>
       </c>
       <c r="H54" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I54" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J54" s="26" t="s">
         <v>46</v>
@@ -9317,10 +9317,10 @@
         <v>29</v>
       </c>
       <c r="H55" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I55" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>46</v>
@@ -9376,10 +9376,10 @@
         <v>29</v>
       </c>
       <c r="H56" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I56" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J56" s="26" t="s">
         <v>46</v>
@@ -9435,10 +9435,10 @@
         <v>29</v>
       </c>
       <c r="H57" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I57" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J57" s="25" t="s">
         <v>46</v>
@@ -9494,10 +9494,10 @@
         <v>31</v>
       </c>
       <c r="H58" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I58" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>47</v>
@@ -9553,10 +9553,10 @@
         <v>31</v>
       </c>
       <c r="H59" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I59" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>47</v>
@@ -9612,10 +9612,10 @@
         <v>29</v>
       </c>
       <c r="H60" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I60" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>46</v>
@@ -9671,10 +9671,10 @@
         <v>29</v>
       </c>
       <c r="H61" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I61" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>46</v>
@@ -9730,10 +9730,10 @@
         <v>29</v>
       </c>
       <c r="H62" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I62" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>46</v>
@@ -9789,10 +9789,10 @@
         <v>29</v>
       </c>
       <c r="H63" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I63" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J63" s="26" t="s">
         <v>46</v>
@@ -9848,10 +9848,10 @@
         <v>29</v>
       </c>
       <c r="H64" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I64" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>46</v>
@@ -9907,10 +9907,10 @@
         <v>31</v>
       </c>
       <c r="H65" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I65" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>47</v>
@@ -9966,10 +9966,10 @@
         <v>31</v>
       </c>
       <c r="H66" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I66" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J66" s="26" t="s">
         <v>47</v>
@@ -10025,10 +10025,10 @@
         <v>29</v>
       </c>
       <c r="H67" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I67" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>46</v>
@@ -10084,10 +10084,10 @@
         <v>29</v>
       </c>
       <c r="H68" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I68" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J68" s="26" t="s">
         <v>46</v>
@@ -10143,10 +10143,10 @@
         <v>29</v>
       </c>
       <c r="H69" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I69" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J69" s="25" t="s">
         <v>46</v>
@@ -10202,10 +10202,10 @@
         <v>29</v>
       </c>
       <c r="H70" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I70" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>46</v>
@@ -10261,10 +10261,10 @@
         <v>29</v>
       </c>
       <c r="H71" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I71" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J71" s="25" t="s">
         <v>46</v>
@@ -10320,10 +10320,10 @@
         <v>31</v>
       </c>
       <c r="H72" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I72" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>47</v>
@@ -10379,10 +10379,10 @@
         <v>31</v>
       </c>
       <c r="H73" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I73" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>47</v>
@@ -10438,10 +10438,10 @@
         <v>29</v>
       </c>
       <c r="H74" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I74" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>46</v>
@@ -10497,10 +10497,10 @@
         <v>29</v>
       </c>
       <c r="H75" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I75" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J75" s="26" t="s">
         <v>46</v>
@@ -10556,10 +10556,10 @@
         <v>29</v>
       </c>
       <c r="H76" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I76" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>46</v>
@@ -10615,10 +10615,10 @@
         <v>29</v>
       </c>
       <c r="H77" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I77" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J77" s="26" t="s">
         <v>46</v>
@@ -10674,10 +10674,10 @@
         <v>29</v>
       </c>
       <c r="H78" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I78" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>46</v>
@@ -10733,10 +10733,10 @@
         <v>31</v>
       </c>
       <c r="H79" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I79" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J79" s="25" t="s">
         <v>47</v>
@@ -10792,10 +10792,10 @@
         <v>31</v>
       </c>
       <c r="H80" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I80" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J80" s="26" t="s">
         <v>47</v>
@@ -10851,10 +10851,10 @@
         <v>29</v>
       </c>
       <c r="H81" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I81" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J81" s="25" t="s">
         <v>46</v>
@@ -10910,10 +10910,10 @@
         <v>29</v>
       </c>
       <c r="H82" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I82" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J82" s="26" t="s">
         <v>46</v>
@@ -10969,10 +10969,10 @@
         <v>29</v>
       </c>
       <c r="H83" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I83" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J83" s="25" t="s">
         <v>46</v>
@@ -11028,10 +11028,10 @@
         <v>29</v>
       </c>
       <c r="H84" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I84" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J84" s="26" t="s">
         <v>46</v>
@@ -11087,10 +11087,10 @@
         <v>29</v>
       </c>
       <c r="H85" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I85" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J85" s="25" t="s">
         <v>46</v>
@@ -11146,10 +11146,10 @@
         <v>31</v>
       </c>
       <c r="H86" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I86" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J86" s="25" t="s">
         <v>47</v>
@@ -11205,10 +11205,10 @@
         <v>31</v>
       </c>
       <c r="H87" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I87" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J87" s="26" t="s">
         <v>47</v>
@@ -11264,10 +11264,10 @@
         <v>29</v>
       </c>
       <c r="H88" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I88" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J88" s="25" t="s">
         <v>46</v>
@@ -11323,10 +11323,10 @@
         <v>29</v>
       </c>
       <c r="H89" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I89" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J89" s="26" t="s">
         <v>46</v>
@@ -11382,10 +11382,10 @@
         <v>29</v>
       </c>
       <c r="H90" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I90" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J90" s="25" t="s">
         <v>46</v>
@@ -11441,10 +11441,10 @@
         <v>29</v>
       </c>
       <c r="H91" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I91" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J91" s="26" t="s">
         <v>46</v>
@@ -11500,10 +11500,10 @@
         <v>29</v>
       </c>
       <c r="H92" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I92" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>46</v>
@@ -11559,10 +11559,10 @@
         <v>31</v>
       </c>
       <c r="H93" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I93" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J93" s="25" t="s">
         <v>47</v>
@@ -11618,10 +11618,10 @@
         <v>31</v>
       </c>
       <c r="H94" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I94" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J94" s="26" t="s">
         <v>47</v>
@@ -11677,10 +11677,10 @@
         <v>29</v>
       </c>
       <c r="H95" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I95" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J95" s="25" t="s">
         <v>46</v>
@@ -11736,10 +11736,10 @@
         <v>29</v>
       </c>
       <c r="H96" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I96" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J96" s="26" t="s">
         <v>46</v>
@@ -11795,10 +11795,10 @@
         <v>29</v>
       </c>
       <c r="H97" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I97" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J97" s="25" t="s">
         <v>46</v>
@@ -11854,10 +11854,10 @@
         <v>29</v>
       </c>
       <c r="H98" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I98" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J98" s="26" t="s">
         <v>46</v>
@@ -11913,10 +11913,10 @@
         <v>29</v>
       </c>
       <c r="H99" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I99" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J99" s="25" t="s">
         <v>46</v>
@@ -11972,10 +11972,10 @@
         <v>31</v>
       </c>
       <c r="H100" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I100" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J100" s="25" t="s">
         <v>47</v>
@@ -12031,10 +12031,10 @@
         <v>31</v>
       </c>
       <c r="H101" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I101" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J101" s="26" t="s">
         <v>47</v>
@@ -12090,10 +12090,10 @@
         <v>29</v>
       </c>
       <c r="H102" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I102" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J102" s="25" t="s">
         <v>46</v>
@@ -12149,10 +12149,10 @@
         <v>29</v>
       </c>
       <c r="H103" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I103" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J103" s="26" t="s">
         <v>46</v>
@@ -12208,10 +12208,10 @@
         <v>29</v>
       </c>
       <c r="H104" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I104" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J104" s="25" t="s">
         <v>46</v>
@@ -12267,10 +12267,10 @@
         <v>29</v>
       </c>
       <c r="H105" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I105" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J105" s="26" t="s">
         <v>46</v>
@@ -12326,10 +12326,10 @@
         <v>29</v>
       </c>
       <c r="H106" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I106" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J106" s="25" t="s">
         <v>46</v>
@@ -12385,10 +12385,10 @@
         <v>31</v>
       </c>
       <c r="H107" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I107" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J107" s="25" t="s">
         <v>47</v>
@@ -12444,10 +12444,10 @@
         <v>31</v>
       </c>
       <c r="H108" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I108" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J108" s="26" t="s">
         <v>47</v>
@@ -12503,10 +12503,10 @@
         <v>29</v>
       </c>
       <c r="H109" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I109" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J109" s="25" t="s">
         <v>46</v>
@@ -12562,10 +12562,10 @@
         <v>29</v>
       </c>
       <c r="H110" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I110" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J110" s="26" t="s">
         <v>46</v>
@@ -12621,10 +12621,10 @@
         <v>29</v>
       </c>
       <c r="H111" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I111" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J111" s="25" t="s">
         <v>46</v>
@@ -12680,10 +12680,10 @@
         <v>29</v>
       </c>
       <c r="H112" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I112" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J112" s="26" t="s">
         <v>46</v>
@@ -12739,10 +12739,10 @@
         <v>29</v>
       </c>
       <c r="H113" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I113" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J113" s="25" t="s">
         <v>46</v>
@@ -12798,10 +12798,10 @@
         <v>31</v>
       </c>
       <c r="H114" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I114" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>47</v>
@@ -12857,10 +12857,10 @@
         <v>31</v>
       </c>
       <c r="H115" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I115" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J115" s="26" t="s">
         <v>47</v>
@@ -12916,10 +12916,10 @@
         <v>29</v>
       </c>
       <c r="H116" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I116" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J116" s="25" t="s">
         <v>46</v>
@@ -12975,10 +12975,10 @@
         <v>29</v>
       </c>
       <c r="H117" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I117" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J117" s="26" t="s">
         <v>46</v>
@@ -13034,10 +13034,10 @@
         <v>29</v>
       </c>
       <c r="H118" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I118" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J118" s="25" t="s">
         <v>46</v>
@@ -13093,10 +13093,10 @@
         <v>29</v>
       </c>
       <c r="H119" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I119" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J119" s="26" t="s">
         <v>46</v>
@@ -13152,10 +13152,10 @@
         <v>29</v>
       </c>
       <c r="H120" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I120" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J120" s="25" t="s">
         <v>46</v>
@@ -13211,10 +13211,10 @@
         <v>31</v>
       </c>
       <c r="H121" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I121" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J121" s="25" t="s">
         <v>47</v>
@@ -13270,10 +13270,10 @@
         <v>31</v>
       </c>
       <c r="H122" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I122" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J122" s="26" t="s">
         <v>47</v>
@@ -13329,10 +13329,10 @@
         <v>29</v>
       </c>
       <c r="H123" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I123" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J123" s="25" t="s">
         <v>46</v>
@@ -13388,10 +13388,10 @@
         <v>29</v>
       </c>
       <c r="H124" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I124" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J124" s="26" t="s">
         <v>46</v>
@@ -13447,10 +13447,10 @@
         <v>29</v>
       </c>
       <c r="H125" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I125" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J125" s="25" t="s">
         <v>46</v>
@@ -13506,10 +13506,10 @@
         <v>29</v>
       </c>
       <c r="H126" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I126" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J126" s="26" t="s">
         <v>46</v>
@@ -13565,10 +13565,10 @@
         <v>29</v>
       </c>
       <c r="H127" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I127" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J127" s="25" t="s">
         <v>46</v>
@@ -13624,10 +13624,10 @@
         <v>31</v>
       </c>
       <c r="H128" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I128" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J128" s="25" t="s">
         <v>47</v>
@@ -13683,10 +13683,10 @@
         <v>31</v>
       </c>
       <c r="H129" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I129" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J129" s="26" t="s">
         <v>47</v>
@@ -13742,10 +13742,10 @@
         <v>29</v>
       </c>
       <c r="H130" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I130" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J130" s="25" t="s">
         <v>46</v>
@@ -13801,10 +13801,10 @@
         <v>29</v>
       </c>
       <c r="H131" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I131" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J131" s="26" t="s">
         <v>46</v>
@@ -13860,10 +13860,10 @@
         <v>29</v>
       </c>
       <c r="H132" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I132" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J132" s="25" t="s">
         <v>46</v>
@@ -13919,10 +13919,10 @@
         <v>29</v>
       </c>
       <c r="H133" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I133" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J133" s="26" t="s">
         <v>46</v>
@@ -13978,10 +13978,10 @@
         <v>29</v>
       </c>
       <c r="H134" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I134" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J134" s="25" t="s">
         <v>46</v>
@@ -14037,10 +14037,10 @@
         <v>31</v>
       </c>
       <c r="H135" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I135" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J135" s="25" t="s">
         <v>47</v>
@@ -14096,10 +14096,10 @@
         <v>31</v>
       </c>
       <c r="H136" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I136" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>47</v>
@@ -14155,10 +14155,10 @@
         <v>29</v>
       </c>
       <c r="H137" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I137" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J137" s="25" t="s">
         <v>46</v>
@@ -14214,10 +14214,10 @@
         <v>29</v>
       </c>
       <c r="H138" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I138" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J138" s="26" t="s">
         <v>46</v>
@@ -14273,10 +14273,10 @@
         <v>29</v>
       </c>
       <c r="H139" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I139" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J139" s="25" t="s">
         <v>46</v>
@@ -14332,10 +14332,10 @@
         <v>29</v>
       </c>
       <c r="H140" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I140" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J140" s="26" t="s">
         <v>46</v>
@@ -14391,10 +14391,10 @@
         <v>29</v>
       </c>
       <c r="H141" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I141" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J141" s="25" t="s">
         <v>46</v>
@@ -14450,10 +14450,10 @@
         <v>31</v>
       </c>
       <c r="H142" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I142" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J142" s="25" t="s">
         <v>47</v>
@@ -14509,10 +14509,10 @@
         <v>31</v>
       </c>
       <c r="H143" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I143" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J143" s="26" t="s">
         <v>47</v>
@@ -14568,10 +14568,10 @@
         <v>29</v>
       </c>
       <c r="H144" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I144" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J144" s="25" t="s">
         <v>46</v>
@@ -14627,10 +14627,10 @@
         <v>29</v>
       </c>
       <c r="H145" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I145" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J145" s="26" t="s">
         <v>46</v>
@@ -14686,10 +14686,10 @@
         <v>29</v>
       </c>
       <c r="H146" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I146" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J146" s="25" t="s">
         <v>46</v>
@@ -14745,10 +14745,10 @@
         <v>29</v>
       </c>
       <c r="H147" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I147" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J147" s="26" t="s">
         <v>46</v>
@@ -14804,10 +14804,10 @@
         <v>29</v>
       </c>
       <c r="H148" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I148" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J148" s="25" t="s">
         <v>46</v>
@@ -14863,10 +14863,10 @@
         <v>31</v>
       </c>
       <c r="H149" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I149" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J149" s="25" t="s">
         <v>47</v>
@@ -14922,10 +14922,10 @@
         <v>31</v>
       </c>
       <c r="H150" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I150" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J150" s="26" t="s">
         <v>47</v>
@@ -14981,10 +14981,10 @@
         <v>29</v>
       </c>
       <c r="H151" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I151" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J151" s="25" t="s">
         <v>46</v>
@@ -15040,10 +15040,10 @@
         <v>29</v>
       </c>
       <c r="H152" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I152" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J152" s="26" t="s">
         <v>46</v>
@@ -15099,10 +15099,10 @@
         <v>29</v>
       </c>
       <c r="H153" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I153" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J153" s="25" t="s">
         <v>46</v>
@@ -15158,10 +15158,10 @@
         <v>29</v>
       </c>
       <c r="H154" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I154" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J154" s="26" t="s">
         <v>46</v>
@@ -15217,10 +15217,10 @@
         <v>29</v>
       </c>
       <c r="H155" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I155" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J155" s="25" t="s">
         <v>46</v>
@@ -15276,10 +15276,10 @@
         <v>31</v>
       </c>
       <c r="H156" s="25">
-        <v>-78</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I156" s="25">
-        <v>71.7</v>
+        <v>28.7</v>
       </c>
       <c r="J156" s="25" t="s">
         <v>47</v>
@@ -15335,10 +15335,10 @@
         <v>31</v>
       </c>
       <c r="H157" s="26">
-        <v>-79.099999999999994</v>
+        <v>47.13</v>
       </c>
       <c r="I157" s="26">
-        <v>-79.900000000000006</v>
+        <v>22.96</v>
       </c>
       <c r="J157" s="26" t="s">
         <v>47</v>
@@ -15394,10 +15394,10 @@
         <v>29</v>
       </c>
       <c r="H158" s="25">
-        <v>1.1000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="I158" s="25">
-        <v>-34.9</v>
+        <v>-43.25</v>
       </c>
       <c r="J158" s="25" t="s">
         <v>46</v>
@@ -15453,10 +15453,10 @@
         <v>29</v>
       </c>
       <c r="H159" s="26">
-        <v>5</v>
+        <v>-8.23</v>
       </c>
       <c r="I159" s="26">
-        <v>-85.5</v>
+        <v>173.62</v>
       </c>
       <c r="J159" s="26" t="s">
         <v>46</v>
@@ -15512,10 +15512,10 @@
         <v>29</v>
       </c>
       <c r="H160" s="25">
-        <v>24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I160" s="25">
-        <v>-161</v>
+        <v>-169.82</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>46</v>
@@ -15571,10 +15571,10 @@
         <v>29</v>
       </c>
       <c r="H161" s="26">
-        <v>12.5</v>
+        <v>-55.99</v>
       </c>
       <c r="I161" s="26">
-        <v>117</v>
+        <v>-120.79</v>
       </c>
       <c r="J161" s="26" t="s">
         <v>46</v>
@@ -15630,10 +15630,10 @@
         <v>29</v>
       </c>
       <c r="H162" s="31">
-        <v>-6.7</v>
+        <v>-17.82</v>
       </c>
       <c r="I162" s="31">
-        <v>47.6</v>
+        <v>-41.39</v>
       </c>
       <c r="J162" s="31" t="s">
         <v>46</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38523649-3119-43E2-A829-3A992A6F97F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922829CB-1947-47A6-8C7D-F957BB7013E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="473">
   <si>
     <t>Description</t>
   </si>
@@ -2313,7 +2313,95 @@
     <t>Floor map Details</t>
   </si>
   <si>
-    <t>Title:
+    <t>Title: 1
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 2
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 3
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 4
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 5
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 6
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 7
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 8
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 9
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 10
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 11
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 12
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 13
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 14
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 15
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 16
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 17
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 18
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 19
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 20
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 21
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 22
+Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>Title: 23
 Description of the card details if needed</t>
   </si>
 </sst>
@@ -2669,24 +2757,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <name val="Inter"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3580,6 +3650,24 @@
         <name val="Inter"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <name val="Inter"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3828,63 +3916,63 @@
     <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="48"/>
     <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="47"/>
     <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="46"/>
-    <tableColumn id="26" xr3:uid="{9B34F8E8-0E7B-400B-82B0-9AB62121F087}" name="Floor map Details" dataDxfId="0"/>
-    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="45"/>
-    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="43"/>
+    <tableColumn id="26" xr3:uid="{9B34F8E8-0E7B-400B-82B0-9AB62121F087}" name="Floor map Details" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="44"/>
+    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:S162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="19">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="40"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="17" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="16" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4099,7 +4187,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4358,7 +4446,7 @@
         <v>445</v>
       </c>
       <c r="W3" s="48" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X3" s="13" t="b">
         <v>1</v>
@@ -4436,7 +4524,7 @@
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="48" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="X4" s="47" t="b">
         <v>0</v>
@@ -4514,7 +4602,7 @@
       </c>
       <c r="V5" s="13"/>
       <c r="W5" s="48" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="X5" s="47" t="b">
         <v>0</v>
@@ -4592,7 +4680,7 @@
       </c>
       <c r="V6" s="13"/>
       <c r="W6" s="48" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="X6" s="47" t="b">
         <v>0</v>
@@ -4670,7 +4758,7 @@
       </c>
       <c r="V7" s="13"/>
       <c r="W7" s="48" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="X7" s="47" t="b">
         <v>0</v>
@@ -4750,7 +4838,7 @@
         <v>445</v>
       </c>
       <c r="W8" s="48" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="X8" s="47" t="b">
         <v>0</v>
@@ -4830,7 +4918,7 @@
         <v>445</v>
       </c>
       <c r="W9" s="48" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="X9" s="47" t="b">
         <v>0</v>
@@ -4910,7 +4998,7 @@
         <v>445</v>
       </c>
       <c r="W10" s="48" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="X10" s="47" t="b">
         <v>0</v>
@@ -4990,7 +5078,7 @@
         <v>445</v>
       </c>
       <c r="W11" s="48" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="X11" s="13" t="b">
         <v>1</v>
@@ -5070,7 +5158,7 @@
         <v>445</v>
       </c>
       <c r="W12" s="48" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="X12" s="13" t="b">
         <v>1</v>
@@ -5150,7 +5238,7 @@
         <v>445</v>
       </c>
       <c r="W13" s="48" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="X13" s="13" t="b">
         <v>1</v>
@@ -5230,7 +5318,7 @@
         <v>445</v>
       </c>
       <c r="W14" s="48" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="X14" s="13" t="b">
         <v>1</v>
@@ -5310,7 +5398,7 @@
         <v>445</v>
       </c>
       <c r="W15" s="48" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="X15" s="13" t="b">
         <v>1</v>
@@ -5390,7 +5478,7 @@
         <v>446</v>
       </c>
       <c r="W16" s="48" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="X16" s="13" t="b">
         <v>1</v>
@@ -5470,7 +5558,7 @@
         <v>446</v>
       </c>
       <c r="W17" s="48" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="X17" s="13" t="b">
         <v>1</v>
@@ -5550,7 +5638,7 @@
         <v>446</v>
       </c>
       <c r="W18" s="48" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="X18" s="13" t="b">
         <v>1</v>
@@ -5630,7 +5718,7 @@
         <v>446</v>
       </c>
       <c r="W19" s="48" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="X19" s="13" t="b">
         <v>1</v>
@@ -5710,7 +5798,7 @@
         <v>446</v>
       </c>
       <c r="W20" s="48" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="X20" s="13" t="b">
         <v>1</v>
@@ -5790,7 +5878,7 @@
         <v>446</v>
       </c>
       <c r="W21" s="48" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="X21" s="13" t="b">
         <v>1</v>
@@ -5870,7 +5958,7 @@
         <v>446</v>
       </c>
       <c r="W22" s="48" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="X22" s="13" t="b">
         <v>1</v>
@@ -5950,7 +6038,7 @@
         <v>446</v>
       </c>
       <c r="W23" s="48" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="X23" s="13" t="b">
         <v>1</v>
@@ -6030,7 +6118,7 @@
         <v>446</v>
       </c>
       <c r="W24" s="48" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="X24" s="13" t="b">
         <v>1</v>
@@ -6045,10 +6133,10 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{CD437926-0051-42E8-974D-E38762304209}"/>
@@ -6082,7 +6170,7 @@
   <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H156" sqref="H156:I162"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -16341,28 +16429,28 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="L4:L8">
-    <cfRule type="duplicateValues" dxfId="8" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L24 L32:L52 L60:L80 L88:L101 L109:L162">
-    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L29">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:L57">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81:L85">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102:L106">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L170:L174">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L175:L179">
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q4" r:id="rId1" xr:uid="{D9569CBD-1C1A-4EF0-9D90-B70EA928D150}"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922829CB-1947-47A6-8C7D-F957BB7013E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF514857-419D-4003-9DDA-6A24BADD59AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="474">
   <si>
     <t>Description</t>
   </si>
@@ -2403,6 +2403,9 @@
   <si>
     <t>Title: 23
 Description of the card details if needed</t>
+  </si>
+  <si>
+    <t>https://www.roomsketcher.com/content/uploads/2021/12/Draw-2D3DFloorPlans.jpg</t>
   </si>
 </sst>
 </file>
@@ -4186,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4212,7 +4215,9 @@
     <col min="19" max="19" width="13.27734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.27734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.88671875" customWidth="1"/>
-    <col min="22" max="25" width="18.77734375" customWidth="1"/>
+    <col min="22" max="22" width="22.109375" customWidth="1"/>
+    <col min="23" max="23" width="30.0546875" customWidth="1"/>
+    <col min="24" max="25" width="18.77734375" customWidth="1"/>
     <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.38671875" customWidth="1"/>
     <col min="28" max="28" width="15.1640625" customWidth="1"/>
@@ -5074,9 +5079,7 @@
       <c r="U11" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="V11" s="13" t="s">
-        <v>445</v>
-      </c>
+      <c r="V11" s="13"/>
       <c r="W11" s="48" t="s">
         <v>459</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="W12" s="48" t="s">
         <v>460</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CCD00C-2FEF-49C3-A2E5-F1AFD82A77D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D6E783-A083-4A17-9BCD-C53D8310AEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4374,7 +4374,7 @@
         <v>75</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>2</v>
@@ -4398,10 +4398,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="45">
-        <v>14.24</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O2" s="19">
-        <v>75.16</v>
+        <v>-4.01</v>
       </c>
       <c r="P2" s="13">
         <v>100</v>
@@ -4454,7 +4454,7 @@
         <v>76</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>2</v>
@@ -4478,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O3" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P3" s="13">
         <v>100</v>
@@ -4534,7 +4534,7 @@
         <v>77</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>2</v>
@@ -4558,10 +4558,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O4" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P4" s="13">
         <v>100</v>
@@ -4612,7 +4612,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>2</v>
@@ -4636,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O5" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P5" s="13">
         <v>100</v>
@@ -4690,7 +4690,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>2</v>
@@ -4714,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O6" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P6" s="13">
         <v>100</v>
@@ -4768,7 +4768,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>473</v>
+        <v>106</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>2</v>
@@ -4792,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O7" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P7" s="13">
         <v>100</v>
@@ -4870,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O8" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P8" s="13">
         <v>100</v>
@@ -4950,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="N9" s="45">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O9" s="19">
-        <v>-7.6</v>
+        <v>-4.01</v>
       </c>
       <c r="P9" s="13">
         <v>100</v>
@@ -6226,7 +6226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D6E783-A083-4A17-9BCD-C53D8310AEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6B922-77F9-4AE4-B44E-5DBDA0440905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4244,7 +4244,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N2" sqref="N2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4398,10 +4398,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O2" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P2" s="13">
         <v>100</v>
@@ -4478,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O3" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P3" s="13">
         <v>100</v>
@@ -4558,10 +4558,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O4" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P4" s="13">
         <v>100</v>
@@ -4636,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O5" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P5" s="13">
         <v>100</v>
@@ -4714,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O6" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P6" s="13">
         <v>100</v>
@@ -4792,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O7" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P7" s="13">
         <v>100</v>
@@ -4870,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O8" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P8" s="13">
         <v>100</v>
@@ -4950,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="N9" s="45">
-        <v>0.57999999999999996</v>
+        <v>-3.37</v>
       </c>
       <c r="O9" s="19">
-        <v>-4.01</v>
+        <v>176.86</v>
       </c>
       <c r="P9" s="13">
         <v>100</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6B922-77F9-4AE4-B44E-5DBDA0440905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44170001-8888-4797-B27E-8CDC97DAFF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O9"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4407,7 +4407,7 @@
         <v>100</v>
       </c>
       <c r="Q2" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="13">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>100</v>
       </c>
       <c r="Q3" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="13">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="13">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>100</v>
       </c>
       <c r="Q5" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="13">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>100</v>
       </c>
       <c r="Q6" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="13">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>100</v>
       </c>
       <c r="Q7" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="13">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>100</v>
       </c>
       <c r="Q8" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="13">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="13">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>100</v>
       </c>
       <c r="Q10" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="13">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>100</v>
       </c>
       <c r="Q11" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>100</v>
       </c>
       <c r="Q13" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="13">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="Q14" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="13">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>100</v>
       </c>
       <c r="Q15" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>100</v>
       </c>
       <c r="Q16" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="13">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>100</v>
       </c>
       <c r="Q18" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13">
         <v>0</v>
@@ -5757,7 +5757,7 @@
         <v>100</v>
       </c>
       <c r="Q19" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>100</v>
       </c>
       <c r="Q21" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="13">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="13">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44170001-8888-4797-B27E-8CDC97DAFF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5D6E3-0857-4617-9312-E0F62A6E2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4398,10 +4398,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O2" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P2" s="13">
         <v>100</v>
@@ -4478,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O3" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P3" s="13">
         <v>100</v>
@@ -4558,10 +4558,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O4" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P4" s="13">
         <v>100</v>
@@ -4636,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O5" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P5" s="13">
         <v>100</v>
@@ -4714,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O6" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P6" s="13">
         <v>100</v>
@@ -4792,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O7" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P7" s="13">
         <v>100</v>
@@ -4870,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O8" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P8" s="13">
         <v>100</v>
@@ -4950,10 +4950,10 @@
         <v>1</v>
       </c>
       <c r="N9" s="45">
-        <v>-3.37</v>
+        <v>-2.79</v>
       </c>
       <c r="O9" s="19">
-        <v>176.86</v>
+        <v>176.61</v>
       </c>
       <c r="P9" s="13">
         <v>100</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5D6E3-0857-4617-9312-E0F62A6E2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725AC42-F5D0-40F2-A054-7CC24D7991D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4612,7 +4612,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>2</v>
@@ -4690,7 +4690,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>2</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725AC42-F5D0-40F2-A054-7CC24D7991D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF396FD1-0424-4BB6-8920-CCA475C675B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4244,7 +4244,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4534,7 +4534,7 @@
         <v>77</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>2</v>
@@ -4690,7 +4690,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>2</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF396FD1-0424-4BB6-8920-CCA475C675B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297F2A1D-DAE8-4F1C-9CF0-A66D8B8C04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4244,7 +4244,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4534,7 +4534,7 @@
         <v>77</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>2</v>
@@ -4690,7 +4690,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>2</v>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297F2A1D-DAE8-4F1C-9CF0-A66D8B8C04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70AB61-2B13-4630-B679-E5C718A787F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2630,7 +2630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2776,6 +2776,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4243,8 +4249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -4373,7 +4379,7 @@
       <c r="E2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="53" t="s">
         <v>469</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -4453,7 +4459,7 @@
       <c r="E3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="54" t="s">
         <v>472</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -4478,10 +4484,11 @@
         <v>1</v>
       </c>
       <c r="N3" s="45">
-        <v>-2.79</v>
+        <f>--7.17</f>
+        <v>7.17</v>
       </c>
       <c r="O3" s="19">
-        <v>176.61</v>
+        <v>171.97</v>
       </c>
       <c r="P3" s="13">
         <v>100</v>
@@ -4533,8 +4540,8 @@
       <c r="E4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>473</v>
+      <c r="F4" s="53" t="s">
+        <v>471</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>2</v>
@@ -4611,8 +4618,8 @@
       <c r="E5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>470</v>
+      <c r="F5" s="53" t="s">
+        <v>473</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>2</v>
@@ -4689,8 +4696,8 @@
       <c r="E6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>471</v>
+      <c r="F6" s="54" t="s">
+        <v>470</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>2</v>
@@ -4767,7 +4774,7 @@
       <c r="E7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="54" t="s">
         <v>106</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -6200,19 +6207,19 @@
     <hyperlink ref="G24" r:id="rId5" xr:uid="{F6F2E5D4-3D07-4354-8758-9FDF501FF5D6}"/>
     <hyperlink ref="H24" r:id="rId6" xr:uid="{A0D183CA-9B40-45F4-961C-4A2053566F47}"/>
     <hyperlink ref="F24" r:id="rId7" xr:uid="{692EE34C-1BE1-439B-99DD-6EE07BF6BEC6}"/>
-    <hyperlink ref="F2" r:id="rId8" xr:uid="{AD4D78D3-E0E1-4586-A7DA-C829F42D6FC9}"/>
-    <hyperlink ref="J2" r:id="rId9" xr:uid="{C27E8222-BB06-44A6-91DD-B414EDBA8120}"/>
-    <hyperlink ref="J16" r:id="rId10" xr:uid="{7F4FD95E-D1CF-4178-B7FB-A494535270D1}"/>
-    <hyperlink ref="H4" r:id="rId11" xr:uid="{6C69B97E-EAFB-43EE-BCF9-F1737A23BCEF}"/>
-    <hyperlink ref="H19" r:id="rId12" xr:uid="{E9B355D1-971A-4C20-AED5-2016538E930A}"/>
-    <hyperlink ref="J17:J18" r:id="rId13" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/VoiceOverAR.mp3" xr:uid="{731F5AEE-B8CD-4E6F-A841-8859E8484A46}"/>
-    <hyperlink ref="J24" r:id="rId14" xr:uid="{B318BE54-3D1A-41E5-9D89-19102C00B67C}"/>
-    <hyperlink ref="F3:F7" r:id="rId15" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/HDRI01.JPG" xr:uid="{DF1E37DA-5C01-4062-B697-5F9FDEBA9674}"/>
-    <hyperlink ref="F3" r:id="rId16" xr:uid="{056056A5-1D85-4CCB-A3EA-CA9B1339F5D9}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{295723DB-80F9-4159-AB70-AD684CC8B9D0}"/>
-    <hyperlink ref="F5" r:id="rId18" xr:uid="{7FC00CF1-670D-4AB5-8BD3-E68F200E4D8D}"/>
-    <hyperlink ref="F6" r:id="rId19" xr:uid="{4B9C0664-638A-48F0-98A2-2D5820053726}"/>
-    <hyperlink ref="F7" r:id="rId20" xr:uid="{C56DF5B4-9658-444B-92EA-DE3ED1465926}"/>
+    <hyperlink ref="J2" r:id="rId8" xr:uid="{C27E8222-BB06-44A6-91DD-B414EDBA8120}"/>
+    <hyperlink ref="J16" r:id="rId9" xr:uid="{7F4FD95E-D1CF-4178-B7FB-A494535270D1}"/>
+    <hyperlink ref="H4" r:id="rId10" xr:uid="{6C69B97E-EAFB-43EE-BCF9-F1737A23BCEF}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{E9B355D1-971A-4C20-AED5-2016538E930A}"/>
+    <hyperlink ref="J17:J18" r:id="rId12" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/VoiceOverAR.mp3" xr:uid="{731F5AEE-B8CD-4E6F-A841-8859E8484A46}"/>
+    <hyperlink ref="J24" r:id="rId13" xr:uid="{B318BE54-3D1A-41E5-9D89-19102C00B67C}"/>
+    <hyperlink ref="F2" r:id="rId14" xr:uid="{955BBDE6-3653-4B30-BEAB-369D5F61BCC1}"/>
+    <hyperlink ref="F3:F7" r:id="rId15" display="https://raw.githubusercontent.com/Rmoosa2014/vr-tour/main/HDRI01.JPG" xr:uid="{530E6121-D04F-4B01-95A5-E58B5DA6ABEF}"/>
+    <hyperlink ref="F3" r:id="rId16" xr:uid="{3CCDABAF-7733-4CA0-98C2-5BBCCF7CC360}"/>
+    <hyperlink ref="F5" r:id="rId17" xr:uid="{FC2A8D24-EDAF-46F6-B1EB-0DE1D718BC2E}"/>
+    <hyperlink ref="F6" r:id="rId18" xr:uid="{0F04F74A-C7AF-4270-BF3F-B892737F9485}"/>
+    <hyperlink ref="F4" r:id="rId19" xr:uid="{7549D256-AA4A-4830-97CE-DE90E16987C5}"/>
+    <hyperlink ref="F7" r:id="rId20" xr:uid="{1AB82CA2-ACD0-468F-9F10-9B67A3E10CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId21"/>

--- a/360MasterData.xlsx
+++ b/360MasterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70AB61-2B13-4630-B679-E5C718A787F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06B161-C776-42FF-8301-89F2997AD85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Scenes Sheet" sheetId="5" r:id="rId1"/>
@@ -2789,17 +2789,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="69">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3954,88 +3944,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:Z24" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}" name="Table2" displayName="Table2" ref="A1:Z24" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:Z24" xr:uid="{B3BD341F-A9EE-47D0-8C60-8860D1D4E7C2}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="65"/>
-    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="62" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="61" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="60" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="59"/>
-    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="58" dataCellStyle="Hyperlink"/>
-    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
-    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="56" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="55" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="46"/>
-    <tableColumn id="26" xr3:uid="{9B34F8E8-0E7B-400B-82B0-9AB62121F087}" name="Floor map Details" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="44"/>
-    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{3F466341-C4E1-4EB6-AED5-B3FAB9FFDB04}" name="FloorGroupName" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{95822792-7ABB-423C-82E9-6D0F0DB26332}" name="Section2" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{F5DD3373-E684-418A-9C83-7C1DAF3E703C}" name="SceneID" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{C2E35991-5AAE-4454-B112-E210FA45B5B1}" name="Scene Order" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{1B214639-BDF9-4E07-8399-162C51178468}" name="SceneDisplayName" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{5C39FDEC-5B6B-4B37-A3D9-2FF0E84DB986}" name="PanoramaURL" dataDxfId="61" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{65443BFD-E63B-46ED-9BF9-60D1AEFBE995}" name="LogoURL" dataDxfId="60" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{479ED09E-25DD-46EC-B69E-1861960DEAC2}" name="Background music URL" dataDxfId="59" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" xr3:uid="{57935DA2-FBD2-4844-9037-7137E42964CE}" name="Background music Active" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{C4D373A5-CE54-491B-9807-1166BCDEB305}" name="Background Voice Over URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
+    <tableColumn id="19" xr3:uid="{6234DADD-60C1-4FBC-8721-B0C377137173}" name="VC Actor Avatar URL" dataDxfId="56" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{F0BFA0EF-DF4E-4896-A5FE-58501F313D77}" name="VC Actor image BG Color" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{F78E9396-7CBD-4F84-9A86-30BE5F251A4F}" name="Background Voice Over Active" dataDxfId="54" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9659F453-2FDD-4F12-8239-DD98421E212B}" name="InitialPitch" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{CE8A6BA7-78A8-4B32-A5C9-820E789064BA}" name="InitialYaw" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{5EF27361-EA21-49B6-B21B-8017A9DE476E}" name="InitialZoom" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{F89939D0-37DB-4307-92F3-5C4A93A00D1C}" name="AutoRotate" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{841A2892-EB40-41E4-970A-069A5F80AE6F}" name="NorthOffset" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{7990DFCD-7C68-4753-865B-59877205AB47}" name="SceneID Active" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{A8F84F3B-00B3-4D3C-9D9A-1341A9EFEE4D}" name="Hotspot ID" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{D4B98C57-A117-462D-AE9B-DEC916B1362B}" name="Hotspot Active" dataDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{81D4978B-66B3-415D-8A0B-3C39AEABC8F4}" name="Floor Map" dataDxfId="45"/>
+    <tableColumn id="26" xr3:uid="{9B34F8E8-0E7B-400B-82B0-9AB62121F087}" name="Floor map Details" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{9B53D36C-2C6E-4874-90BE-0AE384CE5D57}" name="Floor Map Active" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{35D08936-E73F-4BB6-8277-979FFFDB890C}" name="Get Pitch/Yaw Data" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{73FDCD44-2E0B-408D-8C8B-526CF8AD1030}" name="LastUpdated" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}" name="Table1" displayName="Table1" ref="A1:S162" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:S162" xr:uid="{1C481020-1612-4FDF-9B0C-75A16E8BD6EE}"/>
   <tableColumns count="19">
-    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{6C92FDC8-7FD4-4ED1-84DE-C73B1AEF49AA}" name="FloorID" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{8DAC3286-642C-4DB0-A8B8-5C7BF99FB11F}" name="SceneID" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{79CDA865-39EA-4125-85E4-F3D78AC4893A}" name="Hotspot ID" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{4BDAA051-81D1-400A-A39C-7D867ECB0341}" name="Hotspot Name" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{F981A75D-66D8-4E38-82C9-6DCD2B17FC3E}" name="Type" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{787CBE39-1923-41F6-9372-CA2D56C6E632}" name="TargetSceneID" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{878E0985-EA91-45B5-B984-8D637B8FAC1A}" name="StyleID/CustomCSS" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{5750A58C-6161-4401-AC72-9E158AEE5857}" name="Pitch" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{BE566E3E-5C22-4617-9723-BF12A43249DE}" name="Yaw" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{5A307C93-AF79-4FC7-8CD0-D327558EE7A8}" name="Rotation" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{CDA04002-4AE2-42E0-BE80-D1092B841D6F}" name="Custom Hotspot URL" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{B760F4E6-236A-47E6-B68A-77D0E77DEBE8}" name="Hotspot HoverImage URL" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{54ECD990-86C2-40C1-B48B-2D7A81FF92B9}" name="Title" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{945E3504-CBC4-4B71-87A6-409E0A7C093F}" name="Description" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{3055829F-DDE9-4492-B64F-EA9B27D86F0D}" name="SR Currancy Symbol image URL" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{37499370-9458-4DA7-9E1E-492AC195DCB2}" name="Price" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{51AF3A7A-9E37-4EC3-95E2-04EA97CB0A3F}" name="Avatar Image URL" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{62D296DE-BD87-415D-A7A9-7B26ADBEBF6D}" name="Voice over" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{48873D82-692C-4357-B503-4E9A267EC815}" name="Hotspot Hover Active" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}" name="Table3" displayName="Table3" ref="A1:E3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E3" xr:uid="{B3877FE7-10F8-47C2-9A2D-F16124172AF7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7F04D01F-FFB6-4446-80B1-1E1109F1CC77}" name="FloorID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D8967C29-E37C-4C91-8578-2B0335FAAD72}" name="FloorName" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{86218806-D26E-4D12-84C1-DF3205F3D3D2}" name="ThumbnailURL" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{51DA99DE-2BCE-4472-8DFA-9B7A313CBD9F}" name="Order" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{919846AB-3552-48DA-97F3-A7CC50F58867}" name="Floor Thumb Active" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:B4" xr:uid="{2174795D-1356-4663-9B2E-C9CC7041F757}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E6B3FDCD-EBB2-4CD5-A320-D45F8BCB7318}" name="StyleID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2B3483AB-435E-499C-8675-560E5B48DE5F}" name="CSS Rules" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4249,25 +4239,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4369BCEB-0E17-4F52-9822-7178FED3746E}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="13.94140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.27734375" style="12" customWidth="1"/>
     <col min="5" max="5" width="17.94140625" customWidth="1"/>
-    <col min="6" max="6" width="77.88671875" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.609375" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="74.77734375" customWidth="1"/>
-    <col min="11" max="11" width="30.71875" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.609375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="46" customWidth="1"/>
     <col min="15" max="15" width="9.44140625" customWidth="1"/>
     <col min="16" max="16" width="8.609375" customWidth="1"/>
@@ -4413,7 +4402,7 @@
         <v>100</v>
       </c>
       <c r="Q2" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R2" s="13">
         <v>0</v>
@@ -4494,7 +4483,7 @@
         <v>100</v>
       </c>
       <c r="Q3" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R3" s="13">
         <v>0</v>
@@ -4574,7 +4563,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R4" s="13">
         <v>0</v>
@@ -4652,7 +4641,7 @@
         <v>100</v>
       </c>
       <c r="Q5" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R5" s="13">
         <v>0</v>
@@ -4730,7 +4719,7 @@
         <v>100</v>
       </c>
       <c r="Q6" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R6" s="13">
         <v>0</v>
@@ -4808,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="Q7" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R7" s="13">
         <v>0</v>
@@ -4886,7 +4875,7 @@
         <v>100</v>
       </c>
       <c r="Q8" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R8" s="13">
         <v>0</v>
@@ -4966,7 +4955,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R9" s="13">
         <v>0</v>
@@ -5046,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="Q10" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R10" s="13">
         <v>0</v>
@@ -5126,7 +5115,7 @@
         <v>100</v>
       </c>
       <c r="Q11" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -5204,7 +5193,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -5284,7 +5273,7 @@
         <v>100</v>
       </c>
       <c r="Q13" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R13" s="13">
         <v>0</v>
@@ -5364,7 +5353,7 @@
         <v>100</v>
       </c>
       <c r="Q14" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R14" s="13">
         <v>0</v>
@@ -5444,7 +5433,7 @@
         <v>100</v>
       </c>
       <c r="Q15" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -5524,7 +5513,7 @@
         <v>100</v>
       </c>
       <c r="Q16" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
@@ -5604,7 +5593,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R17" s="13">
         <v>0</v>
@@ -5684,7 +5673,7 @@
         <v>100</v>
       </c>
       <c r="Q18" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R18" s="13">
         <v>0</v>
@@ -5764,7 +5753,7 @@
         <v>100</v>
       </c>
       <c r="Q19" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R19" s="13">
         <v>0</v>
@@ -5844,7 +5833,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R20" s="13">
         <v>0</v>
@@ -5924,7 +5913,7 @@
         <v>100</v>
       </c>
       <c r="Q21" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R21" s="13">
         <v>0</v>
@@ -6004,7 +5993,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R22" s="13">
         <v>0</v>
@@ -6084,7 +6073,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23" s="13">
         <v>0</v>
@@ -6164,7 +6153,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>
@@ -6233,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4130-C490-4ADF-9505-F9BCEDE9AD6E}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
